--- a/artfynd/A 55345-2020.xlsx
+++ b/artfynd/A 55345-2020.xlsx
@@ -10610,10 +10610,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111712875</v>
+        <v>111709518</v>
       </c>
       <c r="B90" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10622,38 +10622,38 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>725239.974958373</v>
+        <v>725395.7383604852</v>
       </c>
       <c r="R90" t="n">
-        <v>7332684.194458539</v>
+        <v>7332637.388110917</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10710,12 +10710,12 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr">
@@ -10726,10 +10726,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111711343</v>
+        <v>111710643</v>
       </c>
       <c r="B91" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10738,38 +10738,38 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>725037.9248382074</v>
+        <v>725171.2503796207</v>
       </c>
       <c r="R91" t="n">
-        <v>7332634.657815897</v>
+        <v>7332448.468230611</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10826,12 +10826,12 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr">
@@ -10842,7 +10842,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111710364</v>
+        <v>111711618</v>
       </c>
       <c r="B92" t="n">
         <v>90682</v>
@@ -10878,14 +10878,14 @@
       <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>725317.5383754801</v>
+        <v>725040.4184235387</v>
       </c>
       <c r="R92" t="n">
-        <v>7332644.230710665</v>
+        <v>7332443.787408673</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10942,12 +10942,12 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
@@ -10958,10 +10958,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111710369</v>
+        <v>111711601</v>
       </c>
       <c r="B93" t="n">
-        <v>90682</v>
+        <v>88489</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10974,34 +10974,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2059</v>
+        <v>1962</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>725235.6721345596</v>
+        <v>725036.9953395801</v>
       </c>
       <c r="R93" t="n">
-        <v>7332630.370986193</v>
+        <v>7332476.585924259</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -11058,12 +11058,12 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr">
@@ -11074,10 +11074,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111710643</v>
+        <v>111710364</v>
       </c>
       <c r="B94" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11086,38 +11086,38 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>725171.2503796207</v>
+        <v>725317.5383754801</v>
       </c>
       <c r="R94" t="n">
-        <v>7332448.468230611</v>
+        <v>7332644.230710665</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -11174,12 +11174,12 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr">
@@ -11190,10 +11190,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111711363</v>
+        <v>111710369</v>
       </c>
       <c r="B95" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11202,38 +11202,38 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>724977.6014789153</v>
+        <v>725235.6721345596</v>
       </c>
       <c r="R95" t="n">
-        <v>7332575.976116257</v>
+        <v>7332630.370986193</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11290,12 +11290,12 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr">
@@ -11306,10 +11306,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111709515</v>
+        <v>111711363</v>
       </c>
       <c r="B96" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11318,38 +11318,38 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>725584.0645977582</v>
+        <v>724977.6014789153</v>
       </c>
       <c r="R96" t="n">
-        <v>7332520.508332665</v>
+        <v>7332575.976116257</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11406,12 +11406,12 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY96" t="inlineStr">
@@ -11422,10 +11422,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111711618</v>
+        <v>111712875</v>
       </c>
       <c r="B97" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11434,38 +11434,38 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>725040.4184235387</v>
+        <v>725239.974958373</v>
       </c>
       <c r="R97" t="n">
-        <v>7332443.787408673</v>
+        <v>7332684.194458539</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11522,12 +11522,12 @@
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
@@ -11538,10 +11538,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111711601</v>
+        <v>111711343</v>
       </c>
       <c r="B98" t="n">
-        <v>88489</v>
+        <v>90660</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11554,34 +11554,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1962</v>
+        <v>4362</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>725036.9953395801</v>
+        <v>725037.9248382074</v>
       </c>
       <c r="R98" t="n">
-        <v>7332476.585924259</v>
+        <v>7332634.657815897</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11638,12 +11638,12 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY98" t="inlineStr">
@@ -12002,10 +12002,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111709528</v>
+        <v>111709515</v>
       </c>
       <c r="B102" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12018,21 +12018,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12042,10 +12042,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>725344.9515898773</v>
+        <v>725584.0645977582</v>
       </c>
       <c r="R102" t="n">
-        <v>7332628.448075263</v>
+        <v>7332520.508332665</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -12118,10 +12118,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111709518</v>
+        <v>111709528</v>
       </c>
       <c r="B103" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12134,21 +12134,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12158,10 +12158,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>725395.7383604852</v>
+        <v>725344.9515898773</v>
       </c>
       <c r="R103" t="n">
-        <v>7332637.388110917</v>
+        <v>7332628.448075263</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -12234,10 +12234,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111710346</v>
+        <v>111712887</v>
       </c>
       <c r="B104" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12250,34 +12250,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>725065.9100566822</v>
+        <v>725342.323827486</v>
       </c>
       <c r="R104" t="n">
-        <v>7332627.083262745</v>
+        <v>7332666.615299234</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -12334,12 +12334,12 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr">
@@ -12350,10 +12350,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111710635</v>
+        <v>111710359</v>
       </c>
       <c r="B105" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12366,34 +12366,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>725136.6347606094</v>
+        <v>724942.1041872292</v>
       </c>
       <c r="R105" t="n">
-        <v>7332482.870259319</v>
+        <v>7332549.477837384</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -12450,12 +12450,12 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr">
@@ -12466,10 +12466,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111710657</v>
+        <v>111710346</v>
       </c>
       <c r="B106" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12482,34 +12482,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>725051.984730282</v>
+        <v>725065.9100566822</v>
       </c>
       <c r="R106" t="n">
-        <v>7332467.97815103</v>
+        <v>7332627.083262745</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12566,12 +12566,12 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr">
@@ -12582,10 +12582,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111711362</v>
+        <v>111710635</v>
       </c>
       <c r="B107" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12594,38 +12594,38 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>724984.4355383365</v>
+        <v>725136.6347606094</v>
       </c>
       <c r="R107" t="n">
-        <v>7332592.84925364</v>
+        <v>7332482.870259319</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12657,7 +12657,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12682,12 +12682,12 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
@@ -12698,7 +12698,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111712887</v>
+        <v>111710657</v>
       </c>
       <c r="B108" t="n">
         <v>90658</v>
@@ -12734,14 +12734,14 @@
       <c r="I108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>725342.323827486</v>
+        <v>725051.984730282</v>
       </c>
       <c r="R108" t="n">
-        <v>7332666.615299234</v>
+        <v>7332467.97815103</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12798,12 +12798,12 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr">
@@ -12814,7 +12814,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111711616</v>
+        <v>111698804</v>
       </c>
       <c r="B109" t="n">
         <v>90682</v>
@@ -12847,17 +12847,27 @@
           <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>725104.4958516548</v>
+        <v>725049.5410468963</v>
       </c>
       <c r="R109" t="n">
-        <v>7332501.546363591</v>
+        <v>7332431.855455464</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12914,23 +12924,19 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
-        </is>
-      </c>
-      <c r="AY109" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111698804</v>
+        <v>111706045</v>
       </c>
       <c r="B110" t="n">
         <v>90682</v>
@@ -12963,27 +12969,17 @@
           <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>725049.5410468963</v>
+        <v>725110.620524337</v>
       </c>
       <c r="R110" t="n">
-        <v>7332431.855455464</v>
+        <v>7332501.62481179</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -13028,6 +13024,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC110" t="inlineStr">
+        <is>
+          <t>18 exemplar</t>
+        </is>
+      </c>
       <c r="AD110" t="b">
         <v>0</v>
       </c>
@@ -13040,22 +13041,22 @@
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111706045</v>
+        <v>111711362</v>
       </c>
       <c r="B111" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13064,38 +13065,38 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>725110.620524337</v>
+        <v>724984.4355383365</v>
       </c>
       <c r="R111" t="n">
-        <v>7332501.62481179</v>
+        <v>7332592.84925364</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13127,7 +13128,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -13137,12 +13138,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC111" t="inlineStr">
-        <is>
-          <t>18 exemplar</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -13157,22 +13153,26 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY111" t="inlineStr"/>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111710359</v>
+        <v>111711642</v>
       </c>
       <c r="B112" t="n">
-        <v>90710</v>
+        <v>88032</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13181,38 +13181,38 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5449</v>
+        <v>6276</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>724942.1041872292</v>
+        <v>725134.5456425183</v>
       </c>
       <c r="R112" t="n">
-        <v>7332549.477837384</v>
+        <v>7332493.727662852</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13269,12 +13269,12 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
@@ -13517,10 +13517,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111711642</v>
+        <v>111711616</v>
       </c>
       <c r="B115" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13529,25 +13529,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13557,10 +13557,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>725134.5456425183</v>
+        <v>725104.4958516548</v>
       </c>
       <c r="R115" t="n">
-        <v>7332493.727662852</v>
+        <v>7332501.546363591</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -20831,10 +20831,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111711364</v>
+        <v>111712877</v>
       </c>
       <c r="B178" t="n">
-        <v>90709</v>
+        <v>88914</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -20843,38 +20843,38 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>5448</v>
+        <v>2051</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Kytöv. &amp; M.Toivonen</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>724986.4468240365</v>
+        <v>725498.097459639</v>
       </c>
       <c r="R178" t="n">
-        <v>7332588.109918377</v>
+        <v>7332532.444295248</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="AB178" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD178" t="b">
@@ -20925,28 +20925,19 @@
       <c r="AE178" t="b">
         <v>0</v>
       </c>
+      <c r="AF178" t="inlineStr"/>
       <c r="AG178" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ178" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR178" t="inlineStr">
-        <is>
-          <t>2308261057</t>
-        </is>
       </c>
       <c r="AT178" t="inlineStr"/>
       <c r="AW178" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY178" t="inlineStr">
@@ -20957,10 +20948,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111712877</v>
+        <v>111712864</v>
       </c>
       <c r="B179" t="n">
-        <v>88914</v>
+        <v>90710</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -20969,25 +20960,25 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2051</v>
+        <v>5449</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
@@ -20997,10 +20988,10 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>725498.097459639</v>
+        <v>725490.5566392597</v>
       </c>
       <c r="R179" t="n">
-        <v>7332532.444295248</v>
+        <v>7332560.423342383</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -21051,7 +21042,6 @@
       <c r="AE179" t="b">
         <v>0</v>
       </c>
-      <c r="AF179" t="inlineStr"/>
       <c r="AG179" t="b">
         <v>0</v>
       </c>
@@ -21074,10 +21064,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>111712864</v>
+        <v>111711337</v>
       </c>
       <c r="B180" t="n">
-        <v>90710</v>
+        <v>90300</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -21090,34 +21080,34 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5449</v>
+        <v>4745</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>725490.5566392597</v>
+        <v>725063.0477281394</v>
       </c>
       <c r="R180" t="n">
-        <v>7332560.423342383</v>
+        <v>7332621.956773021</v>
       </c>
       <c r="S180" t="n">
         <v>10</v>
@@ -21149,7 +21139,7 @@
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA180" t="inlineStr">
@@ -21159,7 +21149,7 @@
       </c>
       <c r="AB180" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD180" t="b">
@@ -21174,12 +21164,12 @@
       <c r="AT180" t="inlineStr"/>
       <c r="AW180" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX180" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY180" t="inlineStr">
@@ -21190,10 +21180,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111711337</v>
+        <v>111711347</v>
       </c>
       <c r="B181" t="n">
-        <v>90300</v>
+        <v>88032</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -21202,25 +21192,25 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
@@ -21230,10 +21220,10 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>725063.0477281394</v>
+        <v>725024.702656382</v>
       </c>
       <c r="R181" t="n">
-        <v>7332621.956773021</v>
+        <v>7332636.465124592</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -21265,7 +21255,7 @@
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
@@ -21275,7 +21265,7 @@
       </c>
       <c r="AB181" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD181" t="b">
@@ -21306,10 +21296,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111711347</v>
+        <v>111711635</v>
       </c>
       <c r="B182" t="n">
-        <v>88032</v>
+        <v>77268</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -21318,38 +21308,38 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6276</v>
+        <v>228912</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>725024.702656382</v>
+        <v>725110.8981382371</v>
       </c>
       <c r="R182" t="n">
-        <v>7332636.465124592</v>
+        <v>7332477.558656135</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -21381,7 +21371,7 @@
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
@@ -21391,7 +21381,7 @@
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD182" t="b">
@@ -21406,12 +21396,12 @@
       <c r="AT182" t="inlineStr"/>
       <c r="AW182" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY182" t="inlineStr">
@@ -21422,10 +21412,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111711635</v>
+        <v>111711653</v>
       </c>
       <c r="B183" t="n">
-        <v>77268</v>
+        <v>90660</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -21438,21 +21428,21 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>228912</v>
+        <v>4362</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
@@ -21462,10 +21452,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>725110.8981382371</v>
+        <v>725108.9824691841</v>
       </c>
       <c r="R183" t="n">
-        <v>7332477.558656135</v>
+        <v>7332532.523227719</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -21538,10 +21528,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111711653</v>
+        <v>111709504</v>
       </c>
       <c r="B184" t="n">
-        <v>90660</v>
+        <v>90670</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -21550,38 +21540,38 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4362</v>
+        <v>4365</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="P184" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>725108.9824691841</v>
+        <v>725584.189257435</v>
       </c>
       <c r="R184" t="n">
-        <v>7332532.523227719</v>
+        <v>7332508.678048515</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -21638,12 +21628,12 @@
       <c r="AT184" t="inlineStr"/>
       <c r="AW184" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX184" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY184" t="inlineStr">
@@ -21654,10 +21644,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111709504</v>
+        <v>111709495</v>
       </c>
       <c r="B185" t="n">
-        <v>90670</v>
+        <v>90652</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -21666,25 +21656,25 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4365</v>
+        <v>3100</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
@@ -21694,10 +21684,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>725584.189257435</v>
+        <v>725371.58752042</v>
       </c>
       <c r="R185" t="n">
-        <v>7332508.678048515</v>
+        <v>7332648.122461995</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22002,10 +21992,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111709495</v>
+        <v>111711364</v>
       </c>
       <c r="B188" t="n">
-        <v>90652</v>
+        <v>90709</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -22018,34 +22008,34 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3100</v>
+        <v>5448</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="P188" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>725371.58752042</v>
+        <v>724986.4468240365</v>
       </c>
       <c r="R188" t="n">
-        <v>7332648.122461995</v>
+        <v>7332588.109918377</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -22077,7 +22067,7 @@
       </c>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AA188" t="inlineStr">
@@ -22087,7 +22077,7 @@
       </c>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD188" t="b">
@@ -22098,16 +22088,26 @@
       </c>
       <c r="AG188" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ188" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR188" t="inlineStr">
+        <is>
+          <t>2308261057</t>
+        </is>
       </c>
       <c r="AT188" t="inlineStr"/>
       <c r="AW188" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX188" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY188" t="inlineStr">
@@ -26645,10 +26645,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>111710662</v>
+        <v>111712881</v>
       </c>
       <c r="B228" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -26661,34 +26661,34 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q228" t="n">
-        <v>725255.1198258329</v>
+        <v>725506.576725135</v>
       </c>
       <c r="R228" t="n">
-        <v>7332375.519876216</v>
+        <v>7332564.556603735</v>
       </c>
       <c r="S228" t="n">
         <v>10</v>
@@ -26745,12 +26745,12 @@
       <c r="AT228" t="inlineStr"/>
       <c r="AW228" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX228" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY228" t="inlineStr">
@@ -26761,7 +26761,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>111710644</v>
+        <v>111711366</v>
       </c>
       <c r="B229" t="n">
         <v>90678</v>
@@ -26797,14 +26797,14 @@
       <c r="I229" t="inlineStr"/>
       <c r="P229" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q229" t="n">
-        <v>725140.6127048166</v>
+        <v>724969.6073429538</v>
       </c>
       <c r="R229" t="n">
-        <v>7332479.103655308</v>
+        <v>7332573.708151281</v>
       </c>
       <c r="S229" t="n">
         <v>10</v>
@@ -26836,7 +26836,7 @@
       </c>
       <c r="Z229" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AA229" t="inlineStr">
@@ -26846,7 +26846,7 @@
       </c>
       <c r="AB229" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AD229" t="b">
@@ -26861,12 +26861,12 @@
       <c r="AT229" t="inlineStr"/>
       <c r="AW229" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX229" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY229" t="inlineStr">
@@ -26877,10 +26877,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>111710357</v>
+        <v>111711344</v>
       </c>
       <c r="B230" t="n">
-        <v>90710</v>
+        <v>90652</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -26893,34 +26893,34 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>5449</v>
+        <v>3100</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q230" t="n">
-        <v>725126.6703908292</v>
+        <v>725027.6617239625</v>
       </c>
       <c r="R230" t="n">
-        <v>7332633.9531168</v>
+        <v>7332640.374472279</v>
       </c>
       <c r="S230" t="n">
         <v>10</v>
@@ -26952,7 +26952,7 @@
       </c>
       <c r="Z230" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA230" t="inlineStr">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="AB230" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD230" t="b">
@@ -26977,12 +26977,12 @@
       <c r="AT230" t="inlineStr"/>
       <c r="AW230" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX230" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY230" t="inlineStr">
@@ -26993,10 +26993,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>111710630</v>
+        <v>111709545</v>
       </c>
       <c r="B231" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -27009,34 +27009,34 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="P231" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q231" t="n">
-        <v>725194.0505797216</v>
+        <v>725379.5947375454</v>
       </c>
       <c r="R231" t="n">
-        <v>7332377.605496548</v>
+        <v>7332645.085250021</v>
       </c>
       <c r="S231" t="n">
         <v>10</v>
@@ -27093,12 +27093,12 @@
       <c r="AT231" t="inlineStr"/>
       <c r="AW231" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX231" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY231" t="inlineStr">
@@ -27109,10 +27109,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>111712881</v>
+        <v>111710644</v>
       </c>
       <c r="B232" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -27121,38 +27121,38 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="P232" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q232" t="n">
-        <v>725506.576725135</v>
+        <v>725140.6127048166</v>
       </c>
       <c r="R232" t="n">
-        <v>7332564.556603735</v>
+        <v>7332479.103655308</v>
       </c>
       <c r="S232" t="n">
         <v>10</v>
@@ -27209,12 +27209,12 @@
       <c r="AT232" t="inlineStr"/>
       <c r="AW232" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX232" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY232" t="inlineStr">
@@ -27225,10 +27225,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>111711366</v>
+        <v>111710357</v>
       </c>
       <c r="B233" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -27237,38 +27237,38 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="P233" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q233" t="n">
-        <v>724969.6073429538</v>
+        <v>725126.6703908292</v>
       </c>
       <c r="R233" t="n">
-        <v>7332573.708151281</v>
+        <v>7332633.9531168</v>
       </c>
       <c r="S233" t="n">
         <v>10</v>
@@ -27300,7 +27300,7 @@
       </c>
       <c r="Z233" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA233" t="inlineStr">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="AB233" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD233" t="b">
@@ -27325,12 +27325,12 @@
       <c r="AT233" t="inlineStr"/>
       <c r="AW233" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY233" t="inlineStr">
@@ -27341,10 +27341,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>111711344</v>
+        <v>111710630</v>
       </c>
       <c r="B234" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -27357,34 +27357,34 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q234" t="n">
-        <v>725027.6617239625</v>
+        <v>725194.0505797216</v>
       </c>
       <c r="R234" t="n">
-        <v>7332640.374472279</v>
+        <v>7332377.605496548</v>
       </c>
       <c r="S234" t="n">
         <v>10</v>
@@ -27416,7 +27416,7 @@
       </c>
       <c r="Z234" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA234" t="inlineStr">
@@ -27426,7 +27426,7 @@
       </c>
       <c r="AB234" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD234" t="b">
@@ -27441,12 +27441,12 @@
       <c r="AT234" t="inlineStr"/>
       <c r="AW234" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY234" t="inlineStr">
@@ -27457,10 +27457,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>111711606</v>
+        <v>111710662</v>
       </c>
       <c r="B235" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -27473,34 +27473,34 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="P235" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q235" t="n">
-        <v>725113.418428737</v>
+        <v>725255.1198258329</v>
       </c>
       <c r="R235" t="n">
-        <v>7332507.562981902</v>
+        <v>7332375.519876216</v>
       </c>
       <c r="S235" t="n">
         <v>10</v>
@@ -27557,12 +27557,12 @@
       <c r="AT235" t="inlineStr"/>
       <c r="AW235" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX235" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY235" t="inlineStr">
@@ -27573,10 +27573,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>111711634</v>
+        <v>111711606</v>
       </c>
       <c r="B236" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -27589,21 +27589,21 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I236" t="inlineStr"/>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="Q236" t="n">
-        <v>725102.5295225771</v>
+        <v>725113.418428737</v>
       </c>
       <c r="R236" t="n">
-        <v>7332500.573558196</v>
+        <v>7332507.562981902</v>
       </c>
       <c r="S236" t="n">
         <v>10</v>
@@ -27689,10 +27689,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>111709549</v>
+        <v>111711634</v>
       </c>
       <c r="B237" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -27701,38 +27701,38 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="P237" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q237" t="n">
-        <v>725562.0027023624</v>
+        <v>725102.5295225771</v>
       </c>
       <c r="R237" t="n">
-        <v>7332520.384588961</v>
+        <v>7332500.573558196</v>
       </c>
       <c r="S237" t="n">
         <v>10</v>
@@ -27789,12 +27789,12 @@
       <c r="AT237" t="inlineStr"/>
       <c r="AW237" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX237" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY237" t="inlineStr">
@@ -27805,10 +27805,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>111709494</v>
+        <v>111709549</v>
       </c>
       <c r="B238" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -27817,25 +27817,25 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I238" t="inlineStr"/>
@@ -27845,10 +27845,10 @@
         </is>
       </c>
       <c r="Q238" t="n">
-        <v>725388.8204012244</v>
+        <v>725562.0027023624</v>
       </c>
       <c r="R238" t="n">
-        <v>7332642.145009213</v>
+        <v>7332520.384588961</v>
       </c>
       <c r="S238" t="n">
         <v>10</v>
@@ -27921,10 +27921,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>111709522</v>
+        <v>111709494</v>
       </c>
       <c r="B239" t="n">
-        <v>90678</v>
+        <v>90652</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -27933,25 +27933,25 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I239" t="inlineStr"/>
@@ -27961,10 +27961,10 @@
         </is>
       </c>
       <c r="Q239" t="n">
-        <v>725333.5983997382</v>
+        <v>725388.8204012244</v>
       </c>
       <c r="R239" t="n">
-        <v>7332632.44399954</v>
+        <v>7332642.145009213</v>
       </c>
       <c r="S239" t="n">
         <v>10</v>
@@ -28037,10 +28037,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>111709533</v>
+        <v>111709522</v>
       </c>
       <c r="B240" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -28049,25 +28049,25 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I240" t="inlineStr"/>
@@ -28077,10 +28077,10 @@
         </is>
       </c>
       <c r="Q240" t="n">
-        <v>725482.9540899501</v>
+        <v>725333.5983997382</v>
       </c>
       <c r="R240" t="n">
-        <v>7332527.56429973</v>
+        <v>7332632.44399954</v>
       </c>
       <c r="S240" t="n">
         <v>10</v>
@@ -28153,7 +28153,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>111709545</v>
+        <v>111709533</v>
       </c>
       <c r="B241" t="n">
         <v>90658</v>
@@ -28193,10 +28193,10 @@
         </is>
       </c>
       <c r="Q241" t="n">
-        <v>725379.5947375454</v>
+        <v>725482.9540899501</v>
       </c>
       <c r="R241" t="n">
-        <v>7332645.085250021</v>
+        <v>7332527.56429973</v>
       </c>
       <c r="S241" t="n">
         <v>10</v>
@@ -30589,10 +30589,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>111706044</v>
+        <v>111710665</v>
       </c>
       <c r="B262" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -30605,21 +30605,21 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I262" t="inlineStr"/>
@@ -30629,10 +30629,10 @@
         </is>
       </c>
       <c r="Q262" t="n">
-        <v>725112.2330344508</v>
+        <v>725091.5760871549</v>
       </c>
       <c r="R262" t="n">
-        <v>7332455.617718962</v>
+        <v>7332494.395587941</v>
       </c>
       <c r="S262" t="n">
         <v>10</v>
@@ -30677,11 +30677,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC262" t="inlineStr">
-        <is>
-          <t>Ca 75 exemplar</t>
-        </is>
-      </c>
       <c r="AD262" t="b">
         <v>0</v>
       </c>
@@ -30694,22 +30689,26 @@
       <c r="AT262" t="inlineStr"/>
       <c r="AW262" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX262" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY262" t="inlineStr"/>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY262" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>111710665</v>
+        <v>111710365</v>
       </c>
       <c r="B263" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -30722,34 +30721,34 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="P263" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q263" t="n">
-        <v>725091.5760871549</v>
+        <v>725306.5914363252</v>
       </c>
       <c r="R263" t="n">
-        <v>7332494.395587941</v>
+        <v>7332648.25901848</v>
       </c>
       <c r="S263" t="n">
         <v>10</v>
@@ -30806,12 +30805,12 @@
       <c r="AT263" t="inlineStr"/>
       <c r="AW263" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX263" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY263" t="inlineStr">
@@ -30822,7 +30821,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>111710365</v>
+        <v>111710631</v>
       </c>
       <c r="B264" t="n">
         <v>90682</v>
@@ -30858,14 +30857,14 @@
       <c r="I264" t="inlineStr"/>
       <c r="P264" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q264" t="n">
-        <v>725306.5914363252</v>
+        <v>725165.9370309917</v>
       </c>
       <c r="R264" t="n">
-        <v>7332648.25901848</v>
+        <v>7332474.175817911</v>
       </c>
       <c r="S264" t="n">
         <v>10</v>
@@ -30922,12 +30921,12 @@
       <c r="AT264" t="inlineStr"/>
       <c r="AW264" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX264" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY264" t="inlineStr">
@@ -30938,7 +30937,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>111710631</v>
+        <v>111710366</v>
       </c>
       <c r="B265" t="n">
         <v>90682</v>
@@ -30974,14 +30973,14 @@
       <c r="I265" t="inlineStr"/>
       <c r="P265" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q265" t="n">
-        <v>725165.9370309917</v>
+        <v>725286.5347579401</v>
       </c>
       <c r="R265" t="n">
-        <v>7332474.175817911</v>
+        <v>7332658.911384037</v>
       </c>
       <c r="S265" t="n">
         <v>10</v>
@@ -31038,12 +31037,12 @@
       <c r="AT265" t="inlineStr"/>
       <c r="AW265" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX265" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY265" t="inlineStr">
@@ -31054,7 +31053,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>111710366</v>
+        <v>111710373</v>
       </c>
       <c r="B266" t="n">
         <v>90682</v>
@@ -31094,10 +31093,10 @@
         </is>
       </c>
       <c r="Q266" t="n">
-        <v>725286.5347579401</v>
+        <v>725100.52854856</v>
       </c>
       <c r="R266" t="n">
-        <v>7332658.911384037</v>
+        <v>7332654.32938866</v>
       </c>
       <c r="S266" t="n">
         <v>10</v>
@@ -31170,10 +31169,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>111710373</v>
+        <v>111712866</v>
       </c>
       <c r="B267" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -31186,34 +31185,34 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="P267" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q267" t="n">
-        <v>725100.52854856</v>
+        <v>725371.4449087358</v>
       </c>
       <c r="R267" t="n">
-        <v>7332654.32938866</v>
+        <v>7332655.051508157</v>
       </c>
       <c r="S267" t="n">
         <v>10</v>
@@ -31270,12 +31269,12 @@
       <c r="AT267" t="inlineStr"/>
       <c r="AW267" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX267" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY267" t="inlineStr">
@@ -31286,10 +31285,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>111712866</v>
+        <v>111711348</v>
       </c>
       <c r="B268" t="n">
-        <v>90710</v>
+        <v>88489</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -31302,34 +31301,34 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>5449</v>
+        <v>1962</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="P268" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q268" t="n">
-        <v>725371.4449087358</v>
+        <v>724999.4450050651</v>
       </c>
       <c r="R268" t="n">
-        <v>7332655.051508157</v>
+        <v>7332666.30210897</v>
       </c>
       <c r="S268" t="n">
         <v>10</v>
@@ -31361,7 +31360,7 @@
       </c>
       <c r="Z268" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA268" t="inlineStr">
@@ -31371,7 +31370,7 @@
       </c>
       <c r="AB268" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD268" t="b">
@@ -31386,12 +31385,12 @@
       <c r="AT268" t="inlineStr"/>
       <c r="AW268" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX268" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY268" t="inlineStr">
@@ -31402,10 +31401,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>111711348</v>
+        <v>111712883</v>
       </c>
       <c r="B269" t="n">
-        <v>88489</v>
+        <v>90658</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -31418,34 +31417,34 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="P269" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q269" t="n">
-        <v>724999.4450050651</v>
+        <v>725360.5759435553</v>
       </c>
       <c r="R269" t="n">
-        <v>7332666.30210897</v>
+        <v>7332652.961942513</v>
       </c>
       <c r="S269" t="n">
         <v>10</v>
@@ -31477,7 +31476,7 @@
       </c>
       <c r="Z269" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA269" t="inlineStr">
@@ -31487,7 +31486,7 @@
       </c>
       <c r="AB269" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD269" t="b">
@@ -31502,12 +31501,12 @@
       <c r="AT269" t="inlineStr"/>
       <c r="AW269" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY269" t="inlineStr">
@@ -31518,7 +31517,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>111712883</v>
+        <v>111712888</v>
       </c>
       <c r="B270" t="n">
         <v>90658</v>
@@ -31558,10 +31557,10 @@
         </is>
       </c>
       <c r="Q270" t="n">
-        <v>725360.5759435553</v>
+        <v>725261.2876180907</v>
       </c>
       <c r="R270" t="n">
-        <v>7332652.961942513</v>
+        <v>7332683.43985419</v>
       </c>
       <c r="S270" t="n">
         <v>10</v>
@@ -31751,10 +31750,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>111711376</v>
+        <v>111711644</v>
       </c>
       <c r="B272" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -31763,38 +31762,38 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="P272" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q272" t="n">
-        <v>724956.5500826776</v>
+        <v>725046.872241436</v>
       </c>
       <c r="R272" t="n">
-        <v>7332506.532380758</v>
+        <v>7332475.737493961</v>
       </c>
       <c r="S272" t="n">
         <v>10</v>
@@ -31826,7 +31825,7 @@
       </c>
       <c r="Z272" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA272" t="inlineStr">
@@ -31836,7 +31835,7 @@
       </c>
       <c r="AB272" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD272" t="b">
@@ -31851,12 +31850,12 @@
       <c r="AT272" t="inlineStr"/>
       <c r="AW272" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY272" t="inlineStr">
@@ -31867,10 +31866,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>111711644</v>
+        <v>111709542</v>
       </c>
       <c r="B273" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -31879,38 +31878,38 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="P273" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q273" t="n">
-        <v>725046.872241436</v>
+        <v>725407.8019050863</v>
       </c>
       <c r="R273" t="n">
-        <v>7332475.737493961</v>
+        <v>7332624.467180541</v>
       </c>
       <c r="S273" t="n">
         <v>10</v>
@@ -31967,12 +31966,12 @@
       <c r="AT273" t="inlineStr"/>
       <c r="AW273" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX273" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY273" t="inlineStr">
@@ -31983,10 +31982,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>111709542</v>
+        <v>111709497</v>
       </c>
       <c r="B274" t="n">
-        <v>90658</v>
+        <v>90300</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -31999,21 +31998,21 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I274" t="inlineStr"/>
@@ -32023,10 +32022,10 @@
         </is>
       </c>
       <c r="Q274" t="n">
-        <v>725407.8019050863</v>
+        <v>725574.8613557135</v>
       </c>
       <c r="R274" t="n">
-        <v>7332624.467180541</v>
+        <v>7332538.556342874</v>
       </c>
       <c r="S274" t="n">
         <v>10</v>
@@ -32099,10 +32098,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>111709497</v>
+        <v>111709511</v>
       </c>
       <c r="B275" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -32115,21 +32114,21 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I275" t="inlineStr"/>
@@ -32139,10 +32138,10 @@
         </is>
       </c>
       <c r="Q275" t="n">
-        <v>725574.8613557135</v>
+        <v>725420.730296165</v>
       </c>
       <c r="R275" t="n">
-        <v>7332538.556342874</v>
+        <v>7332554.457337951</v>
       </c>
       <c r="S275" t="n">
         <v>10</v>
@@ -32215,10 +32214,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>111709511</v>
+        <v>111711376</v>
       </c>
       <c r="B276" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -32231,34 +32230,34 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="P276" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q276" t="n">
-        <v>725420.730296165</v>
+        <v>724956.5500826776</v>
       </c>
       <c r="R276" t="n">
-        <v>7332554.457337951</v>
+        <v>7332506.532380758</v>
       </c>
       <c r="S276" t="n">
         <v>10</v>
@@ -32290,7 +32289,7 @@
       </c>
       <c r="Z276" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA276" t="inlineStr">
@@ -32300,7 +32299,7 @@
       </c>
       <c r="AB276" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD276" t="b">
@@ -32315,12 +32314,12 @@
       <c r="AT276" t="inlineStr"/>
       <c r="AW276" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX276" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY276" t="inlineStr">
@@ -32331,10 +32330,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>111712888</v>
+        <v>111706044</v>
       </c>
       <c r="B277" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -32347,34 +32346,34 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="P277" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q277" t="n">
-        <v>725261.2876180907</v>
+        <v>725112.2330344508</v>
       </c>
       <c r="R277" t="n">
-        <v>7332683.43985419</v>
+        <v>7332455.617718962</v>
       </c>
       <c r="S277" t="n">
         <v>10</v>
@@ -32419,6 +32418,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC277" t="inlineStr">
+        <is>
+          <t>Ca 75 exemplar</t>
+        </is>
+      </c>
       <c r="AD277" t="b">
         <v>0</v>
       </c>
@@ -32431,26 +32435,22 @@
       <c r="AT277" t="inlineStr"/>
       <c r="AW277" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX277" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY277" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>111710348</v>
+        <v>111710625</v>
       </c>
       <c r="B278" t="n">
-        <v>90652</v>
+        <v>90710</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -32463,34 +32463,34 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3100</v>
+        <v>5449</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="P278" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q278" t="n">
-        <v>724935.9727593055</v>
+        <v>725107.7132965717</v>
       </c>
       <c r="R278" t="n">
-        <v>7332539.192627021</v>
+        <v>7332476.489007546</v>
       </c>
       <c r="S278" t="n">
         <v>10</v>
@@ -32547,12 +32547,12 @@
       <c r="AT278" t="inlineStr"/>
       <c r="AW278" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX278" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY278" t="inlineStr">
@@ -32563,10 +32563,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>111710625</v>
+        <v>111710340</v>
       </c>
       <c r="B279" t="n">
-        <v>90710</v>
+        <v>88055</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -32575,38 +32575,38 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>5449</v>
+        <v>6286</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Torrmusseron</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma sudum</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="P279" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q279" t="n">
-        <v>725107.7132965717</v>
+        <v>725183.9174255028</v>
       </c>
       <c r="R279" t="n">
-        <v>7332476.489007546</v>
+        <v>7332633.604629847</v>
       </c>
       <c r="S279" t="n">
         <v>10</v>
@@ -32663,12 +32663,12 @@
       <c r="AT279" t="inlineStr"/>
       <c r="AW279" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX279" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY279" t="inlineStr">
@@ -32679,10 +32679,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>111710340</v>
+        <v>111711373</v>
       </c>
       <c r="B280" t="n">
-        <v>88055</v>
+        <v>90658</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -32691,38 +32691,38 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>6286</v>
+        <v>4361</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Torrmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Tricholoma sudum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="P280" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q280" t="n">
-        <v>725183.9174255028</v>
+        <v>724964.2612264302</v>
       </c>
       <c r="R280" t="n">
-        <v>7332633.604629847</v>
+        <v>7332522.658948283</v>
       </c>
       <c r="S280" t="n">
         <v>10</v>
@@ -32754,7 +32754,7 @@
       </c>
       <c r="Z280" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="AA280" t="inlineStr">
@@ -32764,7 +32764,7 @@
       </c>
       <c r="AB280" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="AD280" t="b">
@@ -32779,12 +32779,12 @@
       <c r="AT280" t="inlineStr"/>
       <c r="AW280" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX280" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY280" t="inlineStr">
@@ -32795,7 +32795,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>111711373</v>
+        <v>111712882</v>
       </c>
       <c r="B281" t="n">
         <v>90658</v>
@@ -32831,14 +32831,14 @@
       <c r="I281" t="inlineStr"/>
       <c r="P281" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q281" t="n">
-        <v>724964.2612264302</v>
+        <v>725427.4362143704</v>
       </c>
       <c r="R281" t="n">
-        <v>7332522.658948283</v>
+        <v>7332644.809785082</v>
       </c>
       <c r="S281" t="n">
         <v>10</v>
@@ -32870,7 +32870,7 @@
       </c>
       <c r="Z281" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA281" t="inlineStr">
@@ -32880,7 +32880,7 @@
       </c>
       <c r="AB281" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD281" t="b">
@@ -32895,12 +32895,12 @@
       <c r="AT281" t="inlineStr"/>
       <c r="AW281" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY281" t="inlineStr">
@@ -32911,10 +32911,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>111712882</v>
+        <v>111712863</v>
       </c>
       <c r="B282" t="n">
-        <v>90658</v>
+        <v>90709</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -32927,21 +32927,21 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I282" t="inlineStr"/>
@@ -32951,10 +32951,10 @@
         </is>
       </c>
       <c r="Q282" t="n">
-        <v>725427.4362143704</v>
+        <v>725474.2383136956</v>
       </c>
       <c r="R282" t="n">
-        <v>7332644.809785082</v>
+        <v>7332611.382964071</v>
       </c>
       <c r="S282" t="n">
         <v>10</v>
@@ -33027,10 +33027,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>111712863</v>
+        <v>111712879</v>
       </c>
       <c r="B283" t="n">
-        <v>90709</v>
+        <v>90658</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -33043,21 +33043,21 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>5448</v>
+        <v>4361</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I283" t="inlineStr"/>
@@ -33067,10 +33067,10 @@
         </is>
       </c>
       <c r="Q283" t="n">
-        <v>725474.2383136956</v>
+        <v>725494.1053616931</v>
       </c>
       <c r="R283" t="n">
-        <v>7332611.382964071</v>
+        <v>7332541.516884685</v>
       </c>
       <c r="S283" t="n">
         <v>10</v>
@@ -33143,10 +33143,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>111712879</v>
+        <v>111711341</v>
       </c>
       <c r="B284" t="n">
-        <v>90658</v>
+        <v>88489</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -33159,34 +33159,34 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>4361</v>
+        <v>1962</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="P284" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q284" t="n">
-        <v>725494.1053616931</v>
+        <v>725034.8433539984</v>
       </c>
       <c r="R284" t="n">
-        <v>7332541.516884685</v>
+        <v>7332642.578034746</v>
       </c>
       <c r="S284" t="n">
         <v>10</v>
@@ -33218,7 +33218,7 @@
       </c>
       <c r="Z284" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA284" t="inlineStr">
@@ -33228,7 +33228,7 @@
       </c>
       <c r="AB284" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD284" t="b">
@@ -33243,12 +33243,12 @@
       <c r="AT284" t="inlineStr"/>
       <c r="AW284" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX284" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY284" t="inlineStr">
@@ -33259,7 +33259,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>111711341</v>
+        <v>111712857</v>
       </c>
       <c r="B285" t="n">
         <v>88489</v>
@@ -33295,14 +33295,14 @@
       <c r="I285" t="inlineStr"/>
       <c r="P285" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q285" t="n">
-        <v>725034.8433539984</v>
+        <v>725024.0648077382</v>
       </c>
       <c r="R285" t="n">
-        <v>7332642.578034746</v>
+        <v>7332680.505319399</v>
       </c>
       <c r="S285" t="n">
         <v>10</v>
@@ -33334,7 +33334,7 @@
       </c>
       <c r="Z285" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA285" t="inlineStr">
@@ -33344,7 +33344,7 @@
       </c>
       <c r="AB285" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD285" t="b">
@@ -33359,12 +33359,12 @@
       <c r="AT285" t="inlineStr"/>
       <c r="AW285" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY285" t="inlineStr">
@@ -33375,10 +33375,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>111712857</v>
+        <v>111712871</v>
       </c>
       <c r="B286" t="n">
-        <v>88489</v>
+        <v>90682</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -33391,21 +33391,21 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1962</v>
+        <v>2059</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I286" t="inlineStr"/>
@@ -33415,10 +33415,10 @@
         </is>
       </c>
       <c r="Q286" t="n">
-        <v>725024.0648077382</v>
+        <v>725274.9994540716</v>
       </c>
       <c r="R286" t="n">
-        <v>7332680.505319399</v>
+        <v>7332685.755133895</v>
       </c>
       <c r="S286" t="n">
         <v>10</v>
@@ -33491,10 +33491,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>111712871</v>
+        <v>111711349</v>
       </c>
       <c r="B287" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -33507,34 +33507,34 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="P287" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q287" t="n">
-        <v>725274.9994540716</v>
+        <v>724998.3877210761</v>
       </c>
       <c r="R287" t="n">
-        <v>7332685.755133895</v>
+        <v>7332664.176886482</v>
       </c>
       <c r="S287" t="n">
         <v>10</v>
@@ -33566,7 +33566,7 @@
       </c>
       <c r="Z287" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA287" t="inlineStr">
@@ -33576,7 +33576,7 @@
       </c>
       <c r="AB287" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD287" t="b">
@@ -33591,12 +33591,12 @@
       <c r="AT287" t="inlineStr"/>
       <c r="AW287" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX287" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY287" t="inlineStr">
@@ -33607,10 +33607,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>111711349</v>
+        <v>111711358</v>
       </c>
       <c r="B288" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -33623,21 +33623,21 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I288" t="inlineStr"/>
@@ -33647,10 +33647,10 @@
         </is>
       </c>
       <c r="Q288" t="n">
-        <v>724998.3877210761</v>
+        <v>725002.9643135068</v>
       </c>
       <c r="R288" t="n">
-        <v>7332664.176886482</v>
+        <v>7332632.288711529</v>
       </c>
       <c r="S288" t="n">
         <v>10</v>
@@ -33682,7 +33682,7 @@
       </c>
       <c r="Z288" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA288" t="inlineStr">
@@ -33692,7 +33692,7 @@
       </c>
       <c r="AB288" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD288" t="b">
@@ -33723,10 +33723,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>111711358</v>
+        <v>111711599</v>
       </c>
       <c r="B289" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -33739,34 +33739,34 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="P289" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q289" t="n">
-        <v>725002.9643135068</v>
+        <v>725064.0730266627</v>
       </c>
       <c r="R289" t="n">
-        <v>7332632.288711529</v>
+        <v>7332470.16340023</v>
       </c>
       <c r="S289" t="n">
         <v>10</v>
@@ -33798,7 +33798,7 @@
       </c>
       <c r="Z289" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA289" t="inlineStr">
@@ -33808,7 +33808,7 @@
       </c>
       <c r="AB289" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD289" t="b">
@@ -33823,12 +33823,12 @@
       <c r="AT289" t="inlineStr"/>
       <c r="AW289" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY289" t="inlineStr">
@@ -33839,10 +33839,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>111698760</v>
+        <v>111711631</v>
       </c>
       <c r="B290" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -33855,44 +33855,34 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J290" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K290" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="P290" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q290" t="n">
-        <v>725044.325275531</v>
+        <v>725153.054027671</v>
       </c>
       <c r="R290" t="n">
-        <v>7332430.624524356</v>
+        <v>7332528.268833079</v>
       </c>
       <c r="S290" t="n">
         <v>10</v>
@@ -33949,22 +33939,26 @@
       <c r="AT290" t="inlineStr"/>
       <c r="AW290" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX290" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY290" t="inlineStr"/>
+          <t>Andreas Falk</t>
+        </is>
+      </c>
+      <c r="AY290" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>111706057</v>
+        <v>111709523</v>
       </c>
       <c r="B291" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -33973,38 +33967,38 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="P291" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q291" t="n">
-        <v>725110.9174012289</v>
+        <v>725542.9178826446</v>
       </c>
       <c r="R291" t="n">
-        <v>7332482.459501775</v>
+        <v>7332529.071951911</v>
       </c>
       <c r="S291" t="n">
         <v>10</v>
@@ -34061,22 +34055,26 @@
       <c r="AT291" t="inlineStr"/>
       <c r="AW291" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX291" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY291" t="inlineStr"/>
+          <t>Linda Nordström</t>
+        </is>
+      </c>
+      <c r="AY291" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>111711599</v>
+        <v>111709499</v>
       </c>
       <c r="B292" t="n">
-        <v>78107</v>
+        <v>90710</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -34089,34 +34087,34 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>6453</v>
+        <v>5449</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="P292" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q292" t="n">
-        <v>725064.0730266627</v>
+        <v>725293.2889256463</v>
       </c>
       <c r="R292" t="n">
-        <v>7332470.16340023</v>
+        <v>7332681.90255834</v>
       </c>
       <c r="S292" t="n">
         <v>10</v>
@@ -34173,12 +34171,12 @@
       <c r="AT292" t="inlineStr"/>
       <c r="AW292" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX292" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY292" t="inlineStr">
@@ -34189,7 +34187,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>111711631</v>
+        <v>111709538</v>
       </c>
       <c r="B293" t="n">
         <v>90658</v>
@@ -34225,14 +34223,14 @@
       <c r="I293" t="inlineStr"/>
       <c r="P293" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q293" t="n">
-        <v>725153.054027671</v>
+        <v>725586.0353481639</v>
       </c>
       <c r="R293" t="n">
-        <v>7332528.268833079</v>
+        <v>7332531.688881696</v>
       </c>
       <c r="S293" t="n">
         <v>10</v>
@@ -34289,12 +34287,12 @@
       <c r="AT293" t="inlineStr"/>
       <c r="AW293" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX293" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY293" t="inlineStr">
@@ -34305,10 +34303,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>111709523</v>
+        <v>111698760</v>
       </c>
       <c r="B294" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -34317,38 +34315,48 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I294" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="P294" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q294" t="n">
-        <v>725542.9178826446</v>
+        <v>725044.325275531</v>
       </c>
       <c r="R294" t="n">
-        <v>7332529.071951911</v>
+        <v>7332430.624524356</v>
       </c>
       <c r="S294" t="n">
         <v>10</v>
@@ -34405,26 +34413,22 @@
       <c r="AT294" t="inlineStr"/>
       <c r="AW294" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX294" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
-        </is>
-      </c>
-      <c r="AY294" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>111709499</v>
+        <v>111706057</v>
       </c>
       <c r="B295" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -34437,34 +34441,34 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="P295" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>725293.2889256463</v>
+        <v>725110.9174012289</v>
       </c>
       <c r="R295" t="n">
-        <v>7332681.90255834</v>
+        <v>7332482.459501775</v>
       </c>
       <c r="S295" t="n">
         <v>10</v>
@@ -34521,26 +34525,22 @@
       <c r="AT295" t="inlineStr"/>
       <c r="AW295" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX295" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
-        </is>
-      </c>
-      <c r="AY295" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>111709538</v>
+        <v>111710348</v>
       </c>
       <c r="B296" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -34553,34 +34553,34 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="P296" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>725586.0353481639</v>
+        <v>724935.9727593055</v>
       </c>
       <c r="R296" t="n">
-        <v>7332531.688881696</v>
+        <v>7332539.192627021</v>
       </c>
       <c r="S296" t="n">
         <v>10</v>
@@ -34637,12 +34637,12 @@
       <c r="AT296" t="inlineStr"/>
       <c r="AW296" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX296" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY296" t="inlineStr">
@@ -37215,10 +37215,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>111699126</v>
+        <v>111709513</v>
       </c>
       <c r="B319" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -37231,44 +37231,34 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J319" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K319" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="P319" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q319" t="n">
-        <v>725107.616572437</v>
+        <v>725584.5308000025</v>
       </c>
       <c r="R319" t="n">
-        <v>7332477.706150758</v>
+        <v>7332509.521815965</v>
       </c>
       <c r="S319" t="n">
         <v>10</v>
@@ -37325,22 +37315,26 @@
       <c r="AT319" t="inlineStr"/>
       <c r="AW319" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX319" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY319" t="inlineStr"/>
+          <t>Linda Nordström</t>
+        </is>
+      </c>
+      <c r="AY319" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>111699062</v>
+        <v>111711345</v>
       </c>
       <c r="B320" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -37353,44 +37347,34 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="J320" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K320" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="P320" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q320" t="n">
-        <v>725068.1411446362</v>
+        <v>725028.8801499358</v>
       </c>
       <c r="R320" t="n">
-        <v>7332454.972076118</v>
+        <v>7332640.47127091</v>
       </c>
       <c r="S320" t="n">
         <v>10</v>
@@ -37422,7 +37406,7 @@
       </c>
       <c r="Z320" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA320" t="inlineStr">
@@ -37432,7 +37416,7 @@
       </c>
       <c r="AB320" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD320" t="b">
@@ -37447,22 +37431,26 @@
       <c r="AT320" t="inlineStr"/>
       <c r="AW320" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX320" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY320" t="inlineStr"/>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+        </is>
+      </c>
+      <c r="AY320" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>111699131</v>
+        <v>111712890</v>
       </c>
       <c r="B321" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -37471,48 +37459,38 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I321" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K321" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="P321" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q321" t="n">
-        <v>725101.0793614985</v>
+        <v>725429.862888145</v>
       </c>
       <c r="R321" t="n">
-        <v>7332467.388008167</v>
+        <v>7332624.589803277</v>
       </c>
       <c r="S321" t="n">
         <v>10</v>
@@ -37569,19 +37547,23 @@
       <c r="AT321" t="inlineStr"/>
       <c r="AW321" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX321" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY321" t="inlineStr"/>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY321" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>111700143</v>
+        <v>111699126</v>
       </c>
       <c r="B322" t="n">
         <v>90658</v>
@@ -37616,7 +37598,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -37631,10 +37613,10 @@
         </is>
       </c>
       <c r="Q322" t="n">
-        <v>725153.6767783576</v>
+        <v>725107.616572437</v>
       </c>
       <c r="R322" t="n">
-        <v>7332402.159999613</v>
+        <v>7332477.706150758</v>
       </c>
       <c r="S322" t="n">
         <v>10</v>
@@ -37703,10 +37685,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>111711648</v>
+        <v>111699062</v>
       </c>
       <c r="B323" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -37715,38 +37697,48 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E323" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I323" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="P323" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q323" t="n">
-        <v>725135.3914558574</v>
+        <v>725068.1411446362</v>
       </c>
       <c r="R323" t="n">
-        <v>7332441.943508702</v>
+        <v>7332454.972076118</v>
       </c>
       <c r="S323" t="n">
         <v>10</v>
@@ -37803,26 +37795,22 @@
       <c r="AT323" t="inlineStr"/>
       <c r="AW323" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX323" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
-        </is>
-      </c>
-      <c r="AY323" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>111712880</v>
+        <v>111699131</v>
       </c>
       <c r="B324" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -37835,34 +37823,44 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I324" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="P324" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q324" t="n">
-        <v>725484.4369442021</v>
+        <v>725101.0793614985</v>
       </c>
       <c r="R324" t="n">
-        <v>7332570.551295241</v>
+        <v>7332467.388008167</v>
       </c>
       <c r="S324" t="n">
         <v>10</v>
@@ -37919,26 +37917,22 @@
       <c r="AT324" t="inlineStr"/>
       <c r="AW324" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX324" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY324" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>111711345</v>
+        <v>111706054</v>
       </c>
       <c r="B325" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -37951,34 +37945,34 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="P325" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q325" t="n">
-        <v>725028.8801499358</v>
+        <v>725102.5876951166</v>
       </c>
       <c r="R325" t="n">
-        <v>7332640.47127091</v>
+        <v>7332489.554785875</v>
       </c>
       <c r="S325" t="n">
         <v>10</v>
@@ -38010,7 +38004,7 @@
       </c>
       <c r="Z325" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA325" t="inlineStr">
@@ -38020,7 +38014,12 @@
       </c>
       <c r="AB325" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC325" t="inlineStr">
+        <is>
+          <t>25 exemplar</t>
         </is>
       </c>
       <c r="AD325" t="b">
@@ -38035,26 +38034,22 @@
       <c r="AT325" t="inlineStr"/>
       <c r="AW325" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
-        </is>
-      </c>
-      <c r="AY325" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>111712890</v>
+        <v>111706067</v>
       </c>
       <c r="B326" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -38063,38 +38058,38 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E326" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="P326" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q326" t="n">
-        <v>725429.862888145</v>
+        <v>725101.7560900204</v>
       </c>
       <c r="R326" t="n">
-        <v>7332624.589803277</v>
+        <v>7332484.589400881</v>
       </c>
       <c r="S326" t="n">
         <v>10</v>
@@ -38151,26 +38146,22 @@
       <c r="AT326" t="inlineStr"/>
       <c r="AW326" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX326" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY326" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>111711643</v>
+        <v>111700143</v>
       </c>
       <c r="B327" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -38179,38 +38170,48 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I327" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="P327" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q327" t="n">
-        <v>725091.6342152189</v>
+        <v>725153.6767783576</v>
       </c>
       <c r="R327" t="n">
-        <v>7332483.376795593</v>
+        <v>7332402.159999613</v>
       </c>
       <c r="S327" t="n">
         <v>10</v>
@@ -38267,26 +38268,22 @@
       <c r="AT327" t="inlineStr"/>
       <c r="AW327" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX327" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
-        </is>
-      </c>
-      <c r="AY327" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>111709513</v>
+        <v>111710620</v>
       </c>
       <c r="B328" t="n">
-        <v>90682</v>
+        <v>88489</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -38299,34 +38296,34 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>2059</v>
+        <v>1962</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="P328" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q328" t="n">
-        <v>725584.5308000025</v>
+        <v>725072.6153638155</v>
       </c>
       <c r="R328" t="n">
-        <v>7332509.521815965</v>
+        <v>7332491.255880292</v>
       </c>
       <c r="S328" t="n">
         <v>10</v>
@@ -38383,12 +38380,12 @@
       <c r="AT328" t="inlineStr"/>
       <c r="AW328" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX328" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY328" t="inlineStr">
@@ -38399,10 +38396,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>111709525</v>
+        <v>111710634</v>
       </c>
       <c r="B329" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -38411,38 +38408,38 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="P329" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q329" t="n">
-        <v>725544.9904041166</v>
+        <v>725140.6127048166</v>
       </c>
       <c r="R329" t="n">
-        <v>7332549.24262985</v>
+        <v>7332479.103655308</v>
       </c>
       <c r="S329" t="n">
         <v>10</v>
@@ -38499,12 +38496,12 @@
       <c r="AT329" t="inlineStr"/>
       <c r="AW329" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX329" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY329" t="inlineStr">
@@ -38515,10 +38512,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>111709541</v>
+        <v>111710361</v>
       </c>
       <c r="B330" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -38531,34 +38528,34 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="P330" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q330" t="n">
-        <v>725425.6909843549</v>
+        <v>725400.2309483492</v>
       </c>
       <c r="R330" t="n">
-        <v>7332630.78998917</v>
+        <v>7332591.203470201</v>
       </c>
       <c r="S330" t="n">
         <v>10</v>
@@ -38615,12 +38612,12 @@
       <c r="AT330" t="inlineStr"/>
       <c r="AW330" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX330" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY330" t="inlineStr">
@@ -38631,10 +38628,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>111706054</v>
+        <v>111710354</v>
       </c>
       <c r="B331" t="n">
-        <v>90658</v>
+        <v>90710</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -38647,34 +38644,34 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="P331" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q331" t="n">
-        <v>725102.5876951166</v>
+        <v>725422.4400393397</v>
       </c>
       <c r="R331" t="n">
-        <v>7332489.554785875</v>
+        <v>7332594.60392222</v>
       </c>
       <c r="S331" t="n">
         <v>10</v>
@@ -38719,11 +38716,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC331" t="inlineStr">
-        <is>
-          <t>25 exemplar</t>
-        </is>
-      </c>
       <c r="AD331" t="b">
         <v>0</v>
       </c>
@@ -38736,22 +38728,26 @@
       <c r="AT331" t="inlineStr"/>
       <c r="AW331" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX331" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY331" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY331" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>111706067</v>
+        <v>111710372</v>
       </c>
       <c r="B332" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -38764,34 +38760,34 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="P332" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q332" t="n">
-        <v>725101.7560900204</v>
+        <v>725167.5356023817</v>
       </c>
       <c r="R332" t="n">
-        <v>7332484.589400881</v>
+        <v>7332649.449021258</v>
       </c>
       <c r="S332" t="n">
         <v>10</v>
@@ -38848,22 +38844,26 @@
       <c r="AT332" t="inlineStr"/>
       <c r="AW332" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX332" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY332" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY332" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>111710620</v>
+        <v>111711648</v>
       </c>
       <c r="B333" t="n">
-        <v>88489</v>
+        <v>90666</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -38872,38 +38872,38 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="P333" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q333" t="n">
-        <v>725072.6153638155</v>
+        <v>725135.3914558574</v>
       </c>
       <c r="R333" t="n">
-        <v>7332491.255880292</v>
+        <v>7332441.943508702</v>
       </c>
       <c r="S333" t="n">
         <v>10</v>
@@ -38960,12 +38960,12 @@
       <c r="AT333" t="inlineStr"/>
       <c r="AW333" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX333" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY333" t="inlineStr">
@@ -38976,10 +38976,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>111710634</v>
+        <v>111711643</v>
       </c>
       <c r="B334" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -38988,38 +38988,38 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="P334" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q334" t="n">
-        <v>725140.6127048166</v>
+        <v>725091.6342152189</v>
       </c>
       <c r="R334" t="n">
-        <v>7332479.103655308</v>
+        <v>7332483.376795593</v>
       </c>
       <c r="S334" t="n">
         <v>10</v>
@@ -39076,12 +39076,12 @@
       <c r="AT334" t="inlineStr"/>
       <c r="AW334" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX334" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY334" t="inlineStr">
@@ -39092,10 +39092,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>111710361</v>
+        <v>111712876</v>
       </c>
       <c r="B335" t="n">
-        <v>90682</v>
+        <v>88914</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -39104,38 +39104,38 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E335" t="n">
-        <v>2059</v>
+        <v>2051</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Kytöv. &amp; M.Toivonen</t>
         </is>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="P335" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q335" t="n">
-        <v>725400.2309483492</v>
+        <v>725466.9896984299</v>
       </c>
       <c r="R335" t="n">
-        <v>7332591.203470201</v>
+        <v>7332538.133598099</v>
       </c>
       <c r="S335" t="n">
         <v>10</v>
@@ -39192,12 +39192,12 @@
       <c r="AT335" t="inlineStr"/>
       <c r="AW335" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX335" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY335" t="inlineStr">
@@ -39208,10 +39208,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>111710354</v>
+        <v>111711353</v>
       </c>
       <c r="B336" t="n">
-        <v>90710</v>
+        <v>90660</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -39224,34 +39224,34 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="P336" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q336" t="n">
-        <v>725422.4400393397</v>
+        <v>725010.3719264804</v>
       </c>
       <c r="R336" t="n">
-        <v>7332594.60392222</v>
+        <v>7332657.372175306</v>
       </c>
       <c r="S336" t="n">
         <v>10</v>
@@ -39283,7 +39283,7 @@
       </c>
       <c r="Z336" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA336" t="inlineStr">
@@ -39293,7 +39293,7 @@
       </c>
       <c r="AB336" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD336" t="b">
@@ -39308,12 +39308,12 @@
       <c r="AT336" t="inlineStr"/>
       <c r="AW336" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX336" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY336" t="inlineStr">
@@ -39324,10 +39324,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>111710372</v>
+        <v>111709525</v>
       </c>
       <c r="B337" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -39336,38 +39336,38 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="P337" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q337" t="n">
-        <v>725167.5356023817</v>
+        <v>725544.9904041166</v>
       </c>
       <c r="R337" t="n">
-        <v>7332649.449021258</v>
+        <v>7332549.24262985</v>
       </c>
       <c r="S337" t="n">
         <v>10</v>
@@ -39424,12 +39424,12 @@
       <c r="AT337" t="inlineStr"/>
       <c r="AW337" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX337" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY337" t="inlineStr">
@@ -39440,10 +39440,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>111712876</v>
+        <v>111712880</v>
       </c>
       <c r="B338" t="n">
-        <v>88914</v>
+        <v>90658</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -39452,25 +39452,25 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E338" t="n">
-        <v>2051</v>
+        <v>4361</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I338" t="inlineStr"/>
@@ -39480,10 +39480,10 @@
         </is>
       </c>
       <c r="Q338" t="n">
-        <v>725466.9896984299</v>
+        <v>725484.4369442021</v>
       </c>
       <c r="R338" t="n">
-        <v>7332538.133598099</v>
+        <v>7332570.551295241</v>
       </c>
       <c r="S338" t="n">
         <v>10</v>
@@ -39556,10 +39556,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>111711353</v>
+        <v>111709541</v>
       </c>
       <c r="B339" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -39572,34 +39572,34 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="P339" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q339" t="n">
-        <v>725010.3719264804</v>
+        <v>725425.6909843549</v>
       </c>
       <c r="R339" t="n">
-        <v>7332657.372175306</v>
+        <v>7332630.78998917</v>
       </c>
       <c r="S339" t="n">
         <v>10</v>
@@ -39631,7 +39631,7 @@
       </c>
       <c r="Z339" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA339" t="inlineStr">
@@ -39641,7 +39641,7 @@
       </c>
       <c r="AB339" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD339" t="b">
@@ -39656,12 +39656,12 @@
       <c r="AT339" t="inlineStr"/>
       <c r="AW339" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX339" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY339" t="inlineStr">
@@ -46864,10 +46864,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>111739880</v>
+        <v>111747032</v>
       </c>
       <c r="B402" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -46876,38 +46876,38 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E402" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="P402" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q402" t="n">
-        <v>724967.8208210224</v>
+        <v>725294.9323842777</v>
       </c>
       <c r="R402" t="n">
-        <v>7332549.887118607</v>
+        <v>7332686.932302658</v>
       </c>
       <c r="S402" t="n">
         <v>10</v>
@@ -46939,7 +46939,7 @@
       </c>
       <c r="Z402" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA402" t="inlineStr">
@@ -46949,7 +46949,7 @@
       </c>
       <c r="AB402" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD402" t="b">
@@ -46964,12 +46964,12 @@
       <c r="AT402" t="inlineStr"/>
       <c r="AW402" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX402" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY402" t="inlineStr">
@@ -46980,10 +46980,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>111747032</v>
+        <v>111747036</v>
       </c>
       <c r="B403" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -46992,25 +46992,25 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I403" t="inlineStr"/>
@@ -47020,10 +47020,10 @@
         </is>
       </c>
       <c r="Q403" t="n">
-        <v>725294.9323842777</v>
+        <v>725419.5169833084</v>
       </c>
       <c r="R403" t="n">
-        <v>7332686.932302658</v>
+        <v>7332564.567598512</v>
       </c>
       <c r="S403" t="n">
         <v>10</v>
@@ -47055,7 +47055,7 @@
       </c>
       <c r="Z403" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA403" t="inlineStr">
@@ -47065,7 +47065,7 @@
       </c>
       <c r="AB403" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD403" t="b">
@@ -47096,10 +47096,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>111747036</v>
+        <v>111739880</v>
       </c>
       <c r="B404" t="n">
-        <v>90710</v>
+        <v>90660</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -47112,34 +47112,34 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="P404" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q404" t="n">
-        <v>725419.5169833084</v>
+        <v>724967.8208210224</v>
       </c>
       <c r="R404" t="n">
-        <v>7332564.567598512</v>
+        <v>7332549.887118607</v>
       </c>
       <c r="S404" t="n">
         <v>10</v>
@@ -47171,7 +47171,7 @@
       </c>
       <c r="Z404" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA404" t="inlineStr">
@@ -47181,7 +47181,7 @@
       </c>
       <c r="AB404" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD404" t="b">
@@ -47196,12 +47196,12 @@
       <c r="AT404" t="inlineStr"/>
       <c r="AW404" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX404" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY404" t="inlineStr">
@@ -50113,7 +50113,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>111747058</v>
+        <v>111739856</v>
       </c>
       <c r="B430" t="n">
         <v>90682</v>
@@ -50149,14 +50149,14 @@
       <c r="I430" t="inlineStr"/>
       <c r="P430" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q430" t="n">
-        <v>725450.4083584131</v>
+        <v>724951.1644744073</v>
       </c>
       <c r="R430" t="n">
-        <v>7332582.132176595</v>
+        <v>7332615.518576947</v>
       </c>
       <c r="S430" t="n">
         <v>10</v>
@@ -50188,7 +50188,7 @@
       </c>
       <c r="Z430" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA430" t="inlineStr">
@@ -50198,7 +50198,7 @@
       </c>
       <c r="AB430" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD430" t="b">
@@ -50207,19 +50207,18 @@
       <c r="AE430" t="b">
         <v>0</v>
       </c>
-      <c r="AF430" t="inlineStr"/>
       <c r="AG430" t="b">
         <v>0</v>
       </c>
       <c r="AT430" t="inlineStr"/>
       <c r="AW430" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX430" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY430" t="inlineStr">
@@ -50230,10 +50229,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>111747039</v>
+        <v>111739879</v>
       </c>
       <c r="B431" t="n">
-        <v>76918</v>
+        <v>90666</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -50242,38 +50241,38 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6437</v>
+        <v>4364</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="P431" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q431" t="n">
-        <v>725395.8714946804</v>
+        <v>724999.3611294483</v>
       </c>
       <c r="R431" t="n">
-        <v>7332548.396420963</v>
+        <v>7332662.212972784</v>
       </c>
       <c r="S431" t="n">
         <v>10</v>
@@ -50305,7 +50304,7 @@
       </c>
       <c r="Z431" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA431" t="inlineStr">
@@ -50315,7 +50314,7 @@
       </c>
       <c r="AB431" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD431" t="b">
@@ -50330,12 +50329,12 @@
       <c r="AT431" t="inlineStr"/>
       <c r="AW431" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX431" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY431" t="inlineStr">
@@ -50346,10 +50345,10 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>111739879</v>
+        <v>111739849</v>
       </c>
       <c r="B432" t="n">
-        <v>90666</v>
+        <v>90300</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -50358,25 +50357,25 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E432" t="n">
-        <v>4364</v>
+        <v>4745</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I432" t="inlineStr"/>
@@ -50386,10 +50385,10 @@
         </is>
       </c>
       <c r="Q432" t="n">
-        <v>724999.3611294483</v>
+        <v>724983.029136422</v>
       </c>
       <c r="R432" t="n">
-        <v>7332662.212972784</v>
+        <v>7332553.952862925</v>
       </c>
       <c r="S432" t="n">
         <v>10</v>
@@ -50462,10 +50461,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>111739849</v>
+        <v>111739851</v>
       </c>
       <c r="B433" t="n">
-        <v>90300</v>
+        <v>90670</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -50474,25 +50473,25 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E433" t="n">
-        <v>4745</v>
+        <v>4365</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I433" t="inlineStr"/>
@@ -50502,10 +50501,10 @@
         </is>
       </c>
       <c r="Q433" t="n">
-        <v>724983.029136422</v>
+        <v>724959.2288771898</v>
       </c>
       <c r="R433" t="n">
-        <v>7332553.952862925</v>
+        <v>7332601.46189298</v>
       </c>
       <c r="S433" t="n">
         <v>10</v>
@@ -50578,10 +50577,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>111739851</v>
+        <v>111747042</v>
       </c>
       <c r="B434" t="n">
-        <v>90670</v>
+        <v>90300</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -50590,38 +50589,38 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E434" t="n">
-        <v>4365</v>
+        <v>4745</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="P434" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q434" t="n">
-        <v>724959.2288771898</v>
+        <v>725477.0877623832</v>
       </c>
       <c r="R434" t="n">
-        <v>7332601.46189298</v>
+        <v>7332524.239380637</v>
       </c>
       <c r="S434" t="n">
         <v>10</v>
@@ -50653,7 +50652,7 @@
       </c>
       <c r="Z434" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA434" t="inlineStr">
@@ -50663,7 +50662,7 @@
       </c>
       <c r="AB434" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD434" t="b">
@@ -50678,12 +50677,12 @@
       <c r="AT434" t="inlineStr"/>
       <c r="AW434" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX434" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY434" t="inlineStr">
@@ -50810,10 +50809,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>111747042</v>
+        <v>111747058</v>
       </c>
       <c r="B436" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -50826,21 +50825,21 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I436" t="inlineStr"/>
@@ -50850,10 +50849,10 @@
         </is>
       </c>
       <c r="Q436" t="n">
-        <v>725477.0877623832</v>
+        <v>725450.4083584131</v>
       </c>
       <c r="R436" t="n">
-        <v>7332524.239380637</v>
+        <v>7332582.132176595</v>
       </c>
       <c r="S436" t="n">
         <v>10</v>
@@ -50885,7 +50884,7 @@
       </c>
       <c r="Z436" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA436" t="inlineStr">
@@ -50895,7 +50894,7 @@
       </c>
       <c r="AB436" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD436" t="b">
@@ -50904,6 +50903,7 @@
       <c r="AE436" t="b">
         <v>0</v>
       </c>
+      <c r="AF436" t="inlineStr"/>
       <c r="AG436" t="b">
         <v>0</v>
       </c>
@@ -50926,10 +50926,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>111739856</v>
+        <v>111747039</v>
       </c>
       <c r="B437" t="n">
-        <v>90682</v>
+        <v>76918</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -50942,34 +50942,34 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2059</v>
+        <v>6437</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="P437" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q437" t="n">
-        <v>724951.1644744073</v>
+        <v>725395.8714946804</v>
       </c>
       <c r="R437" t="n">
-        <v>7332615.518576947</v>
+        <v>7332548.396420963</v>
       </c>
       <c r="S437" t="n">
         <v>10</v>
@@ -51001,7 +51001,7 @@
       </c>
       <c r="Z437" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA437" t="inlineStr">
@@ -51011,7 +51011,7 @@
       </c>
       <c r="AB437" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD437" t="b">
@@ -51026,12 +51026,12 @@
       <c r="AT437" t="inlineStr"/>
       <c r="AW437" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX437" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY437" t="inlineStr">

--- a/artfynd/A 55345-2020.xlsx
+++ b/artfynd/A 55345-2020.xlsx
@@ -16068,10 +16068,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111710629</v>
+        <v>111709495</v>
       </c>
       <c r="B137" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16084,34 +16084,34 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>725255.4234150291</v>
+        <v>725371.58752042</v>
       </c>
       <c r="R137" t="n">
-        <v>7332366.5615204</v>
+        <v>7332648.122461995</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16168,12 +16168,12 @@
       <c r="AT137" t="inlineStr"/>
       <c r="AW137" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr">
@@ -16184,10 +16184,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111710631</v>
+        <v>111709543</v>
       </c>
       <c r="B138" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16200,34 +16200,34 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>725165.9370309917</v>
+        <v>725406.6209292178</v>
       </c>
       <c r="R138" t="n">
-        <v>7332474.175817911</v>
+        <v>7332634.171499273</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16284,12 +16284,12 @@
       <c r="AT138" t="inlineStr"/>
       <c r="AW138" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX138" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY138" t="inlineStr">
@@ -16300,10 +16300,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111709553</v>
+        <v>111699131</v>
       </c>
       <c r="B139" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16312,38 +16312,48 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>725481.2347843206</v>
+        <v>725101.0793614985</v>
       </c>
       <c r="R139" t="n">
-        <v>7332600.508412756</v>
+        <v>7332467.388008167</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16400,26 +16410,22 @@
       <c r="AT139" t="inlineStr"/>
       <c r="AW139" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX139" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
-        </is>
-      </c>
-      <c r="AY139" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111709496</v>
+        <v>111710629</v>
       </c>
       <c r="B140" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16432,34 +16438,34 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>725371.2704924666</v>
+        <v>725255.4234150291</v>
       </c>
       <c r="R140" t="n">
-        <v>7332600.738812943</v>
+        <v>7332366.5615204</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16516,12 +16522,12 @@
       <c r="AT140" t="inlineStr"/>
       <c r="AW140" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX140" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY140" t="inlineStr">
@@ -16532,10 +16538,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111709495</v>
+        <v>111710631</v>
       </c>
       <c r="B141" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16548,34 +16554,34 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>725371.58752042</v>
+        <v>725165.9370309917</v>
       </c>
       <c r="R141" t="n">
-        <v>7332648.122461995</v>
+        <v>7332474.175817911</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -16632,12 +16638,12 @@
       <c r="AT141" t="inlineStr"/>
       <c r="AW141" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX141" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY141" t="inlineStr">
@@ -16648,10 +16654,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111709543</v>
+        <v>111709553</v>
       </c>
       <c r="B142" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16660,25 +16666,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -16688,10 +16694,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>725406.6209292178</v>
+        <v>725481.2347843206</v>
       </c>
       <c r="R142" t="n">
-        <v>7332634.171499273</v>
+        <v>7332600.508412756</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -16764,10 +16770,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111699131</v>
+        <v>111709496</v>
       </c>
       <c r="B143" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16780,44 +16786,34 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr"/>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>725101.0793614985</v>
+        <v>725371.2704924666</v>
       </c>
       <c r="R143" t="n">
-        <v>7332467.388008167</v>
+        <v>7332600.738812943</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -16874,15 +16870,19 @@
       <c r="AT143" t="inlineStr"/>
       <c r="AW143" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX143" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY143" t="inlineStr"/>
+          <t>Linda Nordström</t>
+        </is>
+      </c>
+      <c r="AY143" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -17002,10 +17002,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111709501</v>
+        <v>111712888</v>
       </c>
       <c r="B145" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17018,34 +17018,34 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>725587.4524243715</v>
+        <v>725261.2876180907</v>
       </c>
       <c r="R145" t="n">
-        <v>7332503.630222731</v>
+        <v>7332683.43985419</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17102,12 +17102,12 @@
       <c r="AT145" t="inlineStr"/>
       <c r="AW145" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX145" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY145" t="inlineStr">
@@ -17118,10 +17118,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111710663</v>
+        <v>111712858</v>
       </c>
       <c r="B146" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17134,34 +17134,34 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>725245.3011301144</v>
+        <v>725318.2702844271</v>
       </c>
       <c r="R146" t="n">
-        <v>7332365.348353437</v>
+        <v>7332676.132891137</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17218,12 +17218,12 @@
       <c r="AT146" t="inlineStr"/>
       <c r="AW146" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX146" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY146" t="inlineStr">
@@ -17234,10 +17234,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111709523</v>
+        <v>111712889</v>
       </c>
       <c r="B147" t="n">
-        <v>90678</v>
+        <v>88010</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17246,38 +17246,38 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>4366</v>
+        <v>1596</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>725542.9178826446</v>
+        <v>725331.1510101449</v>
       </c>
       <c r="R147" t="n">
-        <v>7332529.071951911</v>
+        <v>7332673.483284725</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17328,18 +17328,19 @@
       <c r="AE147" t="b">
         <v>0</v>
       </c>
+      <c r="AF147" t="inlineStr"/>
       <c r="AG147" t="b">
         <v>0</v>
       </c>
       <c r="AT147" t="inlineStr"/>
       <c r="AW147" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX147" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY147" t="inlineStr">
@@ -17350,10 +17351,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111712888</v>
+        <v>111698804</v>
       </c>
       <c r="B148" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17366,34 +17367,44 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>725261.2876180907</v>
+        <v>725049.5410468963</v>
       </c>
       <c r="R148" t="n">
-        <v>7332683.43985419</v>
+        <v>7332431.855455464</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17450,26 +17461,22 @@
       <c r="AT148" t="inlineStr"/>
       <c r="AW148" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX148" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY148" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111712858</v>
+        <v>111710368</v>
       </c>
       <c r="B149" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17482,34 +17489,34 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>725318.2702844271</v>
+        <v>725255.3454837598</v>
       </c>
       <c r="R149" t="n">
-        <v>7332676.132891137</v>
+        <v>7332660.513389738</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17566,12 +17573,12 @@
       <c r="AT149" t="inlineStr"/>
       <c r="AW149" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX149" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY149" t="inlineStr">
@@ -17582,10 +17589,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111712889</v>
+        <v>111710364</v>
       </c>
       <c r="B150" t="n">
-        <v>88010</v>
+        <v>90682</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17594,38 +17601,38 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1596</v>
+        <v>2059</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>725331.1510101449</v>
+        <v>725317.5383754801</v>
       </c>
       <c r="R150" t="n">
-        <v>7332673.483284725</v>
+        <v>7332644.230710665</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17676,19 +17683,18 @@
       <c r="AE150" t="b">
         <v>0</v>
       </c>
-      <c r="AF150" t="inlineStr"/>
       <c r="AG150" t="b">
         <v>0</v>
       </c>
       <c r="AT150" t="inlineStr"/>
       <c r="AW150" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX150" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY150" t="inlineStr">
@@ -17699,10 +17705,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111710368</v>
+        <v>111711367</v>
       </c>
       <c r="B151" t="n">
-        <v>90682</v>
+        <v>88489</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17715,34 +17721,34 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2059</v>
+        <v>1962</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>725255.3454837598</v>
+        <v>724964.2680188013</v>
       </c>
       <c r="R151" t="n">
-        <v>7332660.513389738</v>
+        <v>7332532.866132921</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -17774,7 +17780,7 @@
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
@@ -17784,7 +17790,7 @@
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD151" t="b">
@@ -17799,12 +17805,12 @@
       <c r="AT151" t="inlineStr"/>
       <c r="AW151" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX151" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY151" t="inlineStr">
@@ -17815,7 +17821,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111710364</v>
+        <v>111711614</v>
       </c>
       <c r="B152" t="n">
         <v>90682</v>
@@ -17851,14 +17857,14 @@
       <c r="I152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>725317.5383754801</v>
+        <v>725136.6347606094</v>
       </c>
       <c r="R152" t="n">
-        <v>7332644.230710665</v>
+        <v>7332482.870259319</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -17915,12 +17921,12 @@
       <c r="AT152" t="inlineStr"/>
       <c r="AW152" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
@@ -17931,10 +17937,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111698804</v>
+        <v>111711653</v>
       </c>
       <c r="B153" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -17947,44 +17953,34 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>725049.5410468963</v>
+        <v>725108.9824691841</v>
       </c>
       <c r="R153" t="n">
-        <v>7332431.855455464</v>
+        <v>7332532.523227719</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18041,22 +18037,26 @@
       <c r="AT153" t="inlineStr"/>
       <c r="AW153" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX153" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY153" t="inlineStr"/>
+          <t>Andreas Falk</t>
+        </is>
+      </c>
+      <c r="AY153" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111711367</v>
+        <v>111711368</v>
       </c>
       <c r="B154" t="n">
-        <v>88489</v>
+        <v>89646</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18065,25 +18065,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1962</v>
+        <v>65</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -18169,10 +18169,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111711614</v>
+        <v>111709501</v>
       </c>
       <c r="B155" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18185,34 +18185,34 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>725136.6347606094</v>
+        <v>725587.4524243715</v>
       </c>
       <c r="R155" t="n">
-        <v>7332482.870259319</v>
+        <v>7332503.630222731</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18269,12 +18269,12 @@
       <c r="AT155" t="inlineStr"/>
       <c r="AW155" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX155" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY155" t="inlineStr">
@@ -18285,7 +18285,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111711653</v>
+        <v>111710663</v>
       </c>
       <c r="B156" t="n">
         <v>90660</v>
@@ -18321,14 +18321,14 @@
       <c r="I156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>725108.9824691841</v>
+        <v>725245.3011301144</v>
       </c>
       <c r="R156" t="n">
-        <v>7332532.523227719</v>
+        <v>7332365.348353437</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18385,12 +18385,12 @@
       <c r="AT156" t="inlineStr"/>
       <c r="AW156" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX156" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY156" t="inlineStr">
@@ -18401,10 +18401,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111711368</v>
+        <v>111709523</v>
       </c>
       <c r="B157" t="n">
-        <v>89646</v>
+        <v>90678</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18413,38 +18413,38 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>65</v>
+        <v>4366</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>724964.2680188013</v>
+        <v>725542.9178826446</v>
       </c>
       <c r="R157" t="n">
-        <v>7332532.866132921</v>
+        <v>7332529.071951911</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18476,7 +18476,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
@@ -18486,7 +18486,7 @@
       </c>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD157" t="b">
@@ -18501,12 +18501,12 @@
       <c r="AT157" t="inlineStr"/>
       <c r="AW157" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY157" t="inlineStr">
@@ -20264,10 +20264,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111710624</v>
+        <v>111709518</v>
       </c>
       <c r="B173" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -20280,34 +20280,34 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>725152.7201116718</v>
+        <v>725395.7383604852</v>
       </c>
       <c r="R173" t="n">
-        <v>7332486.190128822</v>
+        <v>7332637.388110917</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -20364,12 +20364,12 @@
       <c r="AT173" t="inlineStr"/>
       <c r="AW173" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX173" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY173" t="inlineStr">
@@ -20380,10 +20380,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111709546</v>
+        <v>111709491</v>
       </c>
       <c r="B174" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -20396,21 +20396,21 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
@@ -20420,10 +20420,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>725371.58752042</v>
+        <v>725140.0975904202</v>
       </c>
       <c r="R174" t="n">
-        <v>7332648.122461995</v>
+        <v>7332675.845554984</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -20496,10 +20496,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111709518</v>
+        <v>111710624</v>
       </c>
       <c r="B175" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -20512,34 +20512,34 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>725395.7383604852</v>
+        <v>725152.7201116718</v>
       </c>
       <c r="R175" t="n">
-        <v>7332637.388110917</v>
+        <v>7332486.190128822</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -20596,12 +20596,12 @@
       <c r="AT175" t="inlineStr"/>
       <c r="AW175" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX175" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY175" t="inlineStr">
@@ -20612,10 +20612,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111709491</v>
+        <v>111709546</v>
       </c>
       <c r="B176" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -20628,21 +20628,21 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
@@ -20652,10 +20652,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>725140.0975904202</v>
+        <v>725371.58752042</v>
       </c>
       <c r="R176" t="n">
-        <v>7332675.845554984</v>
+        <v>7332648.122461995</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -22928,10 +22928,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>111712881</v>
+        <v>111710637</v>
       </c>
       <c r="B196" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -22944,34 +22944,34 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="P196" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>725506.576725135</v>
+        <v>725065.8975523711</v>
       </c>
       <c r="R196" t="n">
-        <v>7332564.556603735</v>
+        <v>7332478.06560684</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -23028,12 +23028,12 @@
       <c r="AT196" t="inlineStr"/>
       <c r="AW196" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX196" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY196" t="inlineStr">
@@ -23044,10 +23044,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111712861</v>
+        <v>111710626</v>
       </c>
       <c r="B197" t="n">
-        <v>90300</v>
+        <v>90670</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -23056,38 +23056,38 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>4745</v>
+        <v>4365</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>725368.4029452958</v>
+        <v>725028.9621380008</v>
       </c>
       <c r="R197" t="n">
-        <v>7332647.052558809</v>
+        <v>7332464.516036242</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -23144,12 +23144,12 @@
       <c r="AT197" t="inlineStr"/>
       <c r="AW197" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX197" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY197" t="inlineStr">
@@ -23160,10 +23160,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111712869</v>
+        <v>111710643</v>
       </c>
       <c r="B198" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -23172,38 +23172,38 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>725496.7644347127</v>
+        <v>725171.2503796207</v>
       </c>
       <c r="R198" t="n">
-        <v>7332564.591994515</v>
+        <v>7332448.468230611</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -23260,12 +23260,12 @@
       <c r="AT198" t="inlineStr"/>
       <c r="AW198" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX198" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY198" t="inlineStr">
@@ -23276,10 +23276,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111699435</v>
+        <v>111709530</v>
       </c>
       <c r="B199" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -23292,44 +23292,34 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="P199" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>725120.0209832868</v>
+        <v>725392.4630564451</v>
       </c>
       <c r="R199" t="n">
-        <v>7332465.62705148</v>
+        <v>7332586.09440229</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -23386,22 +23376,26 @@
       <c r="AT199" t="inlineStr"/>
       <c r="AW199" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX199" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY199" t="inlineStr"/>
+          <t>Linda Nordström</t>
+        </is>
+      </c>
+      <c r="AY199" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111711649</v>
+        <v>111710633</v>
       </c>
       <c r="B200" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -23410,38 +23404,38 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="P200" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>725125.2756754416</v>
+        <v>725158.8256458472</v>
       </c>
       <c r="R200" t="n">
-        <v>7332450.938311197</v>
+        <v>7332481.367830705</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -23498,12 +23492,12 @@
       <c r="AT200" t="inlineStr"/>
       <c r="AW200" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX200" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY200" t="inlineStr">
@@ -23514,10 +23508,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111711600</v>
+        <v>111709552</v>
       </c>
       <c r="B201" t="n">
-        <v>78081</v>
+        <v>88032</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23526,38 +23520,38 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>229821</v>
+        <v>6276</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="P201" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>725125.3339186072</v>
+        <v>725474.2979611596</v>
       </c>
       <c r="R201" t="n">
-        <v>7332439.91933961</v>
+        <v>7332600.364490152</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -23614,12 +23608,12 @@
       <c r="AT201" t="inlineStr"/>
       <c r="AW201" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX201" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY201" t="inlineStr">
@@ -23630,10 +23624,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111711643</v>
+        <v>111710652</v>
       </c>
       <c r="B202" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -23642,38 +23636,38 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="P202" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>725091.6342152189</v>
+        <v>725255.2621035771</v>
       </c>
       <c r="R202" t="n">
-        <v>7332483.376795593</v>
+        <v>7332368.590172341</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -23730,12 +23724,12 @@
       <c r="AT202" t="inlineStr"/>
       <c r="AW202" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX202" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY202" t="inlineStr">
@@ -23746,10 +23740,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111710637</v>
+        <v>111709503</v>
       </c>
       <c r="B203" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -23762,34 +23756,34 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>725065.8975523711</v>
+        <v>725417.4763735968</v>
       </c>
       <c r="R203" t="n">
-        <v>7332478.06560684</v>
+        <v>7332641.567567922</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -23846,12 +23840,12 @@
       <c r="AT203" t="inlineStr"/>
       <c r="AW203" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX203" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY203" t="inlineStr">
@@ -23862,10 +23856,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111710626</v>
+        <v>111699435</v>
       </c>
       <c r="B204" t="n">
-        <v>90670</v>
+        <v>90682</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -23874,38 +23868,48 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>4365</v>
+        <v>2059</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="P204" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>725028.9621380008</v>
+        <v>725120.0209832868</v>
       </c>
       <c r="R204" t="n">
-        <v>7332464.516036242</v>
+        <v>7332465.62705148</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -23962,26 +23966,22 @@
       <c r="AT204" t="inlineStr"/>
       <c r="AW204" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX204" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY204" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111710643</v>
+        <v>111711649</v>
       </c>
       <c r="B205" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -23994,34 +23994,34 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>725171.2503796207</v>
+        <v>725125.2756754416</v>
       </c>
       <c r="R205" t="n">
-        <v>7332448.468230611</v>
+        <v>7332450.938311197</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -24078,12 +24078,12 @@
       <c r="AT205" t="inlineStr"/>
       <c r="AW205" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX205" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY205" t="inlineStr">
@@ -24094,10 +24094,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111709552</v>
+        <v>111711600</v>
       </c>
       <c r="B206" t="n">
-        <v>88032</v>
+        <v>78081</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -24106,38 +24106,38 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>6276</v>
+        <v>229821</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>725474.2979611596</v>
+        <v>725125.3339186072</v>
       </c>
       <c r="R206" t="n">
-        <v>7332600.364490152</v>
+        <v>7332439.91933961</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -24194,12 +24194,12 @@
       <c r="AT206" t="inlineStr"/>
       <c r="AW206" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX206" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY206" t="inlineStr">
@@ -24210,10 +24210,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111709530</v>
+        <v>111711643</v>
       </c>
       <c r="B207" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -24222,38 +24222,38 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>725392.4630564451</v>
+        <v>725091.6342152189</v>
       </c>
       <c r="R207" t="n">
-        <v>7332586.09440229</v>
+        <v>7332483.376795593</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -24310,12 +24310,12 @@
       <c r="AT207" t="inlineStr"/>
       <c r="AW207" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX207" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY207" t="inlineStr">
@@ -24326,10 +24326,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>111710633</v>
+        <v>111712881</v>
       </c>
       <c r="B208" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -24342,34 +24342,34 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q208" t="n">
-        <v>725158.8256458472</v>
+        <v>725506.576725135</v>
       </c>
       <c r="R208" t="n">
-        <v>7332481.367830705</v>
+        <v>7332564.556603735</v>
       </c>
       <c r="S208" t="n">
         <v>10</v>
@@ -24426,12 +24426,12 @@
       <c r="AT208" t="inlineStr"/>
       <c r="AW208" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX208" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY208" t="inlineStr">
@@ -24442,10 +24442,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>111710652</v>
+        <v>111712861</v>
       </c>
       <c r="B209" t="n">
-        <v>90658</v>
+        <v>90300</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -24458,34 +24458,34 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q209" t="n">
-        <v>725255.2621035771</v>
+        <v>725368.4029452958</v>
       </c>
       <c r="R209" t="n">
-        <v>7332368.590172341</v>
+        <v>7332647.052558809</v>
       </c>
       <c r="S209" t="n">
         <v>10</v>
@@ -24542,12 +24542,12 @@
       <c r="AT209" t="inlineStr"/>
       <c r="AW209" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX209" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY209" t="inlineStr">
@@ -24558,10 +24558,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>111709503</v>
+        <v>111712869</v>
       </c>
       <c r="B210" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -24574,34 +24574,34 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q210" t="n">
-        <v>725417.4763735968</v>
+        <v>725496.7644347127</v>
       </c>
       <c r="R210" t="n">
-        <v>7332641.567567922</v>
+        <v>7332564.591994515</v>
       </c>
       <c r="S210" t="n">
         <v>10</v>
@@ -24658,12 +24658,12 @@
       <c r="AT210" t="inlineStr"/>
       <c r="AW210" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX210" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY210" t="inlineStr">
@@ -25260,10 +25260,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>111709506</v>
+        <v>111710357</v>
       </c>
       <c r="B216" t="n">
-        <v>90670</v>
+        <v>90710</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -25272,38 +25272,38 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>4365</v>
+        <v>5449</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="P216" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q216" t="n">
-        <v>725405.0234577118</v>
+        <v>725126.6703908292</v>
       </c>
       <c r="R216" t="n">
-        <v>7332623.429549483</v>
+        <v>7332633.9531168</v>
       </c>
       <c r="S216" t="n">
         <v>10</v>
@@ -25360,12 +25360,12 @@
       <c r="AT216" t="inlineStr"/>
       <c r="AW216" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX216" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY216" t="inlineStr">
@@ -25376,10 +25376,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>111709525</v>
+        <v>111710347</v>
       </c>
       <c r="B217" t="n">
-        <v>90678</v>
+        <v>90652</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -25388,38 +25388,38 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="P217" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q217" t="n">
-        <v>725544.9904041166</v>
+        <v>725025.5343239709</v>
       </c>
       <c r="R217" t="n">
-        <v>7332549.24262985</v>
+        <v>7332641.430214838</v>
       </c>
       <c r="S217" t="n">
         <v>10</v>
@@ -25476,12 +25476,12 @@
       <c r="AT217" t="inlineStr"/>
       <c r="AW217" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX217" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY217" t="inlineStr">
@@ -25492,10 +25492,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>111710665</v>
+        <v>111710369</v>
       </c>
       <c r="B218" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -25508,34 +25508,34 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="P218" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q218" t="n">
-        <v>725091.5760871549</v>
+        <v>725235.6721345596</v>
       </c>
       <c r="R218" t="n">
-        <v>7332494.395587941</v>
+        <v>7332630.370986193</v>
       </c>
       <c r="S218" t="n">
         <v>10</v>
@@ -25592,12 +25592,12 @@
       <c r="AT218" t="inlineStr"/>
       <c r="AW218" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX218" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY218" t="inlineStr">
@@ -25608,10 +25608,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>111710620</v>
+        <v>111711648</v>
       </c>
       <c r="B219" t="n">
-        <v>88489</v>
+        <v>90666</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -25620,38 +25620,38 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="P219" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q219" t="n">
-        <v>725072.6153638155</v>
+        <v>725135.3914558574</v>
       </c>
       <c r="R219" t="n">
-        <v>7332491.255880292</v>
+        <v>7332441.943508702</v>
       </c>
       <c r="S219" t="n">
         <v>10</v>
@@ -25708,12 +25708,12 @@
       <c r="AT219" t="inlineStr"/>
       <c r="AW219" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX219" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY219" t="inlineStr">
@@ -25724,10 +25724,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>111710621</v>
+        <v>111711644</v>
       </c>
       <c r="B220" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -25736,38 +25736,38 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="P220" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q220" t="n">
-        <v>725257.0862031487</v>
+        <v>725046.872241436</v>
       </c>
       <c r="R220" t="n">
-        <v>7332376.492826087</v>
+        <v>7332475.737493961</v>
       </c>
       <c r="S220" t="n">
         <v>10</v>
@@ -25824,12 +25824,12 @@
       <c r="AT220" t="inlineStr"/>
       <c r="AW220" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX220" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY220" t="inlineStr">
@@ -25840,10 +25840,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>111709514</v>
+        <v>111711650</v>
       </c>
       <c r="B221" t="n">
-        <v>90682</v>
+        <v>76495</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -25856,34 +25856,34 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2059</v>
+        <v>6487</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="P221" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q221" t="n">
-        <v>725582.4215091417</v>
+        <v>725128.3705807739</v>
       </c>
       <c r="R221" t="n">
-        <v>7332515.478089629</v>
+        <v>7332437.710979398</v>
       </c>
       <c r="S221" t="n">
         <v>10</v>
@@ -25940,12 +25940,12 @@
       <c r="AT221" t="inlineStr"/>
       <c r="AW221" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX221" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY221" t="inlineStr">
@@ -25956,10 +25956,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>111709487</v>
+        <v>111709506</v>
       </c>
       <c r="B222" t="n">
-        <v>88489</v>
+        <v>90670</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -25968,25 +25968,25 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1962</v>
+        <v>4365</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I222" t="inlineStr"/>
@@ -25996,10 +25996,10 @@
         </is>
       </c>
       <c r="Q222" t="n">
-        <v>725424.6119143176</v>
+        <v>725405.0234577118</v>
       </c>
       <c r="R222" t="n">
-        <v>7332649.484134939</v>
+        <v>7332623.429549483</v>
       </c>
       <c r="S222" t="n">
         <v>10</v>
@@ -26072,10 +26072,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>111710664</v>
+        <v>111709525</v>
       </c>
       <c r="B223" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -26084,38 +26084,38 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q223" t="n">
-        <v>725166.2211873889</v>
+        <v>725544.9904041166</v>
       </c>
       <c r="R223" t="n">
-        <v>7332460.316904724</v>
+        <v>7332549.24262985</v>
       </c>
       <c r="S223" t="n">
         <v>10</v>
@@ -26172,12 +26172,12 @@
       <c r="AT223" t="inlineStr"/>
       <c r="AW223" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX223" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY223" t="inlineStr">
@@ -26188,10 +26188,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>111709517</v>
+        <v>111710665</v>
       </c>
       <c r="B224" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -26204,34 +26204,34 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="P224" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q224" t="n">
-        <v>725408.0466263851</v>
+        <v>725091.5760871549</v>
       </c>
       <c r="R224" t="n">
-        <v>7332626.527970433</v>
+        <v>7332494.395587941</v>
       </c>
       <c r="S224" t="n">
         <v>10</v>
@@ -26288,12 +26288,12 @@
       <c r="AT224" t="inlineStr"/>
       <c r="AW224" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX224" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY224" t="inlineStr">
@@ -26304,10 +26304,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>111710357</v>
+        <v>111710620</v>
       </c>
       <c r="B225" t="n">
-        <v>90710</v>
+        <v>88489</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -26320,34 +26320,34 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>5449</v>
+        <v>1962</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="P225" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q225" t="n">
-        <v>725126.6703908292</v>
+        <v>725072.6153638155</v>
       </c>
       <c r="R225" t="n">
-        <v>7332633.9531168</v>
+        <v>7332491.255880292</v>
       </c>
       <c r="S225" t="n">
         <v>10</v>
@@ -26404,12 +26404,12 @@
       <c r="AT225" t="inlineStr"/>
       <c r="AW225" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX225" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY225" t="inlineStr">
@@ -26420,7 +26420,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>111710347</v>
+        <v>111710621</v>
       </c>
       <c r="B226" t="n">
         <v>90652</v>
@@ -26456,14 +26456,14 @@
       <c r="I226" t="inlineStr"/>
       <c r="P226" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q226" t="n">
-        <v>725025.5343239709</v>
+        <v>725257.0862031487</v>
       </c>
       <c r="R226" t="n">
-        <v>7332641.430214838</v>
+        <v>7332376.492826087</v>
       </c>
       <c r="S226" t="n">
         <v>10</v>
@@ -26520,12 +26520,12 @@
       <c r="AT226" t="inlineStr"/>
       <c r="AW226" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX226" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY226" t="inlineStr">
@@ -26536,7 +26536,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>111710369</v>
+        <v>111709514</v>
       </c>
       <c r="B227" t="n">
         <v>90682</v>
@@ -26572,14 +26572,14 @@
       <c r="I227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q227" t="n">
-        <v>725235.6721345596</v>
+        <v>725582.4215091417</v>
       </c>
       <c r="R227" t="n">
-        <v>7332630.370986193</v>
+        <v>7332515.478089629</v>
       </c>
       <c r="S227" t="n">
         <v>10</v>
@@ -26636,12 +26636,12 @@
       <c r="AT227" t="inlineStr"/>
       <c r="AW227" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX227" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY227" t="inlineStr">
@@ -26652,10 +26652,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>111711648</v>
+        <v>111709487</v>
       </c>
       <c r="B228" t="n">
-        <v>90666</v>
+        <v>88489</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -26664,38 +26664,38 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q228" t="n">
-        <v>725135.3914558574</v>
+        <v>725424.6119143176</v>
       </c>
       <c r="R228" t="n">
-        <v>7332441.943508702</v>
+        <v>7332649.484134939</v>
       </c>
       <c r="S228" t="n">
         <v>10</v>
@@ -26752,12 +26752,12 @@
       <c r="AT228" t="inlineStr"/>
       <c r="AW228" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX228" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY228" t="inlineStr">
@@ -26768,10 +26768,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>111711644</v>
+        <v>111710664</v>
       </c>
       <c r="B229" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -26780,38 +26780,38 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="P229" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q229" t="n">
-        <v>725046.872241436</v>
+        <v>725166.2211873889</v>
       </c>
       <c r="R229" t="n">
-        <v>7332475.737493961</v>
+        <v>7332460.316904724</v>
       </c>
       <c r="S229" t="n">
         <v>10</v>
@@ -26868,12 +26868,12 @@
       <c r="AT229" t="inlineStr"/>
       <c r="AW229" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX229" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY229" t="inlineStr">
@@ -26884,10 +26884,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>111711650</v>
+        <v>111709517</v>
       </c>
       <c r="B230" t="n">
-        <v>76495</v>
+        <v>90682</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -26900,34 +26900,34 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6487</v>
+        <v>2059</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q230" t="n">
-        <v>725128.3705807739</v>
+        <v>725408.0466263851</v>
       </c>
       <c r="R230" t="n">
-        <v>7332437.710979398</v>
+        <v>7332626.527970433</v>
       </c>
       <c r="S230" t="n">
         <v>10</v>
@@ -26984,12 +26984,12 @@
       <c r="AT230" t="inlineStr"/>
       <c r="AW230" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX230" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY230" t="inlineStr">
@@ -31884,10 +31884,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>111711608</v>
+        <v>111710358</v>
       </c>
       <c r="B273" t="n">
-        <v>90709</v>
+        <v>90710</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -31900,34 +31900,34 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>5448</v>
+        <v>5449</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="P273" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q273" t="n">
-        <v>725040.3151781026</v>
+        <v>724994.5130491548</v>
       </c>
       <c r="R273" t="n">
-        <v>7332434.79704116</v>
+        <v>7332651.213407791</v>
       </c>
       <c r="S273" t="n">
         <v>10</v>
@@ -31984,12 +31984,12 @@
       <c r="AT273" t="inlineStr"/>
       <c r="AW273" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX273" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY273" t="inlineStr">
@@ -32000,10 +32000,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>111711362</v>
+        <v>111710360</v>
       </c>
       <c r="B274" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -32012,38 +32012,38 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="P274" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q274" t="n">
-        <v>724984.4355383365</v>
+        <v>724936.0371931486</v>
       </c>
       <c r="R274" t="n">
-        <v>7332592.84925364</v>
+        <v>7332538.381216616</v>
       </c>
       <c r="S274" t="n">
         <v>10</v>
@@ -32075,7 +32075,7 @@
       </c>
       <c r="Z274" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA274" t="inlineStr">
@@ -32085,7 +32085,7 @@
       </c>
       <c r="AB274" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD274" t="b">
@@ -32100,12 +32100,12 @@
       <c r="AT274" t="inlineStr"/>
       <c r="AW274" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY274" t="inlineStr">
@@ -32116,10 +32116,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>111711353</v>
+        <v>111710337</v>
       </c>
       <c r="B275" t="n">
-        <v>90660</v>
+        <v>88489</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -32132,34 +32132,34 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="P275" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q275" t="n">
-        <v>725010.3719264804</v>
+        <v>725229.7280457455</v>
       </c>
       <c r="R275" t="n">
-        <v>7332657.372175306</v>
+        <v>7332633.164389505</v>
       </c>
       <c r="S275" t="n">
         <v>10</v>
@@ -32191,7 +32191,7 @@
       </c>
       <c r="Z275" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA275" t="inlineStr">
@@ -32201,7 +32201,7 @@
       </c>
       <c r="AB275" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD275" t="b">
@@ -32216,12 +32216,12 @@
       <c r="AT275" t="inlineStr"/>
       <c r="AW275" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY275" t="inlineStr">
@@ -32232,10 +32232,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>111711356</v>
+        <v>111706039</v>
       </c>
       <c r="B276" t="n">
-        <v>90710</v>
+        <v>78107</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -32248,34 +32248,34 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>5449</v>
+        <v>6453</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="P276" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q276" t="n">
-        <v>725003.0609937049</v>
+        <v>725167.7709136346</v>
       </c>
       <c r="R276" t="n">
-        <v>7332631.071635312</v>
+        <v>7332389.398419823</v>
       </c>
       <c r="S276" t="n">
         <v>10</v>
@@ -32307,7 +32307,7 @@
       </c>
       <c r="Z276" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA276" t="inlineStr">
@@ -32317,7 +32317,7 @@
       </c>
       <c r="AB276" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD276" t="b">
@@ -32332,23 +32332,19 @@
       <c r="AT276" t="inlineStr"/>
       <c r="AW276" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
-        </is>
-      </c>
-      <c r="AY276" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>111711371</v>
+        <v>111709512</v>
       </c>
       <c r="B277" t="n">
         <v>90682</v>
@@ -32384,14 +32380,14 @@
       <c r="I277" t="inlineStr"/>
       <c r="P277" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q277" t="n">
-        <v>724960.2445645195</v>
+        <v>725561.0934621822</v>
       </c>
       <c r="R277" t="n">
-        <v>7332516.624215112</v>
+        <v>7332521.53703149</v>
       </c>
       <c r="S277" t="n">
         <v>10</v>
@@ -32423,7 +32419,7 @@
       </c>
       <c r="Z277" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA277" t="inlineStr">
@@ -32433,7 +32429,7 @@
       </c>
       <c r="AB277" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD277" t="b">
@@ -32448,12 +32444,12 @@
       <c r="AT277" t="inlineStr"/>
       <c r="AW277" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY277" t="inlineStr">
@@ -32464,10 +32460,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>111711358</v>
+        <v>111710622</v>
       </c>
       <c r="B278" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -32480,34 +32476,34 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="P278" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q278" t="n">
-        <v>725002.9643135068</v>
+        <v>725154.9060473843</v>
       </c>
       <c r="R278" t="n">
-        <v>7332632.288711529</v>
+        <v>7332474.115558335</v>
       </c>
       <c r="S278" t="n">
         <v>10</v>
@@ -32539,7 +32535,7 @@
       </c>
       <c r="Z278" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA278" t="inlineStr">
@@ -32549,7 +32545,7 @@
       </c>
       <c r="AB278" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD278" t="b">
@@ -32564,12 +32560,12 @@
       <c r="AT278" t="inlineStr"/>
       <c r="AW278" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY278" t="inlineStr">
@@ -32580,10 +32576,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>111706039</v>
+        <v>111709522</v>
       </c>
       <c r="B279" t="n">
-        <v>78107</v>
+        <v>90678</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -32592,38 +32588,38 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>6453</v>
+        <v>4366</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="P279" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q279" t="n">
-        <v>725167.7709136346</v>
+        <v>725333.5983997382</v>
       </c>
       <c r="R279" t="n">
-        <v>7332389.398419823</v>
+        <v>7332632.44399954</v>
       </c>
       <c r="S279" t="n">
         <v>10</v>
@@ -32680,22 +32676,26 @@
       <c r="AT279" t="inlineStr"/>
       <c r="AW279" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX279" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY279" t="inlineStr"/>
+          <t>Linda Nordström</t>
+        </is>
+      </c>
+      <c r="AY279" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>111709512</v>
+        <v>111709494</v>
       </c>
       <c r="B280" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -32708,21 +32708,21 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I280" t="inlineStr"/>
@@ -32732,10 +32732,10 @@
         </is>
       </c>
       <c r="Q280" t="n">
-        <v>725561.0934621822</v>
+        <v>725388.8204012244</v>
       </c>
       <c r="R280" t="n">
-        <v>7332521.53703149</v>
+        <v>7332642.145009213</v>
       </c>
       <c r="S280" t="n">
         <v>10</v>
@@ -32808,10 +32808,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>111710622</v>
+        <v>111710657</v>
       </c>
       <c r="B281" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -32824,21 +32824,21 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I281" t="inlineStr"/>
@@ -32848,10 +32848,10 @@
         </is>
       </c>
       <c r="Q281" t="n">
-        <v>725154.9060473843</v>
+        <v>725051.984730282</v>
       </c>
       <c r="R281" t="n">
-        <v>7332474.115558335</v>
+        <v>7332467.97815103</v>
       </c>
       <c r="S281" t="n">
         <v>10</v>
@@ -32924,10 +32924,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>111709522</v>
+        <v>111709529</v>
       </c>
       <c r="B282" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -32936,25 +32936,25 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I282" t="inlineStr"/>
@@ -32964,10 +32964,10 @@
         </is>
       </c>
       <c r="Q282" t="n">
-        <v>725333.5983997382</v>
+        <v>725369.2450669063</v>
       </c>
       <c r="R282" t="n">
-        <v>7332632.44399954</v>
+        <v>7332610.784282112</v>
       </c>
       <c r="S282" t="n">
         <v>10</v>
@@ -33040,10 +33040,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>111709494</v>
+        <v>111709508</v>
       </c>
       <c r="B283" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -33056,21 +33056,21 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I283" t="inlineStr"/>
@@ -33080,10 +33080,10 @@
         </is>
       </c>
       <c r="Q283" t="n">
-        <v>725388.8204012244</v>
+        <v>725310.5237676648</v>
       </c>
       <c r="R283" t="n">
-        <v>7332642.145009213</v>
+        <v>7332650.204843798</v>
       </c>
       <c r="S283" t="n">
         <v>10</v>
@@ -33156,7 +33156,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>111710657</v>
+        <v>111709545</v>
       </c>
       <c r="B284" t="n">
         <v>90658</v>
@@ -33192,14 +33192,14 @@
       <c r="I284" t="inlineStr"/>
       <c r="P284" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q284" t="n">
-        <v>725051.984730282</v>
+        <v>725379.5947375454</v>
       </c>
       <c r="R284" t="n">
-        <v>7332467.97815103</v>
+        <v>7332645.085250021</v>
       </c>
       <c r="S284" t="n">
         <v>10</v>
@@ -33256,12 +33256,12 @@
       <c r="AT284" t="inlineStr"/>
       <c r="AW284" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX284" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY284" t="inlineStr">
@@ -33272,10 +33272,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>111709529</v>
+        <v>111711608</v>
       </c>
       <c r="B285" t="n">
-        <v>90658</v>
+        <v>90709</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -33288,34 +33288,34 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="P285" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q285" t="n">
-        <v>725369.2450669063</v>
+        <v>725040.3151781026</v>
       </c>
       <c r="R285" t="n">
-        <v>7332610.784282112</v>
+        <v>7332434.79704116</v>
       </c>
       <c r="S285" t="n">
         <v>10</v>
@@ -33372,12 +33372,12 @@
       <c r="AT285" t="inlineStr"/>
       <c r="AW285" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX285" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY285" t="inlineStr">
@@ -33388,10 +33388,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>111709508</v>
+        <v>111711362</v>
       </c>
       <c r="B286" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -33400,38 +33400,38 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="P286" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q286" t="n">
-        <v>725310.5237676648</v>
+        <v>724984.4355383365</v>
       </c>
       <c r="R286" t="n">
-        <v>7332650.204843798</v>
+        <v>7332592.84925364</v>
       </c>
       <c r="S286" t="n">
         <v>10</v>
@@ -33463,7 +33463,7 @@
       </c>
       <c r="Z286" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA286" t="inlineStr">
@@ -33473,7 +33473,7 @@
       </c>
       <c r="AB286" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD286" t="b">
@@ -33488,12 +33488,12 @@
       <c r="AT286" t="inlineStr"/>
       <c r="AW286" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX286" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY286" t="inlineStr">
@@ -33504,10 +33504,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>111709545</v>
+        <v>111711353</v>
       </c>
       <c r="B287" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -33520,34 +33520,34 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="P287" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q287" t="n">
-        <v>725379.5947375454</v>
+        <v>725010.3719264804</v>
       </c>
       <c r="R287" t="n">
-        <v>7332645.085250021</v>
+        <v>7332657.372175306</v>
       </c>
       <c r="S287" t="n">
         <v>10</v>
@@ -33579,7 +33579,7 @@
       </c>
       <c r="Z287" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA287" t="inlineStr">
@@ -33589,7 +33589,7 @@
       </c>
       <c r="AB287" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD287" t="b">
@@ -33604,12 +33604,12 @@
       <c r="AT287" t="inlineStr"/>
       <c r="AW287" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX287" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY287" t="inlineStr">
@@ -33620,7 +33620,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>111710358</v>
+        <v>111711356</v>
       </c>
       <c r="B288" t="n">
         <v>90710</v>
@@ -33656,14 +33656,14 @@
       <c r="I288" t="inlineStr"/>
       <c r="P288" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q288" t="n">
-        <v>724994.5130491548</v>
+        <v>725003.0609937049</v>
       </c>
       <c r="R288" t="n">
-        <v>7332651.213407791</v>
+        <v>7332631.071635312</v>
       </c>
       <c r="S288" t="n">
         <v>10</v>
@@ -33695,7 +33695,7 @@
       </c>
       <c r="Z288" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA288" t="inlineStr">
@@ -33705,7 +33705,7 @@
       </c>
       <c r="AB288" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD288" t="b">
@@ -33720,12 +33720,12 @@
       <c r="AT288" t="inlineStr"/>
       <c r="AW288" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX288" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY288" t="inlineStr">
@@ -33736,10 +33736,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>111710360</v>
+        <v>111711371</v>
       </c>
       <c r="B289" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -33752,34 +33752,34 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="P289" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q289" t="n">
-        <v>724936.0371931486</v>
+        <v>724960.2445645195</v>
       </c>
       <c r="R289" t="n">
-        <v>7332538.381216616</v>
+        <v>7332516.624215112</v>
       </c>
       <c r="S289" t="n">
         <v>10</v>
@@ -33811,7 +33811,7 @@
       </c>
       <c r="Z289" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA289" t="inlineStr">
@@ -33821,7 +33821,7 @@
       </c>
       <c r="AB289" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD289" t="b">
@@ -33836,12 +33836,12 @@
       <c r="AT289" t="inlineStr"/>
       <c r="AW289" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX289" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY289" t="inlineStr">
@@ -33852,10 +33852,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>111710337</v>
+        <v>111711358</v>
       </c>
       <c r="B290" t="n">
-        <v>88489</v>
+        <v>90658</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -33868,34 +33868,34 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="P290" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q290" t="n">
-        <v>725229.7280457455</v>
+        <v>725002.9643135068</v>
       </c>
       <c r="R290" t="n">
-        <v>7332633.164389505</v>
+        <v>7332632.288711529</v>
       </c>
       <c r="S290" t="n">
         <v>10</v>
@@ -33927,7 +33927,7 @@
       </c>
       <c r="Z290" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA290" t="inlineStr">
@@ -33937,7 +33937,7 @@
       </c>
       <c r="AB290" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD290" t="b">
@@ -33952,12 +33952,12 @@
       <c r="AT290" t="inlineStr"/>
       <c r="AW290" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX290" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY290" t="inlineStr">
@@ -34084,10 +34084,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>111698875</v>
+        <v>111700309</v>
       </c>
       <c r="B292" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -34100,26 +34100,26 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -34134,10 +34134,10 @@
         </is>
       </c>
       <c r="Q292" t="n">
-        <v>725072.0609832492</v>
+        <v>725152.7807254456</v>
       </c>
       <c r="R292" t="n">
-        <v>7332462.224254381</v>
+        <v>7332398.005893666</v>
       </c>
       <c r="S292" t="n">
         <v>10</v>
@@ -34206,10 +34206,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>111700309</v>
+        <v>111698951</v>
       </c>
       <c r="B293" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -34222,26 +34222,26 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -34256,10 +34256,10 @@
         </is>
       </c>
       <c r="Q293" t="n">
-        <v>725152.7807254456</v>
+        <v>725070.4105380423</v>
       </c>
       <c r="R293" t="n">
-        <v>7332398.005893666</v>
+        <v>7332446.986801734</v>
       </c>
       <c r="S293" t="n">
         <v>10</v>
@@ -34328,10 +34328,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>111698951</v>
+        <v>111710353</v>
       </c>
       <c r="B294" t="n">
-        <v>90658</v>
+        <v>90710</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -34344,44 +34344,34 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I294" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J294" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K294" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="P294" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q294" t="n">
-        <v>725070.4105380423</v>
+        <v>725174.4328670187</v>
       </c>
       <c r="R294" t="n">
-        <v>7332446.986801734</v>
+        <v>7332665.510928333</v>
       </c>
       <c r="S294" t="n">
         <v>10</v>
@@ -34438,22 +34428,26 @@
       <c r="AT294" t="inlineStr"/>
       <c r="AW294" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX294" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY294" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY294" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>111710353</v>
+        <v>111711348</v>
       </c>
       <c r="B295" t="n">
-        <v>90710</v>
+        <v>88489</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -34466,34 +34460,34 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>5449</v>
+        <v>1962</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="P295" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>725174.4328670187</v>
+        <v>724999.4450050651</v>
       </c>
       <c r="R295" t="n">
-        <v>7332665.510928333</v>
+        <v>7332666.30210897</v>
       </c>
       <c r="S295" t="n">
         <v>10</v>
@@ -34525,7 +34519,7 @@
       </c>
       <c r="Z295" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA295" t="inlineStr">
@@ -34535,7 +34529,7 @@
       </c>
       <c r="AB295" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD295" t="b">
@@ -34550,12 +34544,12 @@
       <c r="AT295" t="inlineStr"/>
       <c r="AW295" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX295" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY295" t="inlineStr">
@@ -34566,10 +34560,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>111711348</v>
+        <v>111711350</v>
       </c>
       <c r="B296" t="n">
-        <v>88489</v>
+        <v>90678</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -34578,25 +34572,25 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1962</v>
+        <v>4366</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I296" t="inlineStr"/>
@@ -34606,10 +34600,10 @@
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>724999.4450050651</v>
+        <v>725000.3539607516</v>
       </c>
       <c r="R296" t="n">
-        <v>7332666.30210897</v>
+        <v>7332665.149571774</v>
       </c>
       <c r="S296" t="n">
         <v>10</v>
@@ -34682,10 +34676,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>111711350</v>
+        <v>111706064</v>
       </c>
       <c r="B297" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -34698,34 +34692,34 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="P297" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>725000.3539607516</v>
+        <v>725083.9172445576</v>
       </c>
       <c r="R297" t="n">
-        <v>7332665.149571774</v>
+        <v>7332457.042144114</v>
       </c>
       <c r="S297" t="n">
         <v>10</v>
@@ -34757,7 +34751,7 @@
       </c>
       <c r="Z297" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA297" t="inlineStr">
@@ -34767,7 +34761,7 @@
       </c>
       <c r="AB297" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD297" t="b">
@@ -34782,26 +34776,22 @@
       <c r="AT297" t="inlineStr"/>
       <c r="AW297" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX297" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
-        </is>
-      </c>
-      <c r="AY297" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>111706064</v>
+        <v>111709516</v>
       </c>
       <c r="B298" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -34810,38 +34800,38 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="P298" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q298" t="n">
-        <v>725083.9172445576</v>
+        <v>725464.809988003</v>
       </c>
       <c r="R298" t="n">
-        <v>7332457.042144114</v>
+        <v>7332632.27051338</v>
       </c>
       <c r="S298" t="n">
         <v>10</v>
@@ -34898,22 +34888,26 @@
       <c r="AT298" t="inlineStr"/>
       <c r="AW298" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX298" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY298" t="inlineStr"/>
+          <t>Linda Nordström</t>
+        </is>
+      </c>
+      <c r="AY298" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>111709516</v>
+        <v>111709505</v>
       </c>
       <c r="B299" t="n">
-        <v>90682</v>
+        <v>90670</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -34922,25 +34916,25 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>2059</v>
+        <v>4365</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I299" t="inlineStr"/>
@@ -34950,10 +34944,10 @@
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>725464.809988003</v>
+        <v>725439.8414526138</v>
       </c>
       <c r="R299" t="n">
-        <v>7332632.27051338</v>
+        <v>7332632.73272271</v>
       </c>
       <c r="S299" t="n">
         <v>10</v>
@@ -35026,10 +35020,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>111709505</v>
+        <v>111698875</v>
       </c>
       <c r="B300" t="n">
-        <v>90670</v>
+        <v>90658</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -35038,38 +35032,48 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>4365</v>
+        <v>4361</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
-        </is>
-      </c>
-      <c r="I300" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="P300" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q300" t="n">
-        <v>725439.8414526138</v>
+        <v>725072.0609832492</v>
       </c>
       <c r="R300" t="n">
-        <v>7332632.73272271</v>
+        <v>7332462.224254381</v>
       </c>
       <c r="S300" t="n">
         <v>10</v>
@@ -35126,26 +35130,22 @@
       <c r="AT300" t="inlineStr"/>
       <c r="AW300" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX300" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
-        </is>
-      </c>
-      <c r="AY300" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>111710373</v>
+        <v>111712887</v>
       </c>
       <c r="B301" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -35158,34 +35158,34 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="P301" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q301" t="n">
-        <v>725100.52854856</v>
+        <v>725342.323827486</v>
       </c>
       <c r="R301" t="n">
-        <v>7332654.32938866</v>
+        <v>7332666.615299234</v>
       </c>
       <c r="S301" t="n">
         <v>10</v>
@@ -35242,12 +35242,12 @@
       <c r="AT301" t="inlineStr"/>
       <c r="AW301" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX301" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY301" t="inlineStr">
@@ -35258,10 +35258,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>111712887</v>
+        <v>111712859</v>
       </c>
       <c r="B302" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -35274,21 +35274,21 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I302" t="inlineStr"/>
@@ -35298,10 +35298,10 @@
         </is>
       </c>
       <c r="Q302" t="n">
-        <v>725342.323827486</v>
+        <v>725051.2372635503</v>
       </c>
       <c r="R302" t="n">
-        <v>7332666.615299234</v>
+        <v>7332672.866258692</v>
       </c>
       <c r="S302" t="n">
         <v>10</v>
@@ -35374,10 +35374,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>111712860</v>
+        <v>111712853</v>
       </c>
       <c r="B303" t="n">
-        <v>90300</v>
+        <v>85268</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -35390,21 +35390,21 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>4745</v>
+        <v>3690</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Vaxspindling</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Cortinarius pinophilus</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Soop</t>
         </is>
       </c>
       <c r="I303" t="inlineStr"/>
@@ -35414,10 +35414,10 @@
         </is>
       </c>
       <c r="Q303" t="n">
-        <v>725487.473791327</v>
+        <v>725503.2960037246</v>
       </c>
       <c r="R303" t="n">
-        <v>7332568.34340495</v>
+        <v>7332600.631587066</v>
       </c>
       <c r="S303" t="n">
         <v>10</v>
@@ -35490,10 +35490,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>111712859</v>
+        <v>111712872</v>
       </c>
       <c r="B304" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -35506,21 +35506,21 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I304" t="inlineStr"/>
@@ -35530,10 +35530,10 @@
         </is>
       </c>
       <c r="Q304" t="n">
-        <v>725051.2372635503</v>
+        <v>725225.940514219</v>
       </c>
       <c r="R304" t="n">
-        <v>7332672.866258692</v>
+        <v>7332685.936200313</v>
       </c>
       <c r="S304" t="n">
         <v>10</v>
@@ -35606,10 +35606,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>111712853</v>
+        <v>111712862</v>
       </c>
       <c r="B305" t="n">
-        <v>85268</v>
+        <v>88924</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -35618,25 +35618,25 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>3690</v>
+        <v>256703</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Vaxspindling</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Cortinarius pinophilus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Soop</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I305" t="inlineStr"/>
@@ -35646,10 +35646,10 @@
         </is>
       </c>
       <c r="Q305" t="n">
-        <v>725503.2960037246</v>
+        <v>725456.3441801188</v>
       </c>
       <c r="R305" t="n">
-        <v>7332600.631587066</v>
+        <v>7332594.852714131</v>
       </c>
       <c r="S305" t="n">
         <v>10</v>
@@ -35722,10 +35722,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>111712872</v>
+        <v>111712860</v>
       </c>
       <c r="B306" t="n">
-        <v>90682</v>
+        <v>90300</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -35738,21 +35738,21 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I306" t="inlineStr"/>
@@ -35762,10 +35762,10 @@
         </is>
       </c>
       <c r="Q306" t="n">
-        <v>725225.940514219</v>
+        <v>725487.473791327</v>
       </c>
       <c r="R306" t="n">
-        <v>7332685.936200313</v>
+        <v>7332568.34340495</v>
       </c>
       <c r="S306" t="n">
         <v>10</v>
@@ -35838,10 +35838,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>111712862</v>
+        <v>111710373</v>
       </c>
       <c r="B307" t="n">
-        <v>88924</v>
+        <v>90682</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -35850,38 +35850,38 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>256703</v>
+        <v>2059</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="P307" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q307" t="n">
-        <v>725456.3441801188</v>
+        <v>725100.52854856</v>
       </c>
       <c r="R307" t="n">
-        <v>7332594.852714131</v>
+        <v>7332654.32938866</v>
       </c>
       <c r="S307" t="n">
         <v>10</v>
@@ -35938,12 +35938,12 @@
       <c r="AT307" t="inlineStr"/>
       <c r="AW307" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX307" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY307" t="inlineStr">
@@ -36076,7 +36076,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>111710355</v>
+        <v>111709502</v>
       </c>
       <c r="B309" t="n">
         <v>90710</v>
@@ -36112,14 +36112,14 @@
       <c r="I309" t="inlineStr"/>
       <c r="P309" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q309" t="n">
-        <v>725382.5533437567</v>
+        <v>725435.6049584852</v>
       </c>
       <c r="R309" t="n">
-        <v>7332648.995001098</v>
+        <v>7332639.744261155</v>
       </c>
       <c r="S309" t="n">
         <v>10</v>
@@ -36176,12 +36176,12 @@
       <c r="AT309" t="inlineStr"/>
       <c r="AW309" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX309" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY309" t="inlineStr">
@@ -36192,10 +36192,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>111710339</v>
+        <v>111709500</v>
       </c>
       <c r="B310" t="n">
-        <v>88055</v>
+        <v>90710</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -36204,38 +36204,38 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>6286</v>
+        <v>5449</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Torrmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Tricholoma sudum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="P310" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q310" t="n">
-        <v>725205.9591085187</v>
+        <v>725294.4639440998</v>
       </c>
       <c r="R310" t="n">
-        <v>7332628.824924034</v>
+        <v>7332661.991593027</v>
       </c>
       <c r="S310" t="n">
         <v>10</v>
@@ -36292,12 +36292,12 @@
       <c r="AT310" t="inlineStr"/>
       <c r="AW310" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX310" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY310" t="inlineStr">
@@ -36885,10 +36885,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>111709504</v>
+        <v>111710355</v>
       </c>
       <c r="B316" t="n">
-        <v>90670</v>
+        <v>90710</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -36897,38 +36897,38 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>4365</v>
+        <v>5449</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="P316" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q316" t="n">
-        <v>725584.189257435</v>
+        <v>725382.5533437567</v>
       </c>
       <c r="R316" t="n">
-        <v>7332508.678048515</v>
+        <v>7332648.995001098</v>
       </c>
       <c r="S316" t="n">
         <v>10</v>
@@ -36985,12 +36985,12 @@
       <c r="AT316" t="inlineStr"/>
       <c r="AW316" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX316" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY316" t="inlineStr">
@@ -37001,10 +37001,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>111709547</v>
+        <v>111710339</v>
       </c>
       <c r="B317" t="n">
-        <v>87992</v>
+        <v>88055</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -37017,34 +37017,34 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1593</v>
+        <v>6286</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Torrmusseron</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Tricholoma sudum</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="P317" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q317" t="n">
-        <v>725471.0673947937</v>
+        <v>725205.9591085187</v>
       </c>
       <c r="R317" t="n">
-        <v>7332605.006548095</v>
+        <v>7332628.824924034</v>
       </c>
       <c r="S317" t="n">
         <v>10</v>
@@ -37101,12 +37101,12 @@
       <c r="AT317" t="inlineStr"/>
       <c r="AW317" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX317" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY317" t="inlineStr">
@@ -37117,10 +37117,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>111709556</v>
+        <v>111709504</v>
       </c>
       <c r="B318" t="n">
-        <v>90660</v>
+        <v>90670</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -37129,25 +37129,25 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>4362</v>
+        <v>4365</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I318" t="inlineStr"/>
@@ -37157,10 +37157,10 @@
         </is>
       </c>
       <c r="Q318" t="n">
-        <v>725392.4630564451</v>
+        <v>725584.189257435</v>
       </c>
       <c r="R318" t="n">
-        <v>7332586.09440229</v>
+        <v>7332508.678048515</v>
       </c>
       <c r="S318" t="n">
         <v>10</v>
@@ -37233,10 +37233,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>111709502</v>
+        <v>111709547</v>
       </c>
       <c r="B319" t="n">
-        <v>90710</v>
+        <v>87992</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -37245,25 +37245,25 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>5449</v>
+        <v>1593</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Jul.Schäff.</t>
         </is>
       </c>
       <c r="I319" t="inlineStr"/>
@@ -37273,10 +37273,10 @@
         </is>
       </c>
       <c r="Q319" t="n">
-        <v>725435.6049584852</v>
+        <v>725471.0673947937</v>
       </c>
       <c r="R319" t="n">
-        <v>7332639.744261155</v>
+        <v>7332605.006548095</v>
       </c>
       <c r="S319" t="n">
         <v>10</v>
@@ -37349,10 +37349,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>111709500</v>
+        <v>111709556</v>
       </c>
       <c r="B320" t="n">
-        <v>90710</v>
+        <v>90660</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -37365,21 +37365,21 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I320" t="inlineStr"/>
@@ -37389,10 +37389,10 @@
         </is>
       </c>
       <c r="Q320" t="n">
-        <v>725294.4639440998</v>
+        <v>725392.4630564451</v>
       </c>
       <c r="R320" t="n">
-        <v>7332661.991593027</v>
+        <v>7332586.09440229</v>
       </c>
       <c r="S320" t="n">
         <v>10</v>
@@ -37587,10 +37587,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>111709542</v>
+        <v>111699865</v>
       </c>
       <c r="B322" t="n">
-        <v>90658</v>
+        <v>77268</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -37603,34 +37603,35 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>4361</v>
+        <v>228912</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="P322" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q322" t="n">
-        <v>725407.8019050863</v>
+        <v>725115.7658552242</v>
       </c>
       <c r="R322" t="n">
-        <v>7332624.467180541</v>
+        <v>7332467.738560194</v>
       </c>
       <c r="S322" t="n">
         <v>10</v>
@@ -37687,26 +37688,22 @@
       <c r="AT322" t="inlineStr"/>
       <c r="AW322" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX322" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
-        </is>
-      </c>
-      <c r="AY322" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>111710656</v>
+        <v>111710372</v>
       </c>
       <c r="B323" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -37719,34 +37716,34 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="P323" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q323" t="n">
-        <v>725073.6081984115</v>
+        <v>725167.5356023817</v>
       </c>
       <c r="R323" t="n">
-        <v>7332494.19268188</v>
+        <v>7332649.449021258</v>
       </c>
       <c r="S323" t="n">
         <v>10</v>
@@ -37803,12 +37800,12 @@
       <c r="AT323" t="inlineStr"/>
       <c r="AW323" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX323" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY323" t="inlineStr">
@@ -37819,10 +37816,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>111709536</v>
+        <v>111711363</v>
       </c>
       <c r="B324" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -37831,38 +37828,38 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="P324" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q324" t="n">
-        <v>725582.3245806872</v>
+        <v>724977.6014789153</v>
       </c>
       <c r="R324" t="n">
-        <v>7332516.695219268</v>
+        <v>7332575.976116257</v>
       </c>
       <c r="S324" t="n">
         <v>10</v>
@@ -37894,7 +37891,7 @@
       </c>
       <c r="Z324" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA324" t="inlineStr">
@@ -37904,7 +37901,7 @@
       </c>
       <c r="AB324" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD324" t="b">
@@ -37919,12 +37916,12 @@
       <c r="AT324" t="inlineStr"/>
       <c r="AW324" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX324" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY324" t="inlineStr">
@@ -37935,10 +37932,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>111710651</v>
+        <v>111711616</v>
       </c>
       <c r="B325" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -37951,34 +37948,34 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="P325" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q325" t="n">
-        <v>725218.2673153686</v>
+        <v>725104.4958516548</v>
       </c>
       <c r="R325" t="n">
-        <v>7332366.057011612</v>
+        <v>7332501.546363591</v>
       </c>
       <c r="S325" t="n">
         <v>10</v>
@@ -38035,12 +38032,12 @@
       <c r="AT325" t="inlineStr"/>
       <c r="AW325" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX325" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY325" t="inlineStr">
@@ -38051,10 +38048,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>111709544</v>
+        <v>111711606</v>
       </c>
       <c r="B326" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -38067,34 +38064,34 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="P326" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q326" t="n">
-        <v>725387.5832129039</v>
+        <v>725113.418428737</v>
       </c>
       <c r="R326" t="n">
-        <v>7332637.147436435</v>
+        <v>7332507.562981902</v>
       </c>
       <c r="S326" t="n">
         <v>10</v>
@@ -38151,12 +38148,12 @@
       <c r="AT326" t="inlineStr"/>
       <c r="AW326" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX326" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY326" t="inlineStr">
@@ -38167,10 +38164,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>111709540</v>
+        <v>111711340</v>
       </c>
       <c r="B327" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -38179,38 +38176,38 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="P327" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q327" t="n">
-        <v>725439.8227800801</v>
+        <v>725082.6005280693</v>
       </c>
       <c r="R327" t="n">
-        <v>7332627.832078635</v>
+        <v>7332638.207602881</v>
       </c>
       <c r="S327" t="n">
         <v>10</v>
@@ -38242,7 +38239,7 @@
       </c>
       <c r="Z327" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA327" t="inlineStr">
@@ -38252,7 +38249,7 @@
       </c>
       <c r="AB327" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD327" t="b">
@@ -38267,12 +38264,12 @@
       <c r="AT327" t="inlineStr"/>
       <c r="AW327" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX327" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY327" t="inlineStr">
@@ -38283,10 +38280,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>111709537</v>
+        <v>111711601</v>
       </c>
       <c r="B328" t="n">
-        <v>90658</v>
+        <v>88489</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -38299,34 +38296,34 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>4361</v>
+        <v>1962</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="P328" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q328" t="n">
-        <v>725576.1583004189</v>
+        <v>725036.9953395801</v>
       </c>
       <c r="R328" t="n">
-        <v>7332532.535425584</v>
+        <v>7332476.585924259</v>
       </c>
       <c r="S328" t="n">
         <v>10</v>
@@ -38383,12 +38380,12 @@
       <c r="AT328" t="inlineStr"/>
       <c r="AW328" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX328" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY328" t="inlineStr">
@@ -38399,10 +38396,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>111709507</v>
+        <v>111711333</v>
       </c>
       <c r="B329" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -38415,34 +38412,34 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="P329" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q329" t="n">
-        <v>725439.9418168733</v>
+        <v>724991.8289444095</v>
       </c>
       <c r="R329" t="n">
-        <v>7332605.795239004</v>
+        <v>7332546.078287944</v>
       </c>
       <c r="S329" t="n">
         <v>10</v>
@@ -38474,7 +38471,7 @@
       </c>
       <c r="Z329" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA329" t="inlineStr">
@@ -38484,7 +38481,7 @@
       </c>
       <c r="AB329" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD329" t="b">
@@ -38499,12 +38496,12 @@
       <c r="AT329" t="inlineStr"/>
       <c r="AW329" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX329" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY329" t="inlineStr">
@@ -38515,10 +38512,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>111712864</v>
+        <v>111709542</v>
       </c>
       <c r="B330" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -38531,34 +38528,34 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="P330" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q330" t="n">
-        <v>725490.5566392597</v>
+        <v>725407.8019050863</v>
       </c>
       <c r="R330" t="n">
-        <v>7332560.423342383</v>
+        <v>7332624.467180541</v>
       </c>
       <c r="S330" t="n">
         <v>10</v>
@@ -38615,12 +38612,12 @@
       <c r="AT330" t="inlineStr"/>
       <c r="AW330" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX330" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY330" t="inlineStr">
@@ -38631,10 +38628,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>111712866</v>
+        <v>111709536</v>
       </c>
       <c r="B331" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -38647,34 +38644,34 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="P331" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q331" t="n">
-        <v>725371.4449087358</v>
+        <v>725582.3245806872</v>
       </c>
       <c r="R331" t="n">
-        <v>7332655.051508157</v>
+        <v>7332516.695219268</v>
       </c>
       <c r="S331" t="n">
         <v>10</v>
@@ -38731,12 +38728,12 @@
       <c r="AT331" t="inlineStr"/>
       <c r="AW331" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX331" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY331" t="inlineStr">
@@ -38747,10 +38744,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>111699865</v>
+        <v>111712864</v>
       </c>
       <c r="B332" t="n">
-        <v>77268</v>
+        <v>90710</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -38763,35 +38760,34 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>228912</v>
+        <v>5449</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
       <c r="P332" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q332" t="n">
-        <v>725115.7658552242</v>
+        <v>725490.5566392597</v>
       </c>
       <c r="R332" t="n">
-        <v>7332467.738560194</v>
+        <v>7332560.423342383</v>
       </c>
       <c r="S332" t="n">
         <v>10</v>
@@ -38848,22 +38844,26 @@
       <c r="AT332" t="inlineStr"/>
       <c r="AW332" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX332" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY332" t="inlineStr"/>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY332" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>111710372</v>
+        <v>111712866</v>
       </c>
       <c r="B333" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -38876,34 +38876,34 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="P333" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q333" t="n">
-        <v>725167.5356023817</v>
+        <v>725371.4449087358</v>
       </c>
       <c r="R333" t="n">
-        <v>7332649.449021258</v>
+        <v>7332655.051508157</v>
       </c>
       <c r="S333" t="n">
         <v>10</v>
@@ -38960,12 +38960,12 @@
       <c r="AT333" t="inlineStr"/>
       <c r="AW333" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX333" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY333" t="inlineStr">
@@ -38976,10 +38976,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>111711363</v>
+        <v>111710656</v>
       </c>
       <c r="B334" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -38988,38 +38988,38 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E334" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="P334" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q334" t="n">
-        <v>724977.6014789153</v>
+        <v>725073.6081984115</v>
       </c>
       <c r="R334" t="n">
-        <v>7332575.976116257</v>
+        <v>7332494.19268188</v>
       </c>
       <c r="S334" t="n">
         <v>10</v>
@@ -39051,7 +39051,7 @@
       </c>
       <c r="Z334" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA334" t="inlineStr">
@@ -39061,7 +39061,7 @@
       </c>
       <c r="AB334" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD334" t="b">
@@ -39076,12 +39076,12 @@
       <c r="AT334" t="inlineStr"/>
       <c r="AW334" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX334" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY334" t="inlineStr">
@@ -39092,10 +39092,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>111711616</v>
+        <v>111710651</v>
       </c>
       <c r="B335" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -39108,34 +39108,34 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="P335" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q335" t="n">
-        <v>725104.4958516548</v>
+        <v>725218.2673153686</v>
       </c>
       <c r="R335" t="n">
-        <v>7332501.546363591</v>
+        <v>7332366.057011612</v>
       </c>
       <c r="S335" t="n">
         <v>10</v>
@@ -39192,12 +39192,12 @@
       <c r="AT335" t="inlineStr"/>
       <c r="AW335" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX335" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY335" t="inlineStr">
@@ -39208,10 +39208,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>111711606</v>
+        <v>111709544</v>
       </c>
       <c r="B336" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -39224,34 +39224,34 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="P336" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q336" t="n">
-        <v>725113.418428737</v>
+        <v>725387.5832129039</v>
       </c>
       <c r="R336" t="n">
-        <v>7332507.562981902</v>
+        <v>7332637.147436435</v>
       </c>
       <c r="S336" t="n">
         <v>10</v>
@@ -39308,12 +39308,12 @@
       <c r="AT336" t="inlineStr"/>
       <c r="AW336" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX336" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY336" t="inlineStr">
@@ -39324,10 +39324,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>111711340</v>
+        <v>111709540</v>
       </c>
       <c r="B337" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -39336,38 +39336,38 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="P337" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q337" t="n">
-        <v>725082.6005280693</v>
+        <v>725439.8227800801</v>
       </c>
       <c r="R337" t="n">
-        <v>7332638.207602881</v>
+        <v>7332627.832078635</v>
       </c>
       <c r="S337" t="n">
         <v>10</v>
@@ -39399,7 +39399,7 @@
       </c>
       <c r="Z337" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA337" t="inlineStr">
@@ -39409,7 +39409,7 @@
       </c>
       <c r="AB337" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD337" t="b">
@@ -39424,12 +39424,12 @@
       <c r="AT337" t="inlineStr"/>
       <c r="AW337" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX337" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY337" t="inlineStr">
@@ -39440,10 +39440,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>111711601</v>
+        <v>111709537</v>
       </c>
       <c r="B338" t="n">
-        <v>88489</v>
+        <v>90658</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -39456,34 +39456,34 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="P338" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q338" t="n">
-        <v>725036.9953395801</v>
+        <v>725576.1583004189</v>
       </c>
       <c r="R338" t="n">
-        <v>7332476.585924259</v>
+        <v>7332532.535425584</v>
       </c>
       <c r="S338" t="n">
         <v>10</v>
@@ -39540,12 +39540,12 @@
       <c r="AT338" t="inlineStr"/>
       <c r="AW338" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX338" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY338" t="inlineStr">
@@ -39556,10 +39556,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>111711333</v>
+        <v>111709507</v>
       </c>
       <c r="B339" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -39572,34 +39572,34 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="P339" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q339" t="n">
-        <v>724991.8289444095</v>
+        <v>725439.9418168733</v>
       </c>
       <c r="R339" t="n">
-        <v>7332546.078287944</v>
+        <v>7332605.795239004</v>
       </c>
       <c r="S339" t="n">
         <v>10</v>
@@ -39631,7 +39631,7 @@
       </c>
       <c r="Z339" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA339" t="inlineStr">
@@ -39641,7 +39641,7 @@
       </c>
       <c r="AB339" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD339" t="b">
@@ -39656,12 +39656,12 @@
       <c r="AT339" t="inlineStr"/>
       <c r="AW339" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX339" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY339" t="inlineStr">
@@ -47792,10 +47792,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>111747071</v>
+        <v>111739863</v>
       </c>
       <c r="B410" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -47804,38 +47804,38 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E410" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="P410" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q410" t="n">
-        <v>725400.9890894732</v>
+        <v>725077.4107909475</v>
       </c>
       <c r="R410" t="n">
-        <v>7332612.493642646</v>
+        <v>7332652.084027541</v>
       </c>
       <c r="S410" t="n">
         <v>10</v>
@@ -47867,7 +47867,7 @@
       </c>
       <c r="Z410" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA410" t="inlineStr">
@@ -47877,7 +47877,7 @@
       </c>
       <c r="AB410" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD410" t="b">
@@ -47892,12 +47892,12 @@
       <c r="AT410" t="inlineStr"/>
       <c r="AW410" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX410" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY410" t="inlineStr">
@@ -47908,10 +47908,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>111739863</v>
+        <v>111747071</v>
       </c>
       <c r="B411" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -47920,38 +47920,38 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="P411" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q411" t="n">
-        <v>725077.4107909475</v>
+        <v>725400.9890894732</v>
       </c>
       <c r="R411" t="n">
-        <v>7332652.084027541</v>
+        <v>7332612.493642646</v>
       </c>
       <c r="S411" t="n">
         <v>10</v>
@@ -47983,7 +47983,7 @@
       </c>
       <c r="Z411" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA411" t="inlineStr">
@@ -47993,7 +47993,7 @@
       </c>
       <c r="AB411" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD411" t="b">
@@ -48008,12 +48008,12 @@
       <c r="AT411" t="inlineStr"/>
       <c r="AW411" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX411" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY411" t="inlineStr">
@@ -50925,10 +50925,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>111739855</v>
+        <v>111747070</v>
       </c>
       <c r="B437" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -50941,34 +50941,34 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="P437" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q437" t="n">
-        <v>724999.0317869151</v>
+        <v>725404.7380796738</v>
       </c>
       <c r="R437" t="n">
-        <v>7332630.34332027</v>
+        <v>7332637.287756986</v>
       </c>
       <c r="S437" t="n">
         <v>10</v>
@@ -51000,7 +51000,7 @@
       </c>
       <c r="Z437" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA437" t="inlineStr">
@@ -51010,7 +51010,7 @@
       </c>
       <c r="AB437" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD437" t="b">
@@ -51025,12 +51025,12 @@
       <c r="AT437" t="inlineStr"/>
       <c r="AW437" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX437" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY437" t="inlineStr">
@@ -51041,10 +51041,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>111747070</v>
+        <v>111747062</v>
       </c>
       <c r="B438" t="n">
-        <v>90710</v>
+        <v>88924</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -51053,25 +51053,25 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E438" t="n">
-        <v>5449</v>
+        <v>256703</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I438" t="inlineStr"/>
@@ -51081,10 +51081,10 @@
         </is>
       </c>
       <c r="Q438" t="n">
-        <v>725404.7380796738</v>
+        <v>725439.3504767136</v>
       </c>
       <c r="R438" t="n">
-        <v>7332637.287756986</v>
+        <v>7332592.683612872</v>
       </c>
       <c r="S438" t="n">
         <v>10</v>
@@ -51116,7 +51116,7 @@
       </c>
       <c r="Z438" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA438" t="inlineStr">
@@ -51126,7 +51126,7 @@
       </c>
       <c r="AB438" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD438" t="b">
@@ -51157,10 +51157,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>111747062</v>
+        <v>111739855</v>
       </c>
       <c r="B439" t="n">
-        <v>88924</v>
+        <v>90682</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -51169,38 +51169,38 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E439" t="n">
-        <v>256703</v>
+        <v>2059</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="P439" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q439" t="n">
-        <v>725439.3504767136</v>
+        <v>724999.0317869151</v>
       </c>
       <c r="R439" t="n">
-        <v>7332592.683612872</v>
+        <v>7332630.34332027</v>
       </c>
       <c r="S439" t="n">
         <v>10</v>
@@ -51232,7 +51232,7 @@
       </c>
       <c r="Z439" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA439" t="inlineStr">
@@ -51242,7 +51242,7 @@
       </c>
       <c r="AB439" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD439" t="b">
@@ -51257,12 +51257,12 @@
       <c r="AT439" t="inlineStr"/>
       <c r="AW439" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX439" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY439" t="inlineStr">

--- a/artfynd/A 55345-2020.xlsx
+++ b/artfynd/A 55345-2020.xlsx
@@ -13643,10 +13643,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111709545</v>
+        <v>111706064</v>
       </c>
       <c r="B116" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13655,38 +13655,38 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>725379.5947375454</v>
+        <v>725083.9172445576</v>
       </c>
       <c r="R116" t="n">
-        <v>7332645.085250021</v>
+        <v>7332457.042144114</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13743,26 +13743,22 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
-        </is>
-      </c>
-      <c r="AY116" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111700153</v>
+        <v>111710345</v>
       </c>
       <c r="B117" t="n">
-        <v>77186</v>
+        <v>90652</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13775,35 +13771,34 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>353</v>
+        <v>3100</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>725133.8386177601</v>
+        <v>725299.6547611781</v>
       </c>
       <c r="R117" t="n">
-        <v>7332399.766719076</v>
+        <v>7332648.115512726</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -13860,22 +13855,26 @@
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY117" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY117" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111711356</v>
+        <v>111710347</v>
       </c>
       <c r="B118" t="n">
-        <v>90710</v>
+        <v>90652</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13888,34 +13887,34 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>5449</v>
+        <v>3100</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>725003.0609937049</v>
+        <v>725025.5343239709</v>
       </c>
       <c r="R118" t="n">
-        <v>7332631.071635312</v>
+        <v>7332641.430214838</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -13947,7 +13946,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
@@ -13957,7 +13956,7 @@
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD118" t="b">
@@ -13972,12 +13971,12 @@
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr">
@@ -13988,10 +13987,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111710635</v>
+        <v>111710358</v>
       </c>
       <c r="B119" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14004,34 +14003,34 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>725136.6347606094</v>
+        <v>724994.5130491548</v>
       </c>
       <c r="R119" t="n">
-        <v>7332482.870259319</v>
+        <v>7332651.213407791</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -14088,12 +14087,12 @@
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr">
@@ -14104,10 +14103,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111711342</v>
+        <v>111711358</v>
       </c>
       <c r="B120" t="n">
-        <v>90854</v>
+        <v>90658</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14120,21 +14119,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2079</v>
+        <v>4361</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14144,10 +14143,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>725038.5953246626</v>
+        <v>725002.9643135068</v>
       </c>
       <c r="R120" t="n">
-        <v>7332641.651369619</v>
+        <v>7332632.288711529</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -14179,7 +14178,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr">
@@ -14189,7 +14188,7 @@
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -14220,7 +14219,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111710358</v>
+        <v>111710355</v>
       </c>
       <c r="B121" t="n">
         <v>90710</v>
@@ -14260,10 +14259,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>724994.5130491548</v>
+        <v>725382.5533437567</v>
       </c>
       <c r="R121" t="n">
-        <v>7332651.213407791</v>
+        <v>7332648.995001098</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -14452,10 +14451,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111709527</v>
+        <v>111698937</v>
       </c>
       <c r="B123" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14468,34 +14467,44 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>725177.9841996103</v>
+        <v>725067.2321006343</v>
       </c>
       <c r="R123" t="n">
-        <v>7332682.531520856</v>
+        <v>7332456.124685408</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -14552,23 +14561,19 @@
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
-        </is>
-      </c>
-      <c r="AY123" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111710347</v>
+        <v>111709492</v>
       </c>
       <c r="B124" t="n">
         <v>90652</v>
@@ -14604,14 +14609,14 @@
       <c r="I124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>725025.5343239709</v>
+        <v>725424.5150527878</v>
       </c>
       <c r="R124" t="n">
-        <v>7332641.430214838</v>
+        <v>7332650.701206055</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -14668,12 +14673,12 @@
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr">
@@ -14684,10 +14689,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111711358</v>
+        <v>111709521</v>
       </c>
       <c r="B125" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14696,38 +14701,38 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>725002.9643135068</v>
+        <v>725224.1356442837</v>
       </c>
       <c r="R125" t="n">
-        <v>7332632.288711529</v>
+        <v>7332682.9349325</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -14759,7 +14764,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -14769,7 +14774,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -14784,12 +14789,12 @@
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr">
@@ -14800,10 +14805,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111710355</v>
+        <v>111709540</v>
       </c>
       <c r="B126" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14816,34 +14821,34 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>725382.5533437567</v>
+        <v>725439.8227800801</v>
       </c>
       <c r="R126" t="n">
-        <v>7332648.995001098</v>
+        <v>7332627.832078635</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -14900,12 +14905,12 @@
       <c r="AT126" t="inlineStr"/>
       <c r="AW126" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr">
@@ -14916,10 +14921,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111698937</v>
+        <v>111711652</v>
       </c>
       <c r="B127" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14932,44 +14937,34 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>725067.2321006343</v>
+        <v>725155.3175132649</v>
       </c>
       <c r="R127" t="n">
-        <v>7332456.124685408</v>
+        <v>7332510.076518982</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15026,22 +15021,26 @@
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY127" t="inlineStr"/>
+          <t>Andreas Falk</t>
+        </is>
+      </c>
+      <c r="AY127" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111709492</v>
+        <v>111709527</v>
       </c>
       <c r="B128" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15054,21 +15053,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15078,10 +15077,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>725424.5150527878</v>
+        <v>725177.9841996103</v>
       </c>
       <c r="R128" t="n">
-        <v>7332650.701206055</v>
+        <v>7332682.531520856</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15154,10 +15153,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111709521</v>
+        <v>111709545</v>
       </c>
       <c r="B129" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15166,25 +15165,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15194,10 +15193,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>725224.1356442837</v>
+        <v>725379.5947375454</v>
       </c>
       <c r="R129" t="n">
-        <v>7332682.9349325</v>
+        <v>7332645.085250021</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15270,10 +15269,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111709540</v>
+        <v>111700153</v>
       </c>
       <c r="B130" t="n">
-        <v>90658</v>
+        <v>77186</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15286,34 +15285,35 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4361</v>
+        <v>353</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>725439.8227800801</v>
+        <v>725133.8386177601</v>
       </c>
       <c r="R130" t="n">
-        <v>7332627.832078635</v>
+        <v>7332399.766719076</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15370,26 +15370,22 @@
       <c r="AT130" t="inlineStr"/>
       <c r="AW130" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
-        </is>
-      </c>
-      <c r="AY130" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111711652</v>
+        <v>111711356</v>
       </c>
       <c r="B131" t="n">
-        <v>90660</v>
+        <v>90710</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15402,34 +15398,34 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>4362</v>
+        <v>5449</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>725155.3175132649</v>
+        <v>725003.0609937049</v>
       </c>
       <c r="R131" t="n">
-        <v>7332510.076518982</v>
+        <v>7332631.071635312</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15461,7 +15457,7 @@
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
@@ -15471,7 +15467,7 @@
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -15486,12 +15482,12 @@
       <c r="AT131" t="inlineStr"/>
       <c r="AW131" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY131" t="inlineStr">
@@ -15502,10 +15498,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111706064</v>
+        <v>111710635</v>
       </c>
       <c r="B132" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15514,25 +15510,25 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15542,10 +15538,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>725083.9172445576</v>
+        <v>725136.6347606094</v>
       </c>
       <c r="R132" t="n">
-        <v>7332457.042144114</v>
+        <v>7332482.870259319</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -15602,22 +15598,26 @@
       <c r="AT132" t="inlineStr"/>
       <c r="AW132" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY132" t="inlineStr"/>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY132" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111710345</v>
+        <v>111711342</v>
       </c>
       <c r="B133" t="n">
-        <v>90652</v>
+        <v>90854</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15630,34 +15630,34 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>3100</v>
+        <v>2079</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>725299.6547611781</v>
+        <v>725038.5953246626</v>
       </c>
       <c r="R133" t="n">
-        <v>7332648.115512726</v>
+        <v>7332641.651369619</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -15689,7 +15689,7 @@
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD133" t="b">
@@ -15714,12 +15714,12 @@
       <c r="AT133" t="inlineStr"/>
       <c r="AW133" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX133" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY133" t="inlineStr">
@@ -17235,10 +17235,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111698760</v>
+        <v>111710359</v>
       </c>
       <c r="B147" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17251,44 +17251,34 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>725044.325275531</v>
+        <v>724942.1041872292</v>
       </c>
       <c r="R147" t="n">
-        <v>7332430.624524356</v>
+        <v>7332549.477837384</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17345,19 +17335,23 @@
       <c r="AT147" t="inlineStr"/>
       <c r="AW147" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX147" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY147" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY147" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111709518</v>
+        <v>111710628</v>
       </c>
       <c r="B148" t="n">
         <v>90682</v>
@@ -17393,14 +17387,14 @@
       <c r="I148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>725395.7383604852</v>
+        <v>725204.1477158556</v>
       </c>
       <c r="R148" t="n">
-        <v>7332637.388110917</v>
+        <v>7332363.709605349</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17457,12 +17451,12 @@
       <c r="AT148" t="inlineStr"/>
       <c r="AW148" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX148" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY148" t="inlineStr">
@@ -17473,10 +17467,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111709555</v>
+        <v>111698760</v>
       </c>
       <c r="B149" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17489,34 +17483,44 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>725224.0388687035</v>
+        <v>725044.325275531</v>
       </c>
       <c r="R149" t="n">
-        <v>7332684.151987934</v>
+        <v>7332430.624524356</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17573,26 +17577,22 @@
       <c r="AT149" t="inlineStr"/>
       <c r="AW149" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX149" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
-        </is>
-      </c>
-      <c r="AY149" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111711605</v>
+        <v>111709518</v>
       </c>
       <c r="B150" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17605,34 +17605,34 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>725128.4740773203</v>
+        <v>725395.7383604852</v>
       </c>
       <c r="R150" t="n">
-        <v>7332420.979566738</v>
+        <v>7332637.388110917</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17689,12 +17689,12 @@
       <c r="AT150" t="inlineStr"/>
       <c r="AW150" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX150" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY150" t="inlineStr">
@@ -17705,10 +17705,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111709497</v>
+        <v>111709555</v>
       </c>
       <c r="B151" t="n">
-        <v>90300</v>
+        <v>90660</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17721,21 +17721,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -17745,10 +17745,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>725574.8613557135</v>
+        <v>725224.0388687035</v>
       </c>
       <c r="R151" t="n">
-        <v>7332538.556342874</v>
+        <v>7332684.151987934</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -17821,10 +17821,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111710359</v>
+        <v>111711605</v>
       </c>
       <c r="B152" t="n">
-        <v>90710</v>
+        <v>90652</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -17837,34 +17837,34 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>5449</v>
+        <v>3100</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>724942.1041872292</v>
+        <v>725128.4740773203</v>
       </c>
       <c r="R152" t="n">
-        <v>7332549.477837384</v>
+        <v>7332420.979566738</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -17921,12 +17921,12 @@
       <c r="AT152" t="inlineStr"/>
       <c r="AW152" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
@@ -17937,10 +17937,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111710628</v>
+        <v>111709497</v>
       </c>
       <c r="B153" t="n">
-        <v>90682</v>
+        <v>90300</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -17953,34 +17953,34 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>725204.1477158556</v>
+        <v>725574.8613557135</v>
       </c>
       <c r="R153" t="n">
-        <v>7332363.709605349</v>
+        <v>7332538.556342874</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18037,12 +18037,12 @@
       <c r="AT153" t="inlineStr"/>
       <c r="AW153" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX153" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY153" t="inlineStr">
@@ -20028,10 +20028,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111711616</v>
+        <v>111699131</v>
       </c>
       <c r="B171" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20044,34 +20044,44 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>725104.4958516548</v>
+        <v>725101.0793614985</v>
       </c>
       <c r="R171" t="n">
-        <v>7332501.546363591</v>
+        <v>7332467.388008167</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -20128,26 +20138,22 @@
       <c r="AT171" t="inlineStr"/>
       <c r="AW171" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX171" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
-        </is>
-      </c>
-      <c r="AY171" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111709494</v>
+        <v>111710638</v>
       </c>
       <c r="B172" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -20160,34 +20166,34 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>725388.8204012244</v>
+        <v>725061.9777245015</v>
       </c>
       <c r="R172" t="n">
-        <v>7332642.145009213</v>
+        <v>7332470.813476653</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -20244,12 +20250,12 @@
       <c r="AT172" t="inlineStr"/>
       <c r="AW172" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
@@ -20260,10 +20266,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111709505</v>
+        <v>111710625</v>
       </c>
       <c r="B173" t="n">
-        <v>90670</v>
+        <v>90710</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -20272,38 +20278,38 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4365</v>
+        <v>5449</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>725439.8414526138</v>
+        <v>725107.7132965717</v>
       </c>
       <c r="R173" t="n">
-        <v>7332632.73272271</v>
+        <v>7332476.489007546</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -20360,12 +20366,12 @@
       <c r="AT173" t="inlineStr"/>
       <c r="AW173" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX173" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY173" t="inlineStr">
@@ -20376,10 +20382,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111699131</v>
+        <v>111711369</v>
       </c>
       <c r="B174" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -20392,44 +20398,34 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>725101.0793614985</v>
+        <v>724965.2609427765</v>
       </c>
       <c r="R174" t="n">
-        <v>7332467.388008167</v>
+        <v>7332535.802844846</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -20461,7 +20457,7 @@
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA174" t="inlineStr">
@@ -20471,7 +20467,7 @@
       </c>
       <c r="AB174" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AD174" t="b">
@@ -20482,26 +20478,40 @@
       </c>
       <c r="AG174" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ174" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR174" t="inlineStr">
+        <is>
+          <t>2308261040</t>
+        </is>
       </c>
       <c r="AT174" t="inlineStr"/>
       <c r="AW174" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX174" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY174" t="inlineStr"/>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+        </is>
+      </c>
+      <c r="AY174" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111712883</v>
+        <v>111710372</v>
       </c>
       <c r="B175" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -20514,34 +20524,34 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>725360.5759435553</v>
+        <v>725167.5356023817</v>
       </c>
       <c r="R175" t="n">
-        <v>7332652.961942513</v>
+        <v>7332649.449021258</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -20598,12 +20608,12 @@
       <c r="AT175" t="inlineStr"/>
       <c r="AW175" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX175" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY175" t="inlineStr">
@@ -20614,10 +20624,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111709522</v>
+        <v>111710665</v>
       </c>
       <c r="B176" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -20626,38 +20636,38 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>725333.5983997382</v>
+        <v>725091.5760871549</v>
       </c>
       <c r="R176" t="n">
-        <v>7332632.44399954</v>
+        <v>7332494.395587941</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -20714,12 +20724,12 @@
       <c r="AT176" t="inlineStr"/>
       <c r="AW176" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX176" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY176" t="inlineStr">
@@ -20730,10 +20740,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111710624</v>
+        <v>111710630</v>
       </c>
       <c r="B177" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -20746,21 +20756,21 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
@@ -20770,10 +20780,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>725152.7201116718</v>
+        <v>725194.0505797216</v>
       </c>
       <c r="R177" t="n">
-        <v>7332486.190128822</v>
+        <v>7332377.605496548</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -20846,10 +20856,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111710638</v>
+        <v>111710624</v>
       </c>
       <c r="B178" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -20862,21 +20872,21 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
@@ -20886,10 +20896,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>725061.9777245015</v>
+        <v>725152.7201116718</v>
       </c>
       <c r="R178" t="n">
-        <v>7332470.813476653</v>
+        <v>7332486.190128822</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -21194,10 +21204,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111710625</v>
+        <v>111712883</v>
       </c>
       <c r="B181" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -21210,34 +21220,34 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="P181" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>725107.7132965717</v>
+        <v>725360.5759435553</v>
       </c>
       <c r="R181" t="n">
-        <v>7332476.489007546</v>
+        <v>7332652.961942513</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -21294,12 +21304,12 @@
       <c r="AT181" t="inlineStr"/>
       <c r="AW181" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX181" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY181" t="inlineStr">
@@ -21310,10 +21320,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111711369</v>
+        <v>111711616</v>
       </c>
       <c r="B182" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -21326,34 +21336,34 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>724965.2609427765</v>
+        <v>725104.4958516548</v>
       </c>
       <c r="R182" t="n">
-        <v>7332535.802844846</v>
+        <v>7332501.546363591</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -21385,7 +21395,7 @@
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
@@ -21395,7 +21405,7 @@
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD182" t="b">
@@ -21406,26 +21416,16 @@
       </c>
       <c r="AG182" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ182" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR182" t="inlineStr">
-        <is>
-          <t>2308261040</t>
-        </is>
       </c>
       <c r="AT182" t="inlineStr"/>
       <c r="AW182" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY182" t="inlineStr">
@@ -21436,10 +21436,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111710372</v>
+        <v>111709522</v>
       </c>
       <c r="B183" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -21448,38 +21448,38 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>725167.5356023817</v>
+        <v>725333.5983997382</v>
       </c>
       <c r="R183" t="n">
-        <v>7332649.449021258</v>
+        <v>7332632.44399954</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -21536,12 +21536,12 @@
       <c r="AT183" t="inlineStr"/>
       <c r="AW183" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX183" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY183" t="inlineStr">
@@ -21552,10 +21552,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111710665</v>
+        <v>111709494</v>
       </c>
       <c r="B184" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -21568,34 +21568,34 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="P184" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>725091.5760871549</v>
+        <v>725388.8204012244</v>
       </c>
       <c r="R184" t="n">
-        <v>7332494.395587941</v>
+        <v>7332642.145009213</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -21652,12 +21652,12 @@
       <c r="AT184" t="inlineStr"/>
       <c r="AW184" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX184" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY184" t="inlineStr">
@@ -21668,10 +21668,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111710630</v>
+        <v>111709505</v>
       </c>
       <c r="B185" t="n">
-        <v>90682</v>
+        <v>90670</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -21680,38 +21680,38 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2059</v>
+        <v>4365</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>725194.0505797216</v>
+        <v>725439.8414526138</v>
       </c>
       <c r="R185" t="n">
-        <v>7332377.605496548</v>
+        <v>7332632.73272271</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -21768,12 +21768,12 @@
       <c r="AT185" t="inlineStr"/>
       <c r="AW185" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX185" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY185" t="inlineStr">
@@ -23884,10 +23884,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111709556</v>
+        <v>111711355</v>
       </c>
       <c r="B204" t="n">
-        <v>90660</v>
+        <v>86961</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -23900,34 +23900,34 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>4362</v>
+        <v>4962</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="P204" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>725392.4630564451</v>
+        <v>725003.0609937049</v>
       </c>
       <c r="R204" t="n">
-        <v>7332586.09440229</v>
+        <v>7332631.071635312</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -23959,7 +23959,7 @@
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA204" t="inlineStr">
@@ -23969,7 +23969,7 @@
       </c>
       <c r="AB204" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD204" t="b">
@@ -23984,12 +23984,12 @@
       <c r="AT204" t="inlineStr"/>
       <c r="AW204" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX204" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY204" t="inlineStr">
@@ -24000,10 +24000,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111709491</v>
+        <v>111711334</v>
       </c>
       <c r="B205" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -24016,34 +24016,34 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>725140.0975904202</v>
+        <v>725005.4581339066</v>
       </c>
       <c r="R205" t="n">
-        <v>7332675.845554984</v>
+        <v>7332570.023580427</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -24075,7 +24075,7 @@
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA205" t="inlineStr">
@@ -24085,7 +24085,7 @@
       </c>
       <c r="AB205" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD205" t="b">
@@ -24100,12 +24100,12 @@
       <c r="AT205" t="inlineStr"/>
       <c r="AW205" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX205" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY205" t="inlineStr">
@@ -24116,10 +24116,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111709516</v>
+        <v>111711360</v>
       </c>
       <c r="B206" t="n">
-        <v>90682</v>
+        <v>86961</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -24132,34 +24132,34 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2059</v>
+        <v>4962</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>725464.809988003</v>
+        <v>724994.0158568488</v>
       </c>
       <c r="R206" t="n">
-        <v>7332632.27051338</v>
+        <v>7332611.165227977</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -24191,7 +24191,7 @@
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA206" t="inlineStr">
@@ -24201,7 +24201,7 @@
       </c>
       <c r="AB206" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD206" t="b">
@@ -24216,12 +24216,12 @@
       <c r="AT206" t="inlineStr"/>
       <c r="AW206" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX206" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY206" t="inlineStr">
@@ -24232,10 +24232,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111709515</v>
+        <v>111710346</v>
       </c>
       <c r="B207" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -24248,34 +24248,34 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>725584.0645977582</v>
+        <v>725065.9100566822</v>
       </c>
       <c r="R207" t="n">
-        <v>7332520.508332665</v>
+        <v>7332627.083262745</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -24332,12 +24332,12 @@
       <c r="AT207" t="inlineStr"/>
       <c r="AW207" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX207" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY207" t="inlineStr">
@@ -24348,10 +24348,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>111709504</v>
+        <v>111706042</v>
       </c>
       <c r="B208" t="n">
-        <v>90670</v>
+        <v>90710</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -24360,38 +24360,38 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4365</v>
+        <v>5449</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q208" t="n">
-        <v>725584.189257435</v>
+        <v>725116.1464926855</v>
       </c>
       <c r="R208" t="n">
-        <v>7332508.678048515</v>
+        <v>7332452.662480424</v>
       </c>
       <c r="S208" t="n">
         <v>10</v>
@@ -24448,26 +24448,22 @@
       <c r="AT208" t="inlineStr"/>
       <c r="AW208" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX208" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
-        </is>
-      </c>
-      <c r="AY208" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>111711648</v>
+        <v>111712858</v>
       </c>
       <c r="B209" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -24476,38 +24472,38 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q209" t="n">
-        <v>725135.3914558574</v>
+        <v>725318.2702844271</v>
       </c>
       <c r="R209" t="n">
-        <v>7332441.943508702</v>
+        <v>7332676.132891137</v>
       </c>
       <c r="S209" t="n">
         <v>10</v>
@@ -24564,12 +24560,12 @@
       <c r="AT209" t="inlineStr"/>
       <c r="AW209" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX209" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY209" t="inlineStr">
@@ -24580,10 +24576,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>111700226</v>
+        <v>111712880</v>
       </c>
       <c r="B210" t="n">
-        <v>90670</v>
+        <v>90658</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -24592,48 +24588,38 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>4365</v>
+        <v>4361</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q210" t="n">
-        <v>725136.617364192</v>
+        <v>725484.4369442021</v>
       </c>
       <c r="R210" t="n">
-        <v>7332400.804137081</v>
+        <v>7332570.551295241</v>
       </c>
       <c r="S210" t="n">
         <v>10</v>
@@ -24690,22 +24676,26 @@
       <c r="AT210" t="inlineStr"/>
       <c r="AW210" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX210" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY210" t="inlineStr"/>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY210" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>111700070</v>
+        <v>111712867</v>
       </c>
       <c r="B211" t="n">
-        <v>76495</v>
+        <v>90682</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -24718,35 +24708,34 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>6487</v>
+        <v>2059</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q211" t="n">
-        <v>725128.5125613761</v>
+        <v>725240.1172554105</v>
       </c>
       <c r="R211" t="n">
-        <v>7332430.781449486</v>
+        <v>7332677.265506946</v>
       </c>
       <c r="S211" t="n">
         <v>10</v>
@@ -24803,22 +24792,26 @@
       <c r="AT211" t="inlineStr"/>
       <c r="AW211" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX211" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY211" t="inlineStr"/>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY211" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>111706042</v>
+        <v>111712856</v>
       </c>
       <c r="B212" t="n">
-        <v>90710</v>
+        <v>88489</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -24831,34 +24824,34 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>5449</v>
+        <v>1962</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="P212" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q212" t="n">
-        <v>725116.1464926855</v>
+        <v>725162.3252702208</v>
       </c>
       <c r="R212" t="n">
-        <v>7332452.662480424</v>
+        <v>7332684.144423186</v>
       </c>
       <c r="S212" t="n">
         <v>10</v>
@@ -24915,22 +24908,26 @@
       <c r="AT212" t="inlineStr"/>
       <c r="AW212" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX212" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY212" t="inlineStr"/>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY212" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>111711355</v>
+        <v>111709556</v>
       </c>
       <c r="B213" t="n">
-        <v>86961</v>
+        <v>90660</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -24943,34 +24940,34 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>4962</v>
+        <v>4362</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="P213" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q213" t="n">
-        <v>725003.0609937049</v>
+        <v>725392.4630564451</v>
       </c>
       <c r="R213" t="n">
-        <v>7332631.071635312</v>
+        <v>7332586.09440229</v>
       </c>
       <c r="S213" t="n">
         <v>10</v>
@@ -25002,7 +24999,7 @@
       </c>
       <c r="Z213" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA213" t="inlineStr">
@@ -25012,7 +25009,7 @@
       </c>
       <c r="AB213" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD213" t="b">
@@ -25027,12 +25024,12 @@
       <c r="AT213" t="inlineStr"/>
       <c r="AW213" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY213" t="inlineStr">
@@ -25043,10 +25040,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>111711334</v>
+        <v>111709491</v>
       </c>
       <c r="B214" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -25059,34 +25056,34 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="P214" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q214" t="n">
-        <v>725005.4581339066</v>
+        <v>725140.0975904202</v>
       </c>
       <c r="R214" t="n">
-        <v>7332570.023580427</v>
+        <v>7332675.845554984</v>
       </c>
       <c r="S214" t="n">
         <v>10</v>
@@ -25118,7 +25115,7 @@
       </c>
       <c r="Z214" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA214" t="inlineStr">
@@ -25128,7 +25125,7 @@
       </c>
       <c r="AB214" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD214" t="b">
@@ -25143,12 +25140,12 @@
       <c r="AT214" t="inlineStr"/>
       <c r="AW214" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY214" t="inlineStr">
@@ -25159,10 +25156,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>111711360</v>
+        <v>111709516</v>
       </c>
       <c r="B215" t="n">
-        <v>86961</v>
+        <v>90682</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -25175,34 +25172,34 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>4962</v>
+        <v>2059</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="P215" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q215" t="n">
-        <v>724994.0158568488</v>
+        <v>725464.809988003</v>
       </c>
       <c r="R215" t="n">
-        <v>7332611.165227977</v>
+        <v>7332632.27051338</v>
       </c>
       <c r="S215" t="n">
         <v>10</v>
@@ -25234,7 +25231,7 @@
       </c>
       <c r="Z215" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA215" t="inlineStr">
@@ -25244,7 +25241,7 @@
       </c>
       <c r="AB215" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD215" t="b">
@@ -25259,12 +25256,12 @@
       <c r="AT215" t="inlineStr"/>
       <c r="AW215" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY215" t="inlineStr">
@@ -25275,10 +25272,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>111710346</v>
+        <v>111709515</v>
       </c>
       <c r="B216" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -25291,34 +25288,34 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="P216" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q216" t="n">
-        <v>725065.9100566822</v>
+        <v>725584.0645977582</v>
       </c>
       <c r="R216" t="n">
-        <v>7332627.083262745</v>
+        <v>7332520.508332665</v>
       </c>
       <c r="S216" t="n">
         <v>10</v>
@@ -25375,12 +25372,12 @@
       <c r="AT216" t="inlineStr"/>
       <c r="AW216" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX216" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY216" t="inlineStr">
@@ -25391,10 +25388,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>111712858</v>
+        <v>111709504</v>
       </c>
       <c r="B217" t="n">
-        <v>90652</v>
+        <v>90670</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -25403,38 +25400,38 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>3100</v>
+        <v>4365</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="P217" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q217" t="n">
-        <v>725318.2702844271</v>
+        <v>725584.189257435</v>
       </c>
       <c r="R217" t="n">
-        <v>7332676.132891137</v>
+        <v>7332508.678048515</v>
       </c>
       <c r="S217" t="n">
         <v>10</v>
@@ -25491,12 +25488,12 @@
       <c r="AT217" t="inlineStr"/>
       <c r="AW217" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX217" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY217" t="inlineStr">
@@ -25507,10 +25504,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>111712880</v>
+        <v>111711648</v>
       </c>
       <c r="B218" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -25519,38 +25516,38 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="P218" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q218" t="n">
-        <v>725484.4369442021</v>
+        <v>725135.3914558574</v>
       </c>
       <c r="R218" t="n">
-        <v>7332570.551295241</v>
+        <v>7332441.943508702</v>
       </c>
       <c r="S218" t="n">
         <v>10</v>
@@ -25607,12 +25604,12 @@
       <c r="AT218" t="inlineStr"/>
       <c r="AW218" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX218" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY218" t="inlineStr">
@@ -25623,10 +25620,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>111712867</v>
+        <v>111700070</v>
       </c>
       <c r="B219" t="n">
-        <v>90682</v>
+        <v>76495</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -25639,34 +25636,35 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2059</v>
+        <v>6487</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="P219" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q219" t="n">
-        <v>725240.1172554105</v>
+        <v>725128.5125613761</v>
       </c>
       <c r="R219" t="n">
-        <v>7332677.265506946</v>
+        <v>7332430.781449486</v>
       </c>
       <c r="S219" t="n">
         <v>10</v>
@@ -25723,26 +25721,22 @@
       <c r="AT219" t="inlineStr"/>
       <c r="AW219" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX219" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY219" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>111712856</v>
+        <v>111700226</v>
       </c>
       <c r="B220" t="n">
-        <v>88489</v>
+        <v>90670</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -25751,38 +25745,48 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1962</v>
+        <v>4365</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr"/>
+          <t>(P.Karst) P.Karst</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="P220" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q220" t="n">
-        <v>725162.3252702208</v>
+        <v>725136.617364192</v>
       </c>
       <c r="R220" t="n">
-        <v>7332684.144423186</v>
+        <v>7332400.804137081</v>
       </c>
       <c r="S220" t="n">
         <v>10</v>
@@ -25839,19 +25843,15 @@
       <c r="AT220" t="inlineStr"/>
       <c r="AW220" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX220" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY220" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -30040,10 +30040,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>111711375</v>
+        <v>111711624</v>
       </c>
       <c r="B257" t="n">
-        <v>90652</v>
+        <v>90678</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -30052,38 +30052,38 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="P257" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q257" t="n">
-        <v>724955.5571369652</v>
+        <v>725105.0691209615</v>
       </c>
       <c r="R257" t="n">
-        <v>7332503.595643621</v>
+        <v>7332535.478382432</v>
       </c>
       <c r="S257" t="n">
         <v>10</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="Z257" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA257" t="inlineStr">
@@ -30125,7 +30125,7 @@
       </c>
       <c r="AB257" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD257" t="b">
@@ -30140,12 +30140,12 @@
       <c r="AT257" t="inlineStr"/>
       <c r="AW257" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY257" t="inlineStr">
@@ -30156,7 +30156,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>111710361</v>
+        <v>111712871</v>
       </c>
       <c r="B258" t="n">
         <v>90682</v>
@@ -30192,14 +30192,14 @@
       <c r="I258" t="inlineStr"/>
       <c r="P258" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q258" t="n">
-        <v>725400.2309483492</v>
+        <v>725274.9994540716</v>
       </c>
       <c r="R258" t="n">
-        <v>7332591.203470201</v>
+        <v>7332685.755133895</v>
       </c>
       <c r="S258" t="n">
         <v>10</v>
@@ -30256,12 +30256,12 @@
       <c r="AT258" t="inlineStr"/>
       <c r="AW258" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX258" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY258" t="inlineStr">
@@ -30272,10 +30272,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>111706060</v>
+        <v>111712868</v>
       </c>
       <c r="B259" t="n">
-        <v>78604</v>
+        <v>90682</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -30284,38 +30284,38 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6461</v>
+        <v>2059</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="P259" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q259" t="n">
-        <v>725130.5762016462</v>
+        <v>725494.7747836919</v>
       </c>
       <c r="R259" t="n">
-        <v>7332404.815181958</v>
+        <v>7332548.510877633</v>
       </c>
       <c r="S259" t="n">
         <v>10</v>
@@ -30372,22 +30372,26 @@
       <c r="AT259" t="inlineStr"/>
       <c r="AW259" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX259" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY259" t="inlineStr"/>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY259" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>111711624</v>
+        <v>111712887</v>
       </c>
       <c r="B260" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -30396,38 +30400,38 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="P260" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q260" t="n">
-        <v>725105.0691209615</v>
+        <v>725342.323827486</v>
       </c>
       <c r="R260" t="n">
-        <v>7332535.478382432</v>
+        <v>7332666.615299234</v>
       </c>
       <c r="S260" t="n">
         <v>10</v>
@@ -30484,12 +30488,12 @@
       <c r="AT260" t="inlineStr"/>
       <c r="AW260" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX260" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY260" t="inlineStr">
@@ -30500,7 +30504,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>111712871</v>
+        <v>111710373</v>
       </c>
       <c r="B261" t="n">
         <v>90682</v>
@@ -30536,14 +30540,14 @@
       <c r="I261" t="inlineStr"/>
       <c r="P261" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q261" t="n">
-        <v>725274.9994540716</v>
+        <v>725100.52854856</v>
       </c>
       <c r="R261" t="n">
-        <v>7332685.755133895</v>
+        <v>7332654.32938866</v>
       </c>
       <c r="S261" t="n">
         <v>10</v>
@@ -30600,12 +30604,12 @@
       <c r="AT261" t="inlineStr"/>
       <c r="AW261" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX261" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY261" t="inlineStr">
@@ -30616,10 +30620,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>111712868</v>
+        <v>111711635</v>
       </c>
       <c r="B262" t="n">
-        <v>90682</v>
+        <v>77268</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -30632,34 +30636,34 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2059</v>
+        <v>228912</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="P262" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q262" t="n">
-        <v>725494.7747836919</v>
+        <v>725110.8981382371</v>
       </c>
       <c r="R262" t="n">
-        <v>7332548.510877633</v>
+        <v>7332477.558656135</v>
       </c>
       <c r="S262" t="n">
         <v>10</v>
@@ -30716,12 +30720,12 @@
       <c r="AT262" t="inlineStr"/>
       <c r="AW262" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX262" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY262" t="inlineStr">
@@ -30732,10 +30736,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>111712887</v>
+        <v>111711626</v>
       </c>
       <c r="B263" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -30744,38 +30748,38 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="P263" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q263" t="n">
-        <v>725342.323827486</v>
+        <v>725085.8511947836</v>
       </c>
       <c r="R263" t="n">
-        <v>7332666.615299234</v>
+        <v>7332484.142092339</v>
       </c>
       <c r="S263" t="n">
         <v>10</v>
@@ -30832,12 +30836,12 @@
       <c r="AT263" t="inlineStr"/>
       <c r="AW263" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX263" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY263" t="inlineStr">
@@ -30848,10 +30852,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>111710373</v>
+        <v>111709543</v>
       </c>
       <c r="B264" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -30864,34 +30868,34 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="P264" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q264" t="n">
-        <v>725100.52854856</v>
+        <v>725406.6209292178</v>
       </c>
       <c r="R264" t="n">
-        <v>7332654.32938866</v>
+        <v>7332634.171499273</v>
       </c>
       <c r="S264" t="n">
         <v>10</v>
@@ -30948,12 +30952,12 @@
       <c r="AT264" t="inlineStr"/>
       <c r="AW264" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX264" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY264" t="inlineStr">
@@ -30964,10 +30968,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>111711635</v>
+        <v>111709541</v>
       </c>
       <c r="B265" t="n">
-        <v>77268</v>
+        <v>90658</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -30980,34 +30984,34 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>228912</v>
+        <v>4361</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="P265" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q265" t="n">
-        <v>725110.8981382371</v>
+        <v>725425.6909843549</v>
       </c>
       <c r="R265" t="n">
-        <v>7332477.558656135</v>
+        <v>7332630.78998917</v>
       </c>
       <c r="S265" t="n">
         <v>10</v>
@@ -31064,12 +31068,12 @@
       <c r="AT265" t="inlineStr"/>
       <c r="AW265" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX265" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY265" t="inlineStr">
@@ -31080,10 +31084,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>111711626</v>
+        <v>111711649</v>
       </c>
       <c r="B266" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -31096,21 +31100,21 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I266" t="inlineStr"/>
@@ -31120,10 +31124,10 @@
         </is>
       </c>
       <c r="Q266" t="n">
-        <v>725085.8511947836</v>
+        <v>725125.2756754416</v>
       </c>
       <c r="R266" t="n">
-        <v>7332484.142092339</v>
+        <v>7332450.938311197</v>
       </c>
       <c r="S266" t="n">
         <v>10</v>
@@ -31196,10 +31200,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>111709543</v>
+        <v>111709517</v>
       </c>
       <c r="B267" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -31212,21 +31216,21 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I267" t="inlineStr"/>
@@ -31236,10 +31240,10 @@
         </is>
       </c>
       <c r="Q267" t="n">
-        <v>725406.6209292178</v>
+        <v>725408.0466263851</v>
       </c>
       <c r="R267" t="n">
-        <v>7332634.171499273</v>
+        <v>7332626.527970433</v>
       </c>
       <c r="S267" t="n">
         <v>10</v>
@@ -31312,7 +31316,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>111709541</v>
+        <v>111711376</v>
       </c>
       <c r="B268" t="n">
         <v>90658</v>
@@ -31348,14 +31352,14 @@
       <c r="I268" t="inlineStr"/>
       <c r="P268" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q268" t="n">
-        <v>725425.6909843549</v>
+        <v>724956.5500826776</v>
       </c>
       <c r="R268" t="n">
-        <v>7332630.78998917</v>
+        <v>7332506.532380758</v>
       </c>
       <c r="S268" t="n">
         <v>10</v>
@@ -31387,7 +31391,7 @@
       </c>
       <c r="Z268" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA268" t="inlineStr">
@@ -31397,7 +31401,7 @@
       </c>
       <c r="AB268" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD268" t="b">
@@ -31412,12 +31416,12 @@
       <c r="AT268" t="inlineStr"/>
       <c r="AW268" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX268" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY268" t="inlineStr">
@@ -31428,10 +31432,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>111711649</v>
+        <v>111711375</v>
       </c>
       <c r="B269" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -31440,38 +31444,38 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="P269" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q269" t="n">
-        <v>725125.2756754416</v>
+        <v>724955.5571369652</v>
       </c>
       <c r="R269" t="n">
-        <v>7332450.938311197</v>
+        <v>7332503.595643621</v>
       </c>
       <c r="S269" t="n">
         <v>10</v>
@@ -31503,7 +31507,7 @@
       </c>
       <c r="Z269" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA269" t="inlineStr">
@@ -31513,7 +31517,7 @@
       </c>
       <c r="AB269" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD269" t="b">
@@ -31528,12 +31532,12 @@
       <c r="AT269" t="inlineStr"/>
       <c r="AW269" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX269" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY269" t="inlineStr">
@@ -31544,10 +31548,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>111709517</v>
+        <v>111711357</v>
       </c>
       <c r="B270" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -31560,34 +31564,34 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="P270" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q270" t="n">
-        <v>725408.0466263851</v>
+        <v>725003.0609937049</v>
       </c>
       <c r="R270" t="n">
-        <v>7332626.527970433</v>
+        <v>7332631.071635312</v>
       </c>
       <c r="S270" t="n">
         <v>10</v>
@@ -31619,7 +31623,7 @@
       </c>
       <c r="Z270" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA270" t="inlineStr">
@@ -31629,7 +31633,7 @@
       </c>
       <c r="AB270" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD270" t="b">
@@ -31644,12 +31648,12 @@
       <c r="AT270" t="inlineStr"/>
       <c r="AW270" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX270" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY270" t="inlineStr">
@@ -31660,10 +31664,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>111711376</v>
+        <v>111711344</v>
       </c>
       <c r="B271" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -31676,21 +31680,21 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I271" t="inlineStr"/>
@@ -31700,10 +31704,10 @@
         </is>
       </c>
       <c r="Q271" t="n">
-        <v>724956.5500826776</v>
+        <v>725027.6617239625</v>
       </c>
       <c r="R271" t="n">
-        <v>7332506.532380758</v>
+        <v>7332640.374472279</v>
       </c>
       <c r="S271" t="n">
         <v>10</v>
@@ -31735,7 +31739,7 @@
       </c>
       <c r="Z271" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA271" t="inlineStr">
@@ -31745,7 +31749,7 @@
       </c>
       <c r="AB271" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD271" t="b">
@@ -31776,10 +31780,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>111711357</v>
+        <v>111710656</v>
       </c>
       <c r="B272" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -31792,34 +31796,34 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="P272" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q272" t="n">
-        <v>725003.0609937049</v>
+        <v>725073.6081984115</v>
       </c>
       <c r="R272" t="n">
-        <v>7332631.071635312</v>
+        <v>7332494.19268188</v>
       </c>
       <c r="S272" t="n">
         <v>10</v>
@@ -31851,7 +31855,7 @@
       </c>
       <c r="Z272" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA272" t="inlineStr">
@@ -31861,7 +31865,7 @@
       </c>
       <c r="AB272" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD272" t="b">
@@ -31876,12 +31880,12 @@
       <c r="AT272" t="inlineStr"/>
       <c r="AW272" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY272" t="inlineStr">
@@ -31892,10 +31896,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>111711344</v>
+        <v>111710361</v>
       </c>
       <c r="B273" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -31908,34 +31912,34 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="P273" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q273" t="n">
-        <v>725027.6617239625</v>
+        <v>725400.2309483492</v>
       </c>
       <c r="R273" t="n">
-        <v>7332640.374472279</v>
+        <v>7332591.203470201</v>
       </c>
       <c r="S273" t="n">
         <v>10</v>
@@ -31967,7 +31971,7 @@
       </c>
       <c r="Z273" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA273" t="inlineStr">
@@ -31977,7 +31981,7 @@
       </c>
       <c r="AB273" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD273" t="b">
@@ -31992,12 +31996,12 @@
       <c r="AT273" t="inlineStr"/>
       <c r="AW273" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY273" t="inlineStr">
@@ -32008,10 +32012,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>111710656</v>
+        <v>111710623</v>
       </c>
       <c r="B274" t="n">
-        <v>90658</v>
+        <v>90709</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -32024,21 +32028,21 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I274" t="inlineStr"/>
@@ -32048,10 +32052,10 @@
         </is>
       </c>
       <c r="Q274" t="n">
-        <v>725073.6081984115</v>
+        <v>725028.9621380008</v>
       </c>
       <c r="R274" t="n">
-        <v>7332494.19268188</v>
+        <v>7332464.516036242</v>
       </c>
       <c r="S274" t="n">
         <v>10</v>
@@ -32124,10 +32128,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>111710623</v>
+        <v>111710651</v>
       </c>
       <c r="B275" t="n">
-        <v>90709</v>
+        <v>90658</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -32140,21 +32144,21 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>5448</v>
+        <v>4361</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I275" t="inlineStr"/>
@@ -32164,10 +32168,10 @@
         </is>
       </c>
       <c r="Q275" t="n">
-        <v>725028.9621380008</v>
+        <v>725218.2673153686</v>
       </c>
       <c r="R275" t="n">
-        <v>7332464.516036242</v>
+        <v>7332366.057011612</v>
       </c>
       <c r="S275" t="n">
         <v>10</v>
@@ -32240,10 +32244,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>111710651</v>
+        <v>111710356</v>
       </c>
       <c r="B276" t="n">
-        <v>90658</v>
+        <v>90710</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -32256,34 +32260,34 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="P276" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q276" t="n">
-        <v>725218.2673153686</v>
+        <v>725245.9092590022</v>
       </c>
       <c r="R276" t="n">
-        <v>7332366.057011612</v>
+        <v>7332635.267624187</v>
       </c>
       <c r="S276" t="n">
         <v>10</v>
@@ -32340,12 +32344,12 @@
       <c r="AT276" t="inlineStr"/>
       <c r="AW276" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX276" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY276" t="inlineStr">
@@ -32356,7 +32360,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>111710356</v>
+        <v>111711370</v>
       </c>
       <c r="B277" t="n">
         <v>90710</v>
@@ -32392,14 +32396,14 @@
       <c r="I277" t="inlineStr"/>
       <c r="P277" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q277" t="n">
-        <v>725245.9092590022</v>
+        <v>724967.1238397037</v>
       </c>
       <c r="R277" t="n">
-        <v>7332635.267624187</v>
+        <v>7332527.785490612</v>
       </c>
       <c r="S277" t="n">
         <v>10</v>
@@ -32431,7 +32435,7 @@
       </c>
       <c r="Z277" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA277" t="inlineStr">
@@ -32441,7 +32445,7 @@
       </c>
       <c r="AB277" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD277" t="b">
@@ -32456,12 +32460,12 @@
       <c r="AT277" t="inlineStr"/>
       <c r="AW277" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX277" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY277" t="inlineStr">
@@ -32472,10 +32476,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>111711370</v>
+        <v>111706060</v>
       </c>
       <c r="B278" t="n">
-        <v>90710</v>
+        <v>78604</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -32484,38 +32488,38 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>5449</v>
+        <v>6461</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="P278" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q278" t="n">
-        <v>724967.1238397037</v>
+        <v>725130.5762016462</v>
       </c>
       <c r="R278" t="n">
-        <v>7332527.785490612</v>
+        <v>7332404.815181958</v>
       </c>
       <c r="S278" t="n">
         <v>10</v>
@@ -32547,7 +32551,7 @@
       </c>
       <c r="Z278" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA278" t="inlineStr">
@@ -32557,7 +32561,7 @@
       </c>
       <c r="AB278" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD278" t="b">
@@ -32572,19 +32576,15 @@
       <c r="AT278" t="inlineStr"/>
       <c r="AW278" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
-        </is>
-      </c>
-      <c r="AY278" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -34094,10 +34094,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>111699062</v>
+        <v>111699865</v>
       </c>
       <c r="B292" t="n">
-        <v>90682</v>
+        <v>77268</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -34110,33 +34110,24 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>2059</v>
+        <v>228912</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I292" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="J292" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="P292" t="inlineStr">
         <is>
@@ -34144,10 +34135,10 @@
         </is>
       </c>
       <c r="Q292" t="n">
-        <v>725068.1411446362</v>
+        <v>725115.7658552242</v>
       </c>
       <c r="R292" t="n">
-        <v>7332454.972076118</v>
+        <v>7332467.738560194</v>
       </c>
       <c r="S292" t="n">
         <v>10</v>
@@ -34216,10 +34207,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>111699050</v>
+        <v>111699062</v>
       </c>
       <c r="B293" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -34232,26 +34223,26 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -34266,10 +34257,10 @@
         </is>
       </c>
       <c r="Q293" t="n">
-        <v>725101.1438423313</v>
+        <v>725068.1411446362</v>
       </c>
       <c r="R293" t="n">
-        <v>7332466.576576497</v>
+        <v>7332454.972076118</v>
       </c>
       <c r="S293" t="n">
         <v>10</v>
@@ -34338,10 +34329,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>111709546</v>
+        <v>111712862</v>
       </c>
       <c r="B294" t="n">
-        <v>90658</v>
+        <v>88924</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -34350,38 +34341,38 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="P294" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q294" t="n">
-        <v>725371.58752042</v>
+        <v>725456.3441801188</v>
       </c>
       <c r="R294" t="n">
-        <v>7332648.122461995</v>
+        <v>7332594.852714131</v>
       </c>
       <c r="S294" t="n">
         <v>10</v>
@@ -34438,12 +34429,12 @@
       <c r="AT294" t="inlineStr"/>
       <c r="AW294" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX294" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY294" t="inlineStr">
@@ -34454,10 +34445,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>111709501</v>
+        <v>111712861</v>
       </c>
       <c r="B295" t="n">
-        <v>90710</v>
+        <v>90300</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -34470,34 +34461,34 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>5449</v>
+        <v>4745</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="P295" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>725587.4524243715</v>
+        <v>725368.4029452958</v>
       </c>
       <c r="R295" t="n">
-        <v>7332503.630222731</v>
+        <v>7332647.052558809</v>
       </c>
       <c r="S295" t="n">
         <v>10</v>
@@ -34554,12 +34545,12 @@
       <c r="AT295" t="inlineStr"/>
       <c r="AW295" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX295" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY295" t="inlineStr">
@@ -34570,10 +34561,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>111709549</v>
+        <v>111712865</v>
       </c>
       <c r="B296" t="n">
-        <v>88032</v>
+        <v>90710</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -34582,38 +34573,38 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>6276</v>
+        <v>5449</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="P296" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>725562.0027023624</v>
+        <v>725508.6720928727</v>
       </c>
       <c r="R296" t="n">
-        <v>7332520.384588961</v>
+        <v>7332563.906872082</v>
       </c>
       <c r="S296" t="n">
         <v>10</v>
@@ -34670,12 +34661,12 @@
       <c r="AT296" t="inlineStr"/>
       <c r="AW296" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX296" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY296" t="inlineStr">
@@ -34686,10 +34677,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>111711643</v>
+        <v>111709546</v>
       </c>
       <c r="B297" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -34698,38 +34689,38 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="P297" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>725091.6342152189</v>
+        <v>725371.58752042</v>
       </c>
       <c r="R297" t="n">
-        <v>7332483.376795593</v>
+        <v>7332648.122461995</v>
       </c>
       <c r="S297" t="n">
         <v>10</v>
@@ -34786,12 +34777,12 @@
       <c r="AT297" t="inlineStr"/>
       <c r="AW297" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX297" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY297" t="inlineStr">
@@ -34802,10 +34793,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>111711642</v>
+        <v>111709501</v>
       </c>
       <c r="B298" t="n">
-        <v>88032</v>
+        <v>90710</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -34814,38 +34805,38 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>6276</v>
+        <v>5449</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="P298" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q298" t="n">
-        <v>725134.5456425183</v>
+        <v>725587.4524243715</v>
       </c>
       <c r="R298" t="n">
-        <v>7332493.727662852</v>
+        <v>7332503.630222731</v>
       </c>
       <c r="S298" t="n">
         <v>10</v>
@@ -34902,12 +34893,12 @@
       <c r="AT298" t="inlineStr"/>
       <c r="AW298" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX298" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY298" t="inlineStr">
@@ -34918,10 +34909,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>111711608</v>
+        <v>111709549</v>
       </c>
       <c r="B299" t="n">
-        <v>90709</v>
+        <v>88032</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -34930,38 +34921,38 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>5448</v>
+        <v>6276</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="P299" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>725040.3151781026</v>
+        <v>725562.0027023624</v>
       </c>
       <c r="R299" t="n">
-        <v>7332434.79704116</v>
+        <v>7332520.384588961</v>
       </c>
       <c r="S299" t="n">
         <v>10</v>
@@ -35018,12 +35009,12 @@
       <c r="AT299" t="inlineStr"/>
       <c r="AW299" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX299" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY299" t="inlineStr">
@@ -35034,10 +35025,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>111711601</v>
+        <v>111711643</v>
       </c>
       <c r="B300" t="n">
-        <v>88489</v>
+        <v>88032</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -35046,25 +35037,25 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>1962</v>
+        <v>6276</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I300" t="inlineStr"/>
@@ -35074,10 +35065,10 @@
         </is>
       </c>
       <c r="Q300" t="n">
-        <v>725036.9953395801</v>
+        <v>725091.6342152189</v>
       </c>
       <c r="R300" t="n">
-        <v>7332476.585924259</v>
+        <v>7332483.376795593</v>
       </c>
       <c r="S300" t="n">
         <v>10</v>
@@ -35150,7 +35141,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>111711647</v>
+        <v>111711642</v>
       </c>
       <c r="B301" t="n">
         <v>88032</v>
@@ -35190,10 +35181,10 @@
         </is>
       </c>
       <c r="Q301" t="n">
-        <v>725038.5227753496</v>
+        <v>725134.5456425183</v>
       </c>
       <c r="R301" t="n">
-        <v>7332426.489019231</v>
+        <v>7332493.727662852</v>
       </c>
       <c r="S301" t="n">
         <v>10</v>
@@ -35266,10 +35257,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>111709514</v>
+        <v>111711608</v>
       </c>
       <c r="B302" t="n">
-        <v>90682</v>
+        <v>90709</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -35282,34 +35273,34 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="P302" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q302" t="n">
-        <v>725582.4215091417</v>
+        <v>725040.3151781026</v>
       </c>
       <c r="R302" t="n">
-        <v>7332515.478089629</v>
+        <v>7332434.79704116</v>
       </c>
       <c r="S302" t="n">
         <v>10</v>
@@ -35366,12 +35357,12 @@
       <c r="AT302" t="inlineStr"/>
       <c r="AW302" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX302" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY302" t="inlineStr">
@@ -35382,10 +35373,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>111711650</v>
+        <v>111711601</v>
       </c>
       <c r="B303" t="n">
-        <v>76495</v>
+        <v>88489</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -35398,21 +35389,21 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>6487</v>
+        <v>1962</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I303" t="inlineStr"/>
@@ -35422,10 +35413,10 @@
         </is>
       </c>
       <c r="Q303" t="n">
-        <v>725128.3705807739</v>
+        <v>725036.9953395801</v>
       </c>
       <c r="R303" t="n">
-        <v>7332437.710979398</v>
+        <v>7332476.585924259</v>
       </c>
       <c r="S303" t="n">
         <v>10</v>
@@ -35498,10 +35489,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>111710352</v>
+        <v>111711647</v>
       </c>
       <c r="B304" t="n">
-        <v>90709</v>
+        <v>88032</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -35510,38 +35501,38 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>5448</v>
+        <v>6276</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="P304" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q304" t="n">
-        <v>724942.7554072754</v>
+        <v>725038.5227753496</v>
       </c>
       <c r="R304" t="n">
-        <v>7332551.570862479</v>
+        <v>7332426.489019231</v>
       </c>
       <c r="S304" t="n">
         <v>10</v>
@@ -35598,12 +35589,12 @@
       <c r="AT304" t="inlineStr"/>
       <c r="AW304" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX304" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY304" t="inlineStr">
@@ -35614,10 +35605,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>111710658</v>
+        <v>111709514</v>
       </c>
       <c r="B305" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -35630,34 +35621,34 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="P305" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q305" t="n">
-        <v>725174.4483278322</v>
+        <v>725582.4215091417</v>
       </c>
       <c r="R305" t="n">
-        <v>7332444.231327837</v>
+        <v>7332515.478089629</v>
       </c>
       <c r="S305" t="n">
         <v>10</v>
@@ -35708,19 +35699,18 @@
       <c r="AE305" t="b">
         <v>0</v>
       </c>
-      <c r="AF305" t="inlineStr"/>
       <c r="AG305" t="b">
         <v>0</v>
       </c>
       <c r="AT305" t="inlineStr"/>
       <c r="AW305" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX305" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY305" t="inlineStr">
@@ -35731,10 +35721,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>111710366</v>
+        <v>111711650</v>
       </c>
       <c r="B306" t="n">
-        <v>90682</v>
+        <v>76495</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -35747,34 +35737,34 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>2059</v>
+        <v>6487</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="P306" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q306" t="n">
-        <v>725286.5347579401</v>
+        <v>725128.3705807739</v>
       </c>
       <c r="R306" t="n">
-        <v>7332658.911384037</v>
+        <v>7332437.710979398</v>
       </c>
       <c r="S306" t="n">
         <v>10</v>
@@ -35831,12 +35821,12 @@
       <c r="AT306" t="inlineStr"/>
       <c r="AW306" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX306" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY306" t="inlineStr">
@@ -35847,10 +35837,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>111699865</v>
+        <v>111710352</v>
       </c>
       <c r="B307" t="n">
-        <v>77268</v>
+        <v>90709</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -35863,35 +35853,34 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>228912</v>
+        <v>5448</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
       <c r="P307" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q307" t="n">
-        <v>725115.7658552242</v>
+        <v>724942.7554072754</v>
       </c>
       <c r="R307" t="n">
-        <v>7332467.738560194</v>
+        <v>7332551.570862479</v>
       </c>
       <c r="S307" t="n">
         <v>10</v>
@@ -35948,22 +35937,26 @@
       <c r="AT307" t="inlineStr"/>
       <c r="AW307" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX307" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY307" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY307" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>111712862</v>
+        <v>111710620</v>
       </c>
       <c r="B308" t="n">
-        <v>88924</v>
+        <v>88489</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -35972,38 +35965,38 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>256703</v>
+        <v>1962</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="P308" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q308" t="n">
-        <v>725456.3441801188</v>
+        <v>725072.6153638155</v>
       </c>
       <c r="R308" t="n">
-        <v>7332594.852714131</v>
+        <v>7332491.255880292</v>
       </c>
       <c r="S308" t="n">
         <v>10</v>
@@ -36060,12 +36053,12 @@
       <c r="AT308" t="inlineStr"/>
       <c r="AW308" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX308" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY308" t="inlineStr">
@@ -36076,10 +36069,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>111712861</v>
+        <v>111699050</v>
       </c>
       <c r="B309" t="n">
-        <v>90300</v>
+        <v>90660</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -36092,34 +36085,44 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Fr.</t>
-        </is>
-      </c>
-      <c r="I309" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="P309" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q309" t="n">
-        <v>725368.4029452958</v>
+        <v>725101.1438423313</v>
       </c>
       <c r="R309" t="n">
-        <v>7332647.052558809</v>
+        <v>7332466.576576497</v>
       </c>
       <c r="S309" t="n">
         <v>10</v>
@@ -36176,26 +36179,22 @@
       <c r="AT309" t="inlineStr"/>
       <c r="AW309" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX309" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY309" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>111712865</v>
+        <v>111711348</v>
       </c>
       <c r="B310" t="n">
-        <v>90710</v>
+        <v>88489</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -36208,34 +36207,34 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>5449</v>
+        <v>1962</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="P310" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q310" t="n">
-        <v>725508.6720928727</v>
+        <v>724999.4450050651</v>
       </c>
       <c r="R310" t="n">
-        <v>7332563.906872082</v>
+        <v>7332666.30210897</v>
       </c>
       <c r="S310" t="n">
         <v>10</v>
@@ -36267,7 +36266,7 @@
       </c>
       <c r="Z310" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA310" t="inlineStr">
@@ -36277,7 +36276,7 @@
       </c>
       <c r="AB310" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD310" t="b">
@@ -36292,12 +36291,12 @@
       <c r="AT310" t="inlineStr"/>
       <c r="AW310" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX310" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY310" t="inlineStr">
@@ -36308,10 +36307,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>111711371</v>
+        <v>111710658</v>
       </c>
       <c r="B311" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -36324,34 +36323,34 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="P311" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q311" t="n">
-        <v>724960.2445645195</v>
+        <v>725174.4483278322</v>
       </c>
       <c r="R311" t="n">
-        <v>7332516.624215112</v>
+        <v>7332444.231327837</v>
       </c>
       <c r="S311" t="n">
         <v>10</v>
@@ -36383,7 +36382,7 @@
       </c>
       <c r="Z311" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA311" t="inlineStr">
@@ -36393,7 +36392,7 @@
       </c>
       <c r="AB311" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD311" t="b">
@@ -36402,18 +36401,19 @@
       <c r="AE311" t="b">
         <v>0</v>
       </c>
+      <c r="AF311" t="inlineStr"/>
       <c r="AG311" t="b">
         <v>0</v>
       </c>
       <c r="AT311" t="inlineStr"/>
       <c r="AW311" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX311" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY311" t="inlineStr">
@@ -36424,10 +36424,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>111710337</v>
+        <v>111710366</v>
       </c>
       <c r="B312" t="n">
-        <v>88489</v>
+        <v>90682</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -36440,21 +36440,21 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1962</v>
+        <v>2059</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I312" t="inlineStr"/>
@@ -36464,10 +36464,10 @@
         </is>
       </c>
       <c r="Q312" t="n">
-        <v>725229.7280457455</v>
+        <v>725286.5347579401</v>
       </c>
       <c r="R312" t="n">
-        <v>7332633.164389505</v>
+        <v>7332658.911384037</v>
       </c>
       <c r="S312" t="n">
         <v>10</v>
@@ -36540,10 +36540,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>111711348</v>
+        <v>111711371</v>
       </c>
       <c r="B313" t="n">
-        <v>88489</v>
+        <v>90682</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -36556,21 +36556,21 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1962</v>
+        <v>2059</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I313" t="inlineStr"/>
@@ -36580,10 +36580,10 @@
         </is>
       </c>
       <c r="Q313" t="n">
-        <v>724999.4450050651</v>
+        <v>724960.2445645195</v>
       </c>
       <c r="R313" t="n">
-        <v>7332666.30210897</v>
+        <v>7332516.624215112</v>
       </c>
       <c r="S313" t="n">
         <v>10</v>
@@ -36615,7 +36615,7 @@
       </c>
       <c r="Z313" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA313" t="inlineStr">
@@ -36625,7 +36625,7 @@
       </c>
       <c r="AB313" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD313" t="b">
@@ -36656,7 +36656,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>111710620</v>
+        <v>111710337</v>
       </c>
       <c r="B314" t="n">
         <v>88489</v>
@@ -36692,14 +36692,14 @@
       <c r="I314" t="inlineStr"/>
       <c r="P314" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q314" t="n">
-        <v>725072.6153638155</v>
+        <v>725229.7280457455</v>
       </c>
       <c r="R314" t="n">
-        <v>7332491.255880292</v>
+        <v>7332633.164389505</v>
       </c>
       <c r="S314" t="n">
         <v>10</v>
@@ -36756,12 +36756,12 @@
       <c r="AT314" t="inlineStr"/>
       <c r="AW314" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX314" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY314" t="inlineStr">
@@ -40252,10 +40252,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>111736889</v>
+        <v>111736937</v>
       </c>
       <c r="B345" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -40268,21 +40268,21 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I345" t="inlineStr"/>
@@ -40292,10 +40292,10 @@
         </is>
       </c>
       <c r="Q345" t="n">
-        <v>725130.4789336713</v>
+        <v>725125.2694309626</v>
       </c>
       <c r="R345" t="n">
-        <v>7332431.754292808</v>
+        <v>7332440.730779012</v>
       </c>
       <c r="S345" t="n">
         <v>10</v>
@@ -40368,10 +40368,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>111736895</v>
+        <v>111736906</v>
       </c>
       <c r="B346" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -40380,25 +40380,25 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I346" t="inlineStr"/>
@@ -40408,10 +40408,10 @@
         </is>
       </c>
       <c r="Q346" t="n">
-        <v>725080.9644331477</v>
+        <v>725214.3930801433</v>
       </c>
       <c r="R346" t="n">
-        <v>7332463.33997089</v>
+        <v>7332353.091826081</v>
       </c>
       <c r="S346" t="n">
         <v>10</v>
@@ -40484,10 +40484,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>111736937</v>
+        <v>111736889</v>
       </c>
       <c r="B347" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -40500,21 +40500,21 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I347" t="inlineStr"/>
@@ -40524,10 +40524,10 @@
         </is>
       </c>
       <c r="Q347" t="n">
-        <v>725125.2694309626</v>
+        <v>725130.4789336713</v>
       </c>
       <c r="R347" t="n">
-        <v>7332440.730779012</v>
+        <v>7332431.754292808</v>
       </c>
       <c r="S347" t="n">
         <v>10</v>
@@ -40600,10 +40600,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>111736906</v>
+        <v>111736895</v>
       </c>
       <c r="B348" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -40612,25 +40612,25 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I348" t="inlineStr"/>
@@ -40640,10 +40640,10 @@
         </is>
       </c>
       <c r="Q348" t="n">
-        <v>725214.3930801433</v>
+        <v>725080.9644331477</v>
       </c>
       <c r="R348" t="n">
-        <v>7332353.091826081</v>
+        <v>7332463.33997089</v>
       </c>
       <c r="S348" t="n">
         <v>10</v>
@@ -43152,10 +43152,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>111736936</v>
+        <v>111736924</v>
       </c>
       <c r="B370" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -43164,25 +43164,25 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E370" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I370" t="inlineStr"/>
@@ -43192,10 +43192,10 @@
         </is>
       </c>
       <c r="Q370" t="n">
-        <v>725130.4789336713</v>
+        <v>725208.0805143643</v>
       </c>
       <c r="R370" t="n">
-        <v>7332431.754292808</v>
+        <v>7332365.655439164</v>
       </c>
       <c r="S370" t="n">
         <v>10</v>
@@ -43268,10 +43268,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>111736865</v>
+        <v>111736936</v>
       </c>
       <c r="B371" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -43284,21 +43284,21 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I371" t="inlineStr"/>
@@ -43308,10 +43308,10 @@
         </is>
       </c>
       <c r="Q371" t="n">
-        <v>725118.7894899701</v>
+        <v>725130.4789336713</v>
       </c>
       <c r="R371" t="n">
-        <v>7332470.836797745</v>
+        <v>7332431.754292808</v>
       </c>
       <c r="S371" t="n">
         <v>10</v>
@@ -43384,10 +43384,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>111736924</v>
+        <v>111736865</v>
       </c>
       <c r="B372" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -43396,25 +43396,25 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E372" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I372" t="inlineStr"/>
@@ -43424,10 +43424,10 @@
         </is>
       </c>
       <c r="Q372" t="n">
-        <v>725208.0805143643</v>
+        <v>725118.7894899701</v>
       </c>
       <c r="R372" t="n">
-        <v>7332365.655439164</v>
+        <v>7332470.836797745</v>
       </c>
       <c r="S372" t="n">
         <v>10</v>
@@ -49417,10 +49417,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>111739875</v>
+        <v>111747043</v>
       </c>
       <c r="B424" t="n">
-        <v>87992</v>
+        <v>88914</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -49433,34 +49433,34 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>1593</v>
+        <v>2051</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
+          <t>Kytöv. &amp; M.Toivonen</t>
         </is>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="P424" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q424" t="n">
-        <v>724995.0087162531</v>
+        <v>725486.9696985815</v>
       </c>
       <c r="R424" t="n">
-        <v>7332614.101875325</v>
+        <v>7332533.599852242</v>
       </c>
       <c r="S424" t="n">
         <v>10</v>
@@ -49492,7 +49492,7 @@
       </c>
       <c r="Z424" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA424" t="inlineStr">
@@ -49502,7 +49502,7 @@
       </c>
       <c r="AB424" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD424" t="b">
@@ -49517,12 +49517,12 @@
       <c r="AT424" t="inlineStr"/>
       <c r="AW424" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX424" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY424" t="inlineStr">
@@ -49533,10 +49533,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>111739866</v>
+        <v>111747064</v>
       </c>
       <c r="B425" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -49545,38 +49545,38 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E425" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="P425" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q425" t="n">
-        <v>725030.6014099412</v>
+        <v>725400.7818453084</v>
       </c>
       <c r="R425" t="n">
-        <v>7332639.383263739</v>
+        <v>7332620.234169938</v>
       </c>
       <c r="S425" t="n">
         <v>10</v>
@@ -49608,7 +49608,7 @@
       </c>
       <c r="Z425" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA425" t="inlineStr">
@@ -49618,7 +49618,7 @@
       </c>
       <c r="AB425" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD425" t="b">
@@ -49633,12 +49633,12 @@
       <c r="AT425" t="inlineStr"/>
       <c r="AW425" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX425" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY425" t="inlineStr">
@@ -49649,10 +49649,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>111739854</v>
+        <v>111747040</v>
       </c>
       <c r="B426" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -49665,34 +49665,34 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="P426" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q426" t="n">
-        <v>725050.1800192182</v>
+        <v>725424.1358317868</v>
       </c>
       <c r="R426" t="n">
-        <v>7332670.741017988</v>
+        <v>7332542.480126344</v>
       </c>
       <c r="S426" t="n">
         <v>10</v>
@@ -49724,7 +49724,7 @@
       </c>
       <c r="Z426" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA426" t="inlineStr">
@@ -49734,7 +49734,7 @@
       </c>
       <c r="AB426" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD426" t="b">
@@ -49749,12 +49749,12 @@
       <c r="AT426" t="inlineStr"/>
       <c r="AW426" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX426" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY426" t="inlineStr">
@@ -49765,10 +49765,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>111747043</v>
+        <v>111739875</v>
       </c>
       <c r="B427" t="n">
-        <v>88914</v>
+        <v>87992</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -49781,34 +49781,34 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>2051</v>
+        <v>1593</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
+          <t>Jul.Schäff.</t>
         </is>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="P427" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q427" t="n">
-        <v>725486.9696985815</v>
+        <v>724995.0087162531</v>
       </c>
       <c r="R427" t="n">
-        <v>7332533.599852242</v>
+        <v>7332614.101875325</v>
       </c>
       <c r="S427" t="n">
         <v>10</v>
@@ -49840,7 +49840,7 @@
       </c>
       <c r="Z427" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA427" t="inlineStr">
@@ -49850,7 +49850,7 @@
       </c>
       <c r="AB427" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD427" t="b">
@@ -49865,12 +49865,12 @@
       <c r="AT427" t="inlineStr"/>
       <c r="AW427" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX427" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY427" t="inlineStr">
@@ -49881,10 +49881,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>111747064</v>
+        <v>111739866</v>
       </c>
       <c r="B428" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -49893,38 +49893,38 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E428" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="P428" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q428" t="n">
-        <v>725400.7818453084</v>
+        <v>725030.6014099412</v>
       </c>
       <c r="R428" t="n">
-        <v>7332620.234169938</v>
+        <v>7332639.383263739</v>
       </c>
       <c r="S428" t="n">
         <v>10</v>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="Z428" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA428" t="inlineStr">
@@ -49966,7 +49966,7 @@
       </c>
       <c r="AB428" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD428" t="b">
@@ -49981,12 +49981,12 @@
       <c r="AT428" t="inlineStr"/>
       <c r="AW428" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX428" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY428" t="inlineStr">
@@ -49997,10 +49997,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>111747040</v>
+        <v>111739854</v>
       </c>
       <c r="B429" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -50013,34 +50013,34 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="P429" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q429" t="n">
-        <v>725424.1358317868</v>
+        <v>725050.1800192182</v>
       </c>
       <c r="R429" t="n">
-        <v>7332542.480126344</v>
+        <v>7332670.741017988</v>
       </c>
       <c r="S429" t="n">
         <v>10</v>
@@ -50072,7 +50072,7 @@
       </c>
       <c r="Z429" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA429" t="inlineStr">
@@ -50082,7 +50082,7 @@
       </c>
       <c r="AB429" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD429" t="b">
@@ -50097,12 +50097,12 @@
       <c r="AT429" t="inlineStr"/>
       <c r="AW429" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX429" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY429" t="inlineStr">
@@ -50113,10 +50113,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>111747073</v>
+        <v>111739876</v>
       </c>
       <c r="B430" t="n">
-        <v>76918</v>
+        <v>88010</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -50125,38 +50125,38 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E430" t="n">
-        <v>6437</v>
+        <v>1596</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="P430" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q430" t="n">
-        <v>725367.5448969546</v>
+        <v>724964.9387318935</v>
       </c>
       <c r="R430" t="n">
-        <v>7332652.699907729</v>
+        <v>7332539.859898902</v>
       </c>
       <c r="S430" t="n">
         <v>10</v>
@@ -50188,7 +50188,7 @@
       </c>
       <c r="Z430" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA430" t="inlineStr">
@@ -50198,7 +50198,7 @@
       </c>
       <c r="AB430" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD430" t="b">
@@ -50213,12 +50213,12 @@
       <c r="AT430" t="inlineStr"/>
       <c r="AW430" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX430" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY430" t="inlineStr">
@@ -50229,10 +50229,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>111747032</v>
+        <v>111739859</v>
       </c>
       <c r="B431" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -50241,38 +50241,38 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="P431" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q431" t="n">
-        <v>725294.9323842777</v>
+        <v>724970.1865413274</v>
       </c>
       <c r="R431" t="n">
-        <v>7332686.932302658</v>
+        <v>7332540.684948578</v>
       </c>
       <c r="S431" t="n">
         <v>10</v>
@@ -50304,7 +50304,7 @@
       </c>
       <c r="Z431" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA431" t="inlineStr">
@@ -50314,7 +50314,7 @@
       </c>
       <c r="AB431" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD431" t="b">
@@ -50329,12 +50329,12 @@
       <c r="AT431" t="inlineStr"/>
       <c r="AW431" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX431" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY431" t="inlineStr">
@@ -50345,10 +50345,10 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>111747057</v>
+        <v>111739870</v>
       </c>
       <c r="B432" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -50357,38 +50357,38 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E432" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="P432" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q432" t="n">
-        <v>725455.8648131832</v>
+        <v>724987.1052795015</v>
       </c>
       <c r="R432" t="n">
-        <v>7332611.145256104</v>
+        <v>7332626.129945925</v>
       </c>
       <c r="S432" t="n">
         <v>10</v>
@@ -50420,7 +50420,7 @@
       </c>
       <c r="Z432" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA432" t="inlineStr">
@@ -50430,7 +50430,7 @@
       </c>
       <c r="AB432" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD432" t="b">
@@ -50445,12 +50445,12 @@
       <c r="AT432" t="inlineStr"/>
       <c r="AW432" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX432" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY432" t="inlineStr">
@@ -50461,10 +50461,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>111739876</v>
+        <v>111747073</v>
       </c>
       <c r="B433" t="n">
-        <v>88010</v>
+        <v>76918</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -50473,38 +50473,38 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E433" t="n">
-        <v>1596</v>
+        <v>6437</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="P433" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q433" t="n">
-        <v>724964.9387318935</v>
+        <v>725367.5448969546</v>
       </c>
       <c r="R433" t="n">
-        <v>7332539.859898902</v>
+        <v>7332652.699907729</v>
       </c>
       <c r="S433" t="n">
         <v>10</v>
@@ -50536,7 +50536,7 @@
       </c>
       <c r="Z433" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA433" t="inlineStr">
@@ -50546,7 +50546,7 @@
       </c>
       <c r="AB433" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD433" t="b">
@@ -50561,12 +50561,12 @@
       <c r="AT433" t="inlineStr"/>
       <c r="AW433" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX433" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY433" t="inlineStr">
@@ -50577,10 +50577,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>111739859</v>
+        <v>111747032</v>
       </c>
       <c r="B434" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -50589,38 +50589,38 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="P434" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q434" t="n">
-        <v>724970.1865413274</v>
+        <v>725294.9323842777</v>
       </c>
       <c r="R434" t="n">
-        <v>7332540.684948578</v>
+        <v>7332686.932302658</v>
       </c>
       <c r="S434" t="n">
         <v>10</v>
@@ -50652,7 +50652,7 @@
       </c>
       <c r="Z434" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA434" t="inlineStr">
@@ -50662,7 +50662,7 @@
       </c>
       <c r="AB434" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD434" t="b">
@@ -50677,12 +50677,12 @@
       <c r="AT434" t="inlineStr"/>
       <c r="AW434" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX434" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY434" t="inlineStr">
@@ -50693,10 +50693,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>111739870</v>
+        <v>111747057</v>
       </c>
       <c r="B435" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -50705,38 +50705,38 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E435" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="P435" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q435" t="n">
-        <v>724987.1052795015</v>
+        <v>725455.8648131832</v>
       </c>
       <c r="R435" t="n">
-        <v>7332626.129945925</v>
+        <v>7332611.145256104</v>
       </c>
       <c r="S435" t="n">
         <v>10</v>
@@ -50768,7 +50768,7 @@
       </c>
       <c r="Z435" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA435" t="inlineStr">
@@ -50778,7 +50778,7 @@
       </c>
       <c r="AB435" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD435" t="b">
@@ -50793,12 +50793,12 @@
       <c r="AT435" t="inlineStr"/>
       <c r="AW435" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX435" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY435" t="inlineStr">
@@ -50809,10 +50809,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>111747037</v>
+        <v>111739863</v>
       </c>
       <c r="B436" t="n">
-        <v>76918</v>
+        <v>90658</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -50825,34 +50825,34 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>6437</v>
+        <v>4361</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="P436" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q436" t="n">
-        <v>725388.571213768</v>
+        <v>725077.4107909475</v>
       </c>
       <c r="R436" t="n">
-        <v>7332568.229136779</v>
+        <v>7332652.084027541</v>
       </c>
       <c r="S436" t="n">
         <v>10</v>
@@ -50884,7 +50884,7 @@
       </c>
       <c r="Z436" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA436" t="inlineStr">
@@ -50894,7 +50894,7 @@
       </c>
       <c r="AB436" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD436" t="b">
@@ -50909,12 +50909,12 @@
       <c r="AT436" t="inlineStr"/>
       <c r="AW436" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX436" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY436" t="inlineStr">
@@ -50925,10 +50925,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>111739863</v>
+        <v>111747037</v>
       </c>
       <c r="B437" t="n">
-        <v>90658</v>
+        <v>76918</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -50941,34 +50941,34 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4361</v>
+        <v>6437</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="P437" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q437" t="n">
-        <v>725077.4107909475</v>
+        <v>725388.571213768</v>
       </c>
       <c r="R437" t="n">
-        <v>7332652.084027541</v>
+        <v>7332568.229136779</v>
       </c>
       <c r="S437" t="n">
         <v>10</v>
@@ -51000,7 +51000,7 @@
       </c>
       <c r="Z437" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA437" t="inlineStr">
@@ -51010,7 +51010,7 @@
       </c>
       <c r="AB437" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD437" t="b">
@@ -51025,12 +51025,12 @@
       <c r="AT437" t="inlineStr"/>
       <c r="AW437" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX437" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY437" t="inlineStr">
@@ -51041,10 +51041,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>111747068</v>
+        <v>111739851</v>
       </c>
       <c r="B438" t="n">
-        <v>90710</v>
+        <v>90670</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -51053,38 +51053,38 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E438" t="n">
-        <v>5449</v>
+        <v>4365</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="P438" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q438" t="n">
-        <v>725402.8364992999</v>
+        <v>724959.2288771898</v>
       </c>
       <c r="R438" t="n">
-        <v>7332635.503387506</v>
+        <v>7332601.46189298</v>
       </c>
       <c r="S438" t="n">
         <v>10</v>
@@ -51116,7 +51116,7 @@
       </c>
       <c r="Z438" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA438" t="inlineStr">
@@ -51126,7 +51126,7 @@
       </c>
       <c r="AB438" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD438" t="b">
@@ -51141,12 +51141,12 @@
       <c r="AT438" t="inlineStr"/>
       <c r="AW438" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX438" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY438" t="inlineStr">
@@ -51157,10 +51157,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>111747046</v>
+        <v>111739869</v>
       </c>
       <c r="B439" t="n">
-        <v>90300</v>
+        <v>90658</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -51173,34 +51173,34 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>4745</v>
+        <v>4361</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="P439" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q439" t="n">
-        <v>725472.7317965528</v>
+        <v>724997.2200091609</v>
       </c>
       <c r="R439" t="n">
-        <v>7332553.288591164</v>
+        <v>7332617.135305049</v>
       </c>
       <c r="S439" t="n">
         <v>10</v>
@@ -51232,7 +51232,7 @@
       </c>
       <c r="Z439" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA439" t="inlineStr">
@@ -51242,7 +51242,7 @@
       </c>
       <c r="AB439" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD439" t="b">
@@ -51257,12 +51257,12 @@
       <c r="AT439" t="inlineStr"/>
       <c r="AW439" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX439" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY439" t="inlineStr">
@@ -51273,10 +51273,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>111747053</v>
+        <v>111739879</v>
       </c>
       <c r="B440" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -51285,38 +51285,38 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E440" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="P440" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q440" t="n">
-        <v>725462.2290138868</v>
+        <v>724999.3611294483</v>
       </c>
       <c r="R440" t="n">
-        <v>7332603.078218663</v>
+        <v>7332662.212972784</v>
       </c>
       <c r="S440" t="n">
         <v>10</v>
@@ -51348,7 +51348,7 @@
       </c>
       <c r="Z440" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA440" t="inlineStr">
@@ -51358,7 +51358,7 @@
       </c>
       <c r="AB440" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD440" t="b">
@@ -51373,12 +51373,12 @@
       <c r="AT440" t="inlineStr"/>
       <c r="AW440" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX440" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY440" t="inlineStr">
@@ -51389,10 +51389,10 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>111739851</v>
+        <v>111747068</v>
       </c>
       <c r="B441" t="n">
-        <v>90670</v>
+        <v>90710</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -51401,38 +51401,38 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E441" t="n">
-        <v>4365</v>
+        <v>5449</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="P441" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q441" t="n">
-        <v>724959.2288771898</v>
+        <v>725402.8364992999</v>
       </c>
       <c r="R441" t="n">
-        <v>7332601.46189298</v>
+        <v>7332635.503387506</v>
       </c>
       <c r="S441" t="n">
         <v>10</v>
@@ -51464,7 +51464,7 @@
       </c>
       <c r="Z441" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA441" t="inlineStr">
@@ -51474,7 +51474,7 @@
       </c>
       <c r="AB441" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD441" t="b">
@@ -51489,12 +51489,12 @@
       <c r="AT441" t="inlineStr"/>
       <c r="AW441" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX441" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY441" t="inlineStr">
@@ -51505,10 +51505,10 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>111739869</v>
+        <v>111747046</v>
       </c>
       <c r="B442" t="n">
-        <v>90658</v>
+        <v>90300</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -51521,34 +51521,34 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="P442" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q442" t="n">
-        <v>724997.2200091609</v>
+        <v>725472.7317965528</v>
       </c>
       <c r="R442" t="n">
-        <v>7332617.135305049</v>
+        <v>7332553.288591164</v>
       </c>
       <c r="S442" t="n">
         <v>10</v>
@@ -51580,7 +51580,7 @@
       </c>
       <c r="Z442" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA442" t="inlineStr">
@@ -51590,7 +51590,7 @@
       </c>
       <c r="AB442" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD442" t="b">
@@ -51605,12 +51605,12 @@
       <c r="AT442" t="inlineStr"/>
       <c r="AW442" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX442" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY442" t="inlineStr">
@@ -51621,10 +51621,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>111739879</v>
+        <v>111747053</v>
       </c>
       <c r="B443" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -51633,38 +51633,38 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E443" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="P443" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q443" t="n">
-        <v>724999.3611294483</v>
+        <v>725462.2290138868</v>
       </c>
       <c r="R443" t="n">
-        <v>7332662.212972784</v>
+        <v>7332603.078218663</v>
       </c>
       <c r="S443" t="n">
         <v>10</v>
@@ -51696,7 +51696,7 @@
       </c>
       <c r="Z443" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA443" t="inlineStr">
@@ -51706,7 +51706,7 @@
       </c>
       <c r="AB443" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD443" t="b">
@@ -51721,12 +51721,12 @@
       <c r="AT443" t="inlineStr"/>
       <c r="AW443" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX443" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY443" t="inlineStr">
@@ -54522,7 +54522,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>111739860</v>
+        <v>111747065</v>
       </c>
       <c r="B468" t="n">
         <v>90682</v>
@@ -54558,14 +54558,14 @@
       <c r="I468" t="inlineStr"/>
       <c r="P468" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q468" t="n">
-        <v>724970.9988536562</v>
+        <v>725401.995086177</v>
       </c>
       <c r="R468" t="n">
-        <v>7332540.749464006</v>
+        <v>7332610.124106816</v>
       </c>
       <c r="S468" t="n">
         <v>10</v>
@@ -54597,7 +54597,7 @@
       </c>
       <c r="Z468" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA468" t="inlineStr">
@@ -54607,7 +54607,7 @@
       </c>
       <c r="AB468" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AD468" t="b">
@@ -54622,12 +54622,12 @@
       <c r="AT468" t="inlineStr"/>
       <c r="AW468" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX468" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY468" t="inlineStr">
@@ -54638,10 +54638,10 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>111739847</v>
+        <v>111747039</v>
       </c>
       <c r="B469" t="n">
-        <v>90652</v>
+        <v>76918</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -54654,34 +54654,34 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>3100</v>
+        <v>6437</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="P469" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q469" t="n">
-        <v>724990.0382931525</v>
+        <v>725395.8714946804</v>
       </c>
       <c r="R469" t="n">
-        <v>7332614.931826536</v>
+        <v>7332548.396420963</v>
       </c>
       <c r="S469" t="n">
         <v>10</v>
@@ -54713,7 +54713,7 @@
       </c>
       <c r="Z469" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA469" t="inlineStr">
@@ -54723,7 +54723,7 @@
       </c>
       <c r="AB469" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD469" t="b">
@@ -54738,12 +54738,12 @@
       <c r="AT469" t="inlineStr"/>
       <c r="AW469" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX469" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY469" t="inlineStr">
@@ -54754,10 +54754,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>111747065</v>
+        <v>111747031</v>
       </c>
       <c r="B470" t="n">
-        <v>90682</v>
+        <v>90300</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -54770,21 +54770,21 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I470" t="inlineStr"/>
@@ -54794,10 +54794,10 @@
         </is>
       </c>
       <c r="Q470" t="n">
-        <v>725401.995086177</v>
+        <v>725160.2371559908</v>
       </c>
       <c r="R470" t="n">
-        <v>7332610.124106816</v>
+        <v>7332669.281444821</v>
       </c>
       <c r="S470" t="n">
         <v>10</v>
@@ -54829,7 +54829,7 @@
       </c>
       <c r="Z470" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA470" t="inlineStr">
@@ -54839,7 +54839,7 @@
       </c>
       <c r="AB470" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD470" t="b">
@@ -54870,10 +54870,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>111747039</v>
+        <v>111747042</v>
       </c>
       <c r="B471" t="n">
-        <v>76918</v>
+        <v>90300</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -54886,21 +54886,21 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>6437</v>
+        <v>4745</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I471" t="inlineStr"/>
@@ -54910,10 +54910,10 @@
         </is>
       </c>
       <c r="Q471" t="n">
-        <v>725395.8714946804</v>
+        <v>725477.0877623832</v>
       </c>
       <c r="R471" t="n">
-        <v>7332548.396420963</v>
+        <v>7332524.239380637</v>
       </c>
       <c r="S471" t="n">
         <v>10</v>
@@ -54945,7 +54945,7 @@
       </c>
       <c r="Z471" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA471" t="inlineStr">
@@ -54955,7 +54955,7 @@
       </c>
       <c r="AB471" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD471" t="b">
@@ -54986,10 +54986,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>111747031</v>
+        <v>111739860</v>
       </c>
       <c r="B472" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -55002,34 +55002,34 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="P472" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q472" t="n">
-        <v>725160.2371559908</v>
+        <v>724970.9988536562</v>
       </c>
       <c r="R472" t="n">
-        <v>7332669.281444821</v>
+        <v>7332540.749464006</v>
       </c>
       <c r="S472" t="n">
         <v>10</v>
@@ -55061,7 +55061,7 @@
       </c>
       <c r="Z472" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA472" t="inlineStr">
@@ -55071,7 +55071,7 @@
       </c>
       <c r="AB472" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD472" t="b">
@@ -55086,12 +55086,12 @@
       <c r="AT472" t="inlineStr"/>
       <c r="AW472" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX472" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY472" t="inlineStr">
@@ -55102,10 +55102,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>111747042</v>
+        <v>111739847</v>
       </c>
       <c r="B473" t="n">
-        <v>90300</v>
+        <v>90652</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -55118,34 +55118,34 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="P473" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q473" t="n">
-        <v>725477.0877623832</v>
+        <v>724990.0382931525</v>
       </c>
       <c r="R473" t="n">
-        <v>7332524.239380637</v>
+        <v>7332614.931826536</v>
       </c>
       <c r="S473" t="n">
         <v>10</v>
@@ -55177,7 +55177,7 @@
       </c>
       <c r="Z473" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA473" t="inlineStr">
@@ -55187,7 +55187,7 @@
       </c>
       <c r="AB473" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD473" t="b">
@@ -55202,12 +55202,12 @@
       <c r="AT473" t="inlineStr"/>
       <c r="AW473" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX473" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY473" t="inlineStr">

--- a/artfynd/A 55345-2020.xlsx
+++ b/artfynd/A 55345-2020.xlsx
@@ -9228,10 +9228,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111712861</v>
+        <v>111700070</v>
       </c>
       <c r="B78" t="n">
-        <v>90300</v>
+        <v>76495</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9244,34 +9244,35 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4745</v>
+        <v>6487</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>725368.4029452958</v>
+        <v>725128.5125613761</v>
       </c>
       <c r="R78" t="n">
-        <v>7332647.052558809</v>
+        <v>7332430.781449486</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9328,26 +9329,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY78" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111712875</v>
+        <v>111711644</v>
       </c>
       <c r="B79" t="n">
-        <v>90678</v>
+        <v>88032</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9356,38 +9353,38 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>725239.974958373</v>
+        <v>725046.872241436</v>
       </c>
       <c r="R79" t="n">
-        <v>7332684.194458539</v>
+        <v>7332475.737493961</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9444,12 +9441,12 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr">
@@ -9460,10 +9457,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111700070</v>
+        <v>111709538</v>
       </c>
       <c r="B80" t="n">
-        <v>76495</v>
+        <v>90658</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9476,35 +9473,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6487</v>
+        <v>4361</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>725128.5125613761</v>
+        <v>725586.0353481639</v>
       </c>
       <c r="R80" t="n">
-        <v>7332430.781449486</v>
+        <v>7332531.688881696</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9561,22 +9557,26 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY80" t="inlineStr"/>
+          <t>Linda Nordström</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111711644</v>
+        <v>111709506</v>
       </c>
       <c r="B81" t="n">
-        <v>88032</v>
+        <v>90670</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9589,34 +9589,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6276</v>
+        <v>4365</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>725046.872241436</v>
+        <v>725405.0234577118</v>
       </c>
       <c r="R81" t="n">
-        <v>7332475.737493961</v>
+        <v>7332623.429549483</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9673,12 +9673,12 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr">
@@ -9689,10 +9689,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111709538</v>
+        <v>111711635</v>
       </c>
       <c r="B82" t="n">
-        <v>90658</v>
+        <v>77268</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9705,34 +9705,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4361</v>
+        <v>228912</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>725586.0353481639</v>
+        <v>725110.8981382371</v>
       </c>
       <c r="R82" t="n">
-        <v>7332531.688881696</v>
+        <v>7332477.558656135</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9789,12 +9789,12 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
@@ -9805,10 +9805,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111709506</v>
+        <v>111711616</v>
       </c>
       <c r="B83" t="n">
-        <v>90670</v>
+        <v>90682</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9817,38 +9817,38 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4365</v>
+        <v>2059</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>725405.0234577118</v>
+        <v>725104.4958516548</v>
       </c>
       <c r="R83" t="n">
-        <v>7332623.429549483</v>
+        <v>7332501.546363591</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9905,12 +9905,12 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr">
@@ -9921,10 +9921,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111711635</v>
+        <v>111710363</v>
       </c>
       <c r="B84" t="n">
-        <v>77268</v>
+        <v>90682</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9937,34 +9937,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>228912</v>
+        <v>2059</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>725110.8981382371</v>
+        <v>725374.7480264648</v>
       </c>
       <c r="R84" t="n">
-        <v>7332477.558656135</v>
+        <v>7332634.084836423</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10021,12 +10021,12 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr">
@@ -10037,10 +10037,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111711616</v>
+        <v>111709542</v>
       </c>
       <c r="B85" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10053,34 +10053,34 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>725104.4958516548</v>
+        <v>725407.8019050863</v>
       </c>
       <c r="R85" t="n">
-        <v>7332501.546363591</v>
+        <v>7332624.467180541</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10137,12 +10137,12 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr">
@@ -10153,10 +10153,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111710363</v>
+        <v>111710355</v>
       </c>
       <c r="B86" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10169,21 +10169,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10193,10 +10193,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>725374.7480264648</v>
+        <v>725382.5533437567</v>
       </c>
       <c r="R86" t="n">
-        <v>7332634.084836423</v>
+        <v>7332648.995001098</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10269,10 +10269,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111709542</v>
+        <v>111712861</v>
       </c>
       <c r="B87" t="n">
-        <v>90658</v>
+        <v>90300</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10285,34 +10285,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>725407.8019050863</v>
+        <v>725368.4029452958</v>
       </c>
       <c r="R87" t="n">
-        <v>7332624.467180541</v>
+        <v>7332647.052558809</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10369,12 +10369,12 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
@@ -10385,10 +10385,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111710355</v>
+        <v>111712875</v>
       </c>
       <c r="B88" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10397,38 +10397,38 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>725382.5533437567</v>
+        <v>725239.974958373</v>
       </c>
       <c r="R88" t="n">
-        <v>7332648.995001098</v>
+        <v>7332684.194458539</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10485,12 +10485,12 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr">
@@ -19565,10 +19565,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111711355</v>
+        <v>111709517</v>
       </c>
       <c r="B167" t="n">
-        <v>86961</v>
+        <v>90682</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -19581,34 +19581,34 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4962</v>
+        <v>2059</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>725003.0609937049</v>
+        <v>725408.0466263851</v>
       </c>
       <c r="R167" t="n">
-        <v>7332631.071635312</v>
+        <v>7332626.527970433</v>
       </c>
       <c r="S167" t="n">
         <v>10</v>
@@ -19640,7 +19640,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
@@ -19650,7 +19650,7 @@
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD167" t="b">
@@ -19665,12 +19665,12 @@
       <c r="AT167" t="inlineStr"/>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY167" t="inlineStr">
@@ -19681,10 +19681,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111711342</v>
+        <v>111711605</v>
       </c>
       <c r="B168" t="n">
-        <v>90854</v>
+        <v>90652</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -19697,34 +19697,34 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>2079</v>
+        <v>3100</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>725038.5953246626</v>
+        <v>725128.4740773203</v>
       </c>
       <c r="R168" t="n">
-        <v>7332641.651369619</v>
+        <v>7332420.979566738</v>
       </c>
       <c r="S168" t="n">
         <v>10</v>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD168" t="b">
@@ -19781,12 +19781,12 @@
       <c r="AT168" t="inlineStr"/>
       <c r="AW168" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY168" t="inlineStr">
@@ -19797,10 +19797,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111711359</v>
+        <v>111711355</v>
       </c>
       <c r="B169" t="n">
-        <v>90710</v>
+        <v>86961</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -19813,21 +19813,21 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>5449</v>
+        <v>4962</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -19837,10 +19837,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>725003.0221471313</v>
+        <v>725003.0609937049</v>
       </c>
       <c r="R169" t="n">
-        <v>7332621.270481568</v>
+        <v>7332631.071635312</v>
       </c>
       <c r="S169" t="n">
         <v>10</v>
@@ -19872,7 +19872,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
@@ -19882,7 +19882,7 @@
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD169" t="b">
@@ -19913,10 +19913,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111711366</v>
+        <v>111711342</v>
       </c>
       <c r="B170" t="n">
-        <v>90678</v>
+        <v>90854</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -19925,25 +19925,25 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4366</v>
+        <v>2079</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -19953,10 +19953,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>724969.6073429538</v>
+        <v>725038.5953246626</v>
       </c>
       <c r="R170" t="n">
-        <v>7332573.708151281</v>
+        <v>7332641.651369619</v>
       </c>
       <c r="S170" t="n">
         <v>10</v>
@@ -19988,7 +19988,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
@@ -19998,7 +19998,7 @@
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD170" t="b">
@@ -20029,10 +20029,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111711340</v>
+        <v>111711359</v>
       </c>
       <c r="B171" t="n">
-        <v>88032</v>
+        <v>90710</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20041,25 +20041,25 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>6276</v>
+        <v>5449</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -20069,10 +20069,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>725082.6005280693</v>
+        <v>725003.0221471313</v>
       </c>
       <c r="R171" t="n">
-        <v>7332638.207602881</v>
+        <v>7332621.270481568</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -20104,7 +20104,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr">
@@ -20114,7 +20114,7 @@
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD171" t="b">
@@ -20145,10 +20145,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111712857</v>
+        <v>111711366</v>
       </c>
       <c r="B172" t="n">
-        <v>88489</v>
+        <v>90678</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -20157,38 +20157,38 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1962</v>
+        <v>4366</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>725024.0648077382</v>
+        <v>724969.6073429538</v>
       </c>
       <c r="R172" t="n">
-        <v>7332680.505319399</v>
+        <v>7332573.708151281</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr">
@@ -20230,7 +20230,7 @@
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AD172" t="b">
@@ -20245,12 +20245,12 @@
       <c r="AT172" t="inlineStr"/>
       <c r="AW172" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
@@ -20261,10 +20261,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111709497</v>
+        <v>111711340</v>
       </c>
       <c r="B173" t="n">
-        <v>90300</v>
+        <v>88032</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -20273,38 +20273,38 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>725574.8613557135</v>
+        <v>725082.6005280693</v>
       </c>
       <c r="R173" t="n">
-        <v>7332538.556342874</v>
+        <v>7332638.207602881</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -20336,7 +20336,7 @@
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr">
@@ -20346,7 +20346,7 @@
       </c>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD173" t="b">
@@ -20361,12 +20361,12 @@
       <c r="AT173" t="inlineStr"/>
       <c r="AW173" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX173" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY173" t="inlineStr">
@@ -20377,10 +20377,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111709549</v>
+        <v>111709497</v>
       </c>
       <c r="B174" t="n">
-        <v>88032</v>
+        <v>90300</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -20389,25 +20389,25 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>6276</v>
+        <v>4745</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
@@ -20417,10 +20417,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>725562.0027023624</v>
+        <v>725574.8613557135</v>
       </c>
       <c r="R174" t="n">
-        <v>7332520.384588961</v>
+        <v>7332538.556342874</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -20493,10 +20493,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111710359</v>
+        <v>111709549</v>
       </c>
       <c r="B175" t="n">
-        <v>90710</v>
+        <v>88032</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -20505,38 +20505,38 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>5449</v>
+        <v>6276</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>724942.1041872292</v>
+        <v>725562.0027023624</v>
       </c>
       <c r="R175" t="n">
-        <v>7332549.477837384</v>
+        <v>7332520.384588961</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -20593,12 +20593,12 @@
       <c r="AT175" t="inlineStr"/>
       <c r="AW175" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX175" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY175" t="inlineStr">
@@ -20609,10 +20609,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111709558</v>
+        <v>111710359</v>
       </c>
       <c r="B176" t="n">
-        <v>90660</v>
+        <v>90710</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -20625,34 +20625,34 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4362</v>
+        <v>5449</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>725584.433870682</v>
+        <v>724942.1041872292</v>
       </c>
       <c r="R176" t="n">
-        <v>7332510.738948174</v>
+        <v>7332549.477837384</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -20709,12 +20709,12 @@
       <c r="AT176" t="inlineStr"/>
       <c r="AW176" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX176" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY176" t="inlineStr">
@@ -20725,10 +20725,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111711614</v>
+        <v>111709558</v>
       </c>
       <c r="B177" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -20741,34 +20741,34 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>725136.6347606094</v>
+        <v>725584.433870682</v>
       </c>
       <c r="R177" t="n">
-        <v>7332482.870259319</v>
+        <v>7332510.738948174</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -20825,12 +20825,12 @@
       <c r="AT177" t="inlineStr"/>
       <c r="AW177" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX177" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY177" t="inlineStr">
@@ -20841,10 +20841,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111711645</v>
+        <v>111711614</v>
       </c>
       <c r="B178" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -20853,25 +20853,25 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
@@ -20881,10 +20881,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>725037.1756203272</v>
+        <v>725136.6347606094</v>
       </c>
       <c r="R178" t="n">
-        <v>7332453.736762491</v>
+        <v>7332482.870259319</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -20957,10 +20957,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111709517</v>
+        <v>111711645</v>
       </c>
       <c r="B179" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -20969,38 +20969,38 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="P179" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>725408.0466263851</v>
+        <v>725037.1756203272</v>
       </c>
       <c r="R179" t="n">
-        <v>7332626.527970433</v>
+        <v>7332453.736762491</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -21057,12 +21057,12 @@
       <c r="AT179" t="inlineStr"/>
       <c r="AW179" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX179" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY179" t="inlineStr">
@@ -21305,10 +21305,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111711605</v>
+        <v>111712857</v>
       </c>
       <c r="B182" t="n">
-        <v>90652</v>
+        <v>88489</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -21321,34 +21321,34 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3100</v>
+        <v>1962</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>725128.4740773203</v>
+        <v>725024.0648077382</v>
       </c>
       <c r="R182" t="n">
-        <v>7332420.979566738</v>
+        <v>7332680.505319399</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -21405,12 +21405,12 @@
       <c r="AT182" t="inlineStr"/>
       <c r="AW182" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX182" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY182" t="inlineStr">
@@ -23759,10 +23759,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111699865</v>
+        <v>111712884</v>
       </c>
       <c r="B203" t="n">
-        <v>77268</v>
+        <v>90658</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -23775,35 +23775,34 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>228912</v>
+        <v>4361</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>725115.7658552242</v>
+        <v>725346.5600455506</v>
       </c>
       <c r="R203" t="n">
-        <v>7332467.738560194</v>
+        <v>7332659.603713774</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -23860,22 +23859,26 @@
       <c r="AT203" t="inlineStr"/>
       <c r="AW203" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX203" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY203" t="inlineStr"/>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY203" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111706060</v>
+        <v>111710658</v>
       </c>
       <c r="B204" t="n">
-        <v>78604</v>
+        <v>90658</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -23884,25 +23887,25 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>6461</v>
+        <v>4361</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I204" t="inlineStr"/>
@@ -23912,10 +23915,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>725130.5762016462</v>
+        <v>725174.4483278322</v>
       </c>
       <c r="R204" t="n">
-        <v>7332404.815181958</v>
+        <v>7332444.231327837</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -23966,28 +23969,33 @@
       <c r="AE204" t="b">
         <v>0</v>
       </c>
+      <c r="AF204" t="inlineStr"/>
       <c r="AG204" t="b">
         <v>0</v>
       </c>
       <c r="AT204" t="inlineStr"/>
       <c r="AW204" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX204" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY204" t="inlineStr"/>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY204" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111712890</v>
+        <v>111711369</v>
       </c>
       <c r="B205" t="n">
-        <v>88032</v>
+        <v>90709</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -23996,38 +24004,38 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>6276</v>
+        <v>5448</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>725429.862888145</v>
+        <v>724965.2609427765</v>
       </c>
       <c r="R205" t="n">
-        <v>7332624.589803277</v>
+        <v>7332535.802844846</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -24059,7 +24067,7 @@
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA205" t="inlineStr">
@@ -24069,7 +24077,7 @@
       </c>
       <c r="AB205" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AD205" t="b">
@@ -24080,16 +24088,26 @@
       </c>
       <c r="AG205" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ205" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR205" t="inlineStr">
+        <is>
+          <t>2308261040</t>
+        </is>
       </c>
       <c r="AT205" t="inlineStr"/>
       <c r="AW205" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX205" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY205" t="inlineStr">
@@ -24100,10 +24118,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111712884</v>
+        <v>111711344</v>
       </c>
       <c r="B206" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -24116,34 +24134,34 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>725346.5600455506</v>
+        <v>725027.6617239625</v>
       </c>
       <c r="R206" t="n">
-        <v>7332659.603713774</v>
+        <v>7332640.374472279</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -24175,7 +24193,7 @@
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA206" t="inlineStr">
@@ -24185,7 +24203,7 @@
       </c>
       <c r="AB206" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD206" t="b">
@@ -24200,12 +24218,12 @@
       <c r="AT206" t="inlineStr"/>
       <c r="AW206" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX206" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY206" t="inlineStr">
@@ -24216,10 +24234,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111712870</v>
+        <v>111710623</v>
       </c>
       <c r="B207" t="n">
-        <v>90682</v>
+        <v>90709</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -24232,34 +24250,34 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>725310.4245873529</v>
+        <v>725028.9621380008</v>
       </c>
       <c r="R207" t="n">
-        <v>7332677.141797226</v>
+        <v>7332464.516036242</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -24316,12 +24334,12 @@
       <c r="AT207" t="inlineStr"/>
       <c r="AW207" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX207" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY207" t="inlineStr">
@@ -24332,10 +24350,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>111712887</v>
+        <v>111699865</v>
       </c>
       <c r="B208" t="n">
-        <v>90658</v>
+        <v>77268</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -24348,34 +24366,35 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4361</v>
+        <v>228912</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q208" t="n">
-        <v>725342.323827486</v>
+        <v>725115.7658552242</v>
       </c>
       <c r="R208" t="n">
-        <v>7332666.615299234</v>
+        <v>7332467.738560194</v>
       </c>
       <c r="S208" t="n">
         <v>10</v>
@@ -24432,26 +24451,22 @@
       <c r="AT208" t="inlineStr"/>
       <c r="AW208" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX208" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY208" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>111712866</v>
+        <v>111706060</v>
       </c>
       <c r="B209" t="n">
-        <v>90710</v>
+        <v>78604</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -24460,38 +24475,38 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>5449</v>
+        <v>6461</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q209" t="n">
-        <v>725371.4449087358</v>
+        <v>725130.5762016462</v>
       </c>
       <c r="R209" t="n">
-        <v>7332655.051508157</v>
+        <v>7332404.815181958</v>
       </c>
       <c r="S209" t="n">
         <v>10</v>
@@ -24548,26 +24563,22 @@
       <c r="AT209" t="inlineStr"/>
       <c r="AW209" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX209" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY209" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>111700143</v>
+        <v>111712890</v>
       </c>
       <c r="B210" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -24576,48 +24587,38 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q210" t="n">
-        <v>725153.6767783576</v>
+        <v>725429.862888145</v>
       </c>
       <c r="R210" t="n">
-        <v>7332402.159999613</v>
+        <v>7332624.589803277</v>
       </c>
       <c r="S210" t="n">
         <v>10</v>
@@ -24674,19 +24675,23 @@
       <c r="AT210" t="inlineStr"/>
       <c r="AW210" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX210" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY210" t="inlineStr"/>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY210" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>111709508</v>
+        <v>111712870</v>
       </c>
       <c r="B211" t="n">
         <v>90682</v>
@@ -24722,14 +24727,14 @@
       <c r="I211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q211" t="n">
-        <v>725310.5237676648</v>
+        <v>725310.4245873529</v>
       </c>
       <c r="R211" t="n">
-        <v>7332650.204843798</v>
+        <v>7332677.141797226</v>
       </c>
       <c r="S211" t="n">
         <v>10</v>
@@ -24786,12 +24791,12 @@
       <c r="AT211" t="inlineStr"/>
       <c r="AW211" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX211" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY211" t="inlineStr">
@@ -24802,10 +24807,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>111711647</v>
+        <v>111712887</v>
       </c>
       <c r="B212" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -24814,38 +24819,38 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="P212" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q212" t="n">
-        <v>725038.5227753496</v>
+        <v>725342.323827486</v>
       </c>
       <c r="R212" t="n">
-        <v>7332426.489019231</v>
+        <v>7332666.615299234</v>
       </c>
       <c r="S212" t="n">
         <v>10</v>
@@ -24902,12 +24907,12 @@
       <c r="AT212" t="inlineStr"/>
       <c r="AW212" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX212" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY212" t="inlineStr">
@@ -24918,10 +24923,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>111709525</v>
+        <v>111712866</v>
       </c>
       <c r="B213" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -24930,38 +24935,38 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="P213" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q213" t="n">
-        <v>725544.9904041166</v>
+        <v>725371.4449087358</v>
       </c>
       <c r="R213" t="n">
-        <v>7332549.24262985</v>
+        <v>7332655.051508157</v>
       </c>
       <c r="S213" t="n">
         <v>10</v>
@@ -25018,12 +25023,12 @@
       <c r="AT213" t="inlineStr"/>
       <c r="AW213" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX213" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY213" t="inlineStr">
@@ -25034,10 +25039,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>111710348</v>
+        <v>111700143</v>
       </c>
       <c r="B214" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -25050,34 +25055,44 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="P214" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q214" t="n">
-        <v>724935.9727593055</v>
+        <v>725153.6767783576</v>
       </c>
       <c r="R214" t="n">
-        <v>7332539.192627021</v>
+        <v>7332402.159999613</v>
       </c>
       <c r="S214" t="n">
         <v>10</v>
@@ -25134,26 +25149,22 @@
       <c r="AT214" t="inlineStr"/>
       <c r="AW214" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX214" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY214" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>111709522</v>
+        <v>111709508</v>
       </c>
       <c r="B215" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -25162,25 +25173,25 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I215" t="inlineStr"/>
@@ -25190,10 +25201,10 @@
         </is>
       </c>
       <c r="Q215" t="n">
-        <v>725333.5983997382</v>
+        <v>725310.5237676648</v>
       </c>
       <c r="R215" t="n">
-        <v>7332632.44399954</v>
+        <v>7332650.204843798</v>
       </c>
       <c r="S215" t="n">
         <v>10</v>
@@ -25266,10 +25277,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>111711600</v>
+        <v>111711647</v>
       </c>
       <c r="B216" t="n">
-        <v>78081</v>
+        <v>88032</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -25278,25 +25289,25 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>229821</v>
+        <v>6276</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I216" t="inlineStr"/>
@@ -25306,10 +25317,10 @@
         </is>
       </c>
       <c r="Q216" t="n">
-        <v>725125.3339186072</v>
+        <v>725038.5227753496</v>
       </c>
       <c r="R216" t="n">
-        <v>7332439.91933961</v>
+        <v>7332426.489019231</v>
       </c>
       <c r="S216" t="n">
         <v>10</v>
@@ -25382,10 +25393,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>111709501</v>
+        <v>111709525</v>
       </c>
       <c r="B217" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -25394,25 +25405,25 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I217" t="inlineStr"/>
@@ -25422,10 +25433,10 @@
         </is>
       </c>
       <c r="Q217" t="n">
-        <v>725587.4524243715</v>
+        <v>725544.9904041166</v>
       </c>
       <c r="R217" t="n">
-        <v>7332503.630222731</v>
+        <v>7332549.24262985</v>
       </c>
       <c r="S217" t="n">
         <v>10</v>
@@ -25498,10 +25509,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>111709539</v>
+        <v>111710348</v>
       </c>
       <c r="B218" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -25514,34 +25525,34 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="P218" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q218" t="n">
-        <v>725582.0568234504</v>
+        <v>724935.9727593055</v>
       </c>
       <c r="R218" t="n">
-        <v>7332535.454844277</v>
+        <v>7332539.192627021</v>
       </c>
       <c r="S218" t="n">
         <v>10</v>
@@ -25598,12 +25609,12 @@
       <c r="AT218" t="inlineStr"/>
       <c r="AW218" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX218" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY218" t="inlineStr">
@@ -25614,10 +25625,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>111709540</v>
+        <v>111709522</v>
       </c>
       <c r="B219" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -25626,25 +25637,25 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I219" t="inlineStr"/>
@@ -25654,10 +25665,10 @@
         </is>
       </c>
       <c r="Q219" t="n">
-        <v>725439.8227800801</v>
+        <v>725333.5983997382</v>
       </c>
       <c r="R219" t="n">
-        <v>7332627.832078635</v>
+        <v>7332632.44399954</v>
       </c>
       <c r="S219" t="n">
         <v>10</v>
@@ -25730,10 +25741,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>111711609</v>
+        <v>111711600</v>
       </c>
       <c r="B220" t="n">
-        <v>90670</v>
+        <v>78081</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -25742,25 +25753,25 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>4365</v>
+        <v>229821</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I220" t="inlineStr"/>
@@ -25770,10 +25781,10 @@
         </is>
       </c>
       <c r="Q220" t="n">
-        <v>725041.2242163876</v>
+        <v>725125.3339186072</v>
       </c>
       <c r="R220" t="n">
-        <v>7332433.644415089</v>
+        <v>7332439.91933961</v>
       </c>
       <c r="S220" t="n">
         <v>10</v>
@@ -25846,10 +25857,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>111710372</v>
+        <v>111709501</v>
       </c>
       <c r="B221" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -25862,34 +25873,34 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="P221" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q221" t="n">
-        <v>725167.5356023817</v>
+        <v>725587.4524243715</v>
       </c>
       <c r="R221" t="n">
-        <v>7332649.449021258</v>
+        <v>7332503.630222731</v>
       </c>
       <c r="S221" t="n">
         <v>10</v>
@@ -25946,12 +25957,12 @@
       <c r="AT221" t="inlineStr"/>
       <c r="AW221" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX221" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY221" t="inlineStr">
@@ -25962,7 +25973,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>111710658</v>
+        <v>111709539</v>
       </c>
       <c r="B222" t="n">
         <v>90658</v>
@@ -25998,14 +26009,14 @@
       <c r="I222" t="inlineStr"/>
       <c r="P222" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q222" t="n">
-        <v>725174.4483278322</v>
+        <v>725582.0568234504</v>
       </c>
       <c r="R222" t="n">
-        <v>7332444.231327837</v>
+        <v>7332535.454844277</v>
       </c>
       <c r="S222" t="n">
         <v>10</v>
@@ -26056,19 +26067,18 @@
       <c r="AE222" t="b">
         <v>0</v>
       </c>
-      <c r="AF222" t="inlineStr"/>
       <c r="AG222" t="b">
         <v>0</v>
       </c>
       <c r="AT222" t="inlineStr"/>
       <c r="AW222" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX222" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY222" t="inlineStr">
@@ -26079,10 +26089,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>111711369</v>
+        <v>111709540</v>
       </c>
       <c r="B223" t="n">
-        <v>90709</v>
+        <v>90658</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -26095,34 +26105,34 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>5448</v>
+        <v>4361</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q223" t="n">
-        <v>724965.2609427765</v>
+        <v>725439.8227800801</v>
       </c>
       <c r="R223" t="n">
-        <v>7332535.802844846</v>
+        <v>7332627.832078635</v>
       </c>
       <c r="S223" t="n">
         <v>10</v>
@@ -26154,7 +26164,7 @@
       </c>
       <c r="Z223" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA223" t="inlineStr">
@@ -26164,7 +26174,7 @@
       </c>
       <c r="AB223" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD223" t="b">
@@ -26175,26 +26185,16 @@
       </c>
       <c r="AG223" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ223" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR223" t="inlineStr">
-        <is>
-          <t>2308261040</t>
-        </is>
       </c>
       <c r="AT223" t="inlineStr"/>
       <c r="AW223" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY223" t="inlineStr">
@@ -26205,10 +26205,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>111711344</v>
+        <v>111711609</v>
       </c>
       <c r="B224" t="n">
-        <v>90652</v>
+        <v>90670</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -26217,38 +26217,38 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>3100</v>
+        <v>4365</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="P224" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q224" t="n">
-        <v>725027.6617239625</v>
+        <v>725041.2242163876</v>
       </c>
       <c r="R224" t="n">
-        <v>7332640.374472279</v>
+        <v>7332433.644415089</v>
       </c>
       <c r="S224" t="n">
         <v>10</v>
@@ -26280,7 +26280,7 @@
       </c>
       <c r="Z224" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA224" t="inlineStr">
@@ -26290,7 +26290,7 @@
       </c>
       <c r="AB224" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD224" t="b">
@@ -26305,12 +26305,12 @@
       <c r="AT224" t="inlineStr"/>
       <c r="AW224" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY224" t="inlineStr">
@@ -26321,10 +26321,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>111710623</v>
+        <v>111710372</v>
       </c>
       <c r="B225" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -26337,34 +26337,34 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="P225" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q225" t="n">
-        <v>725028.9621380008</v>
+        <v>725167.5356023817</v>
       </c>
       <c r="R225" t="n">
-        <v>7332464.516036242</v>
+        <v>7332649.449021258</v>
       </c>
       <c r="S225" t="n">
         <v>10</v>
@@ -26421,12 +26421,12 @@
       <c r="AT225" t="inlineStr"/>
       <c r="AW225" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX225" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY225" t="inlineStr">
@@ -26437,10 +26437,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>111698875</v>
+        <v>111712859</v>
       </c>
       <c r="B226" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -26453,44 +26453,34 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K226" t="inlineStr"/>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="P226" t="inlineStr">
         <is>
-          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q226" t="n">
-        <v>725072.0609832492</v>
+        <v>725051.2372635503</v>
       </c>
       <c r="R226" t="n">
-        <v>7332462.224254381</v>
+        <v>7332672.866258692</v>
       </c>
       <c r="S226" t="n">
         <v>10</v>
@@ -26547,22 +26537,26 @@
       <c r="AT226" t="inlineStr"/>
       <c r="AW226" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX226" t="inlineStr">
         <is>
-          <t>Lina Wikander</t>
-        </is>
-      </c>
-      <c r="AY226" t="inlineStr"/>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY226" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>111712859</v>
+        <v>111711636</v>
       </c>
       <c r="B227" t="n">
-        <v>90652</v>
+        <v>77267</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -26575,34 +26569,34 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>3100</v>
+        <v>6446</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q227" t="n">
-        <v>725051.2372635503</v>
+        <v>725064.0730266627</v>
       </c>
       <c r="R227" t="n">
-        <v>7332672.866258692</v>
+        <v>7332470.16340023</v>
       </c>
       <c r="S227" t="n">
         <v>10</v>
@@ -26659,12 +26653,12 @@
       <c r="AT227" t="inlineStr"/>
       <c r="AW227" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX227" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY227" t="inlineStr">
@@ -26675,10 +26669,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>111711636</v>
+        <v>111709487</v>
       </c>
       <c r="B228" t="n">
-        <v>77267</v>
+        <v>88489</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -26691,34 +26685,34 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6446</v>
+        <v>1962</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q228" t="n">
-        <v>725064.0730266627</v>
+        <v>725424.6119143176</v>
       </c>
       <c r="R228" t="n">
-        <v>7332470.16340023</v>
+        <v>7332649.484134939</v>
       </c>
       <c r="S228" t="n">
         <v>10</v>
@@ -26775,12 +26769,12 @@
       <c r="AT228" t="inlineStr"/>
       <c r="AW228" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX228" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY228" t="inlineStr">
@@ -26791,10 +26785,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>111709487</v>
+        <v>111709499</v>
       </c>
       <c r="B229" t="n">
-        <v>88489</v>
+        <v>90710</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -26807,21 +26801,21 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1962</v>
+        <v>5449</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I229" t="inlineStr"/>
@@ -26831,10 +26825,10 @@
         </is>
       </c>
       <c r="Q229" t="n">
-        <v>725424.6119143176</v>
+        <v>725293.2889256463</v>
       </c>
       <c r="R229" t="n">
-        <v>7332649.484134939</v>
+        <v>7332681.90255834</v>
       </c>
       <c r="S229" t="n">
         <v>10</v>
@@ -26907,10 +26901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>111709499</v>
+        <v>111711615</v>
       </c>
       <c r="B230" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -26923,34 +26917,34 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q230" t="n">
-        <v>725293.2889256463</v>
+        <v>725158.4186296141</v>
       </c>
       <c r="R230" t="n">
-        <v>7332681.90255834</v>
+        <v>7332507.056829408</v>
       </c>
       <c r="S230" t="n">
         <v>10</v>
@@ -27007,12 +27001,12 @@
       <c r="AT230" t="inlineStr"/>
       <c r="AW230" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX230" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY230" t="inlineStr">
@@ -27023,10 +27017,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>111711615</v>
+        <v>111709546</v>
       </c>
       <c r="B231" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -27039,34 +27033,34 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="P231" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q231" t="n">
-        <v>725158.4186296141</v>
+        <v>725371.58752042</v>
       </c>
       <c r="R231" t="n">
-        <v>7332507.056829408</v>
+        <v>7332648.122461995</v>
       </c>
       <c r="S231" t="n">
         <v>10</v>
@@ -27123,12 +27117,12 @@
       <c r="AT231" t="inlineStr"/>
       <c r="AW231" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX231" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY231" t="inlineStr">
@@ -27139,10 +27133,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>111709546</v>
+        <v>111709521</v>
       </c>
       <c r="B232" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -27151,25 +27145,25 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I232" t="inlineStr"/>
@@ -27179,10 +27173,10 @@
         </is>
       </c>
       <c r="Q232" t="n">
-        <v>725371.58752042</v>
+        <v>725224.1356442837</v>
       </c>
       <c r="R232" t="n">
-        <v>7332648.122461995</v>
+        <v>7332682.9349325</v>
       </c>
       <c r="S232" t="n">
         <v>10</v>
@@ -27255,10 +27249,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>111709521</v>
+        <v>111710373</v>
       </c>
       <c r="B233" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -27267,38 +27261,38 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="P233" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q233" t="n">
-        <v>725224.1356442837</v>
+        <v>725100.52854856</v>
       </c>
       <c r="R233" t="n">
-        <v>7332682.9349325</v>
+        <v>7332654.32938866</v>
       </c>
       <c r="S233" t="n">
         <v>10</v>
@@ -27355,12 +27349,12 @@
       <c r="AT233" t="inlineStr"/>
       <c r="AW233" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX233" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY233" t="inlineStr">
@@ -27371,10 +27365,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>111710373</v>
+        <v>111709535</v>
       </c>
       <c r="B234" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -27387,34 +27381,34 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q234" t="n">
-        <v>725100.52854856</v>
+        <v>725583.2800043395</v>
       </c>
       <c r="R234" t="n">
-        <v>7332654.32938866</v>
+        <v>7332509.830489904</v>
       </c>
       <c r="S234" t="n">
         <v>10</v>
@@ -27471,12 +27465,12 @@
       <c r="AT234" t="inlineStr"/>
       <c r="AW234" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX234" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY234" t="inlineStr">
@@ -27487,10 +27481,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>111709535</v>
+        <v>111711653</v>
       </c>
       <c r="B235" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -27503,34 +27497,34 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="P235" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q235" t="n">
-        <v>725583.2800043395</v>
+        <v>725108.9824691841</v>
       </c>
       <c r="R235" t="n">
-        <v>7332509.830489904</v>
+        <v>7332532.523227719</v>
       </c>
       <c r="S235" t="n">
         <v>10</v>
@@ -27587,12 +27581,12 @@
       <c r="AT235" t="inlineStr"/>
       <c r="AW235" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX235" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY235" t="inlineStr">
@@ -27603,10 +27597,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>111711653</v>
+        <v>111709531</v>
       </c>
       <c r="B236" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -27619,34 +27613,34 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="P236" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q236" t="n">
-        <v>725108.9824691841</v>
+        <v>725390.4968676881</v>
       </c>
       <c r="R236" t="n">
-        <v>7332532.523227719</v>
+        <v>7332585.121412311</v>
       </c>
       <c r="S236" t="n">
         <v>10</v>
@@ -27703,12 +27697,12 @@
       <c r="AT236" t="inlineStr"/>
       <c r="AW236" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX236" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY236" t="inlineStr">
@@ -27719,10 +27713,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>111709531</v>
+        <v>111711330</v>
       </c>
       <c r="B237" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -27735,34 +27729,34 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="P237" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q237" t="n">
-        <v>725390.4968676881</v>
+        <v>724988.8824832393</v>
       </c>
       <c r="R237" t="n">
-        <v>7332585.121412311</v>
+        <v>7332536.862434288</v>
       </c>
       <c r="S237" t="n">
         <v>10</v>
@@ -27794,7 +27788,7 @@
       </c>
       <c r="Z237" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA237" t="inlineStr">
@@ -27804,7 +27798,7 @@
       </c>
       <c r="AB237" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD237" t="b">
@@ -27819,12 +27813,12 @@
       <c r="AT237" t="inlineStr"/>
       <c r="AW237" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX237" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY237" t="inlineStr">
@@ -27835,10 +27829,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>111711330</v>
+        <v>111711368</v>
       </c>
       <c r="B238" t="n">
-        <v>90652</v>
+        <v>89646</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -27847,25 +27841,25 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>3100</v>
+        <v>65</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I238" t="inlineStr"/>
@@ -27875,10 +27869,10 @@
         </is>
       </c>
       <c r="Q238" t="n">
-        <v>724988.8824832393</v>
+        <v>724964.2680188013</v>
       </c>
       <c r="R238" t="n">
-        <v>7332536.862434288</v>
+        <v>7332532.866132921</v>
       </c>
       <c r="S238" t="n">
         <v>10</v>
@@ -27910,7 +27904,7 @@
       </c>
       <c r="Z238" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA238" t="inlineStr">
@@ -27920,7 +27914,7 @@
       </c>
       <c r="AB238" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD238" t="b">
@@ -27951,10 +27945,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>111711368</v>
+        <v>111711376</v>
       </c>
       <c r="B239" t="n">
-        <v>89646</v>
+        <v>90658</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -27963,25 +27957,25 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>65</v>
+        <v>4361</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I239" t="inlineStr"/>
@@ -27991,10 +27985,10 @@
         </is>
       </c>
       <c r="Q239" t="n">
-        <v>724964.2680188013</v>
+        <v>724956.5500826776</v>
       </c>
       <c r="R239" t="n">
-        <v>7332532.866132921</v>
+        <v>7332506.532380758</v>
       </c>
       <c r="S239" t="n">
         <v>10</v>
@@ -28026,7 +28020,7 @@
       </c>
       <c r="Z239" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA239" t="inlineStr">
@@ -28036,7 +28030,7 @@
       </c>
       <c r="AB239" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD239" t="b">
@@ -28067,10 +28061,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>111711376</v>
+        <v>111711341</v>
       </c>
       <c r="B240" t="n">
-        <v>90658</v>
+        <v>88489</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -28083,21 +28077,21 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4361</v>
+        <v>1962</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I240" t="inlineStr"/>
@@ -28107,10 +28101,10 @@
         </is>
       </c>
       <c r="Q240" t="n">
-        <v>724956.5500826776</v>
+        <v>725034.8433539984</v>
       </c>
       <c r="R240" t="n">
-        <v>7332506.532380758</v>
+        <v>7332642.578034746</v>
       </c>
       <c r="S240" t="n">
         <v>10</v>
@@ -28142,7 +28136,7 @@
       </c>
       <c r="Z240" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA240" t="inlineStr">
@@ -28152,7 +28146,7 @@
       </c>
       <c r="AB240" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD240" t="b">
@@ -28183,10 +28177,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>111711341</v>
+        <v>111711349</v>
       </c>
       <c r="B241" t="n">
-        <v>88489</v>
+        <v>90710</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -28199,21 +28193,21 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1962</v>
+        <v>5449</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I241" t="inlineStr"/>
@@ -28223,10 +28217,10 @@
         </is>
       </c>
       <c r="Q241" t="n">
-        <v>725034.8433539984</v>
+        <v>724998.3877210761</v>
       </c>
       <c r="R241" t="n">
-        <v>7332642.578034746</v>
+        <v>7332664.176886482</v>
       </c>
       <c r="S241" t="n">
         <v>10</v>
@@ -28258,7 +28252,7 @@
       </c>
       <c r="Z241" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA241" t="inlineStr">
@@ -28268,7 +28262,7 @@
       </c>
       <c r="AB241" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD241" t="b">
@@ -28299,10 +28293,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>111711349</v>
+        <v>111710643</v>
       </c>
       <c r="B242" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -28311,38 +28305,38 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="P242" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q242" t="n">
-        <v>724998.3877210761</v>
+        <v>725171.2503796207</v>
       </c>
       <c r="R242" t="n">
-        <v>7332664.176886482</v>
+        <v>7332448.468230611</v>
       </c>
       <c r="S242" t="n">
         <v>10</v>
@@ -28374,7 +28368,7 @@
       </c>
       <c r="Z242" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA242" t="inlineStr">
@@ -28384,7 +28378,7 @@
       </c>
       <c r="AB242" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD242" t="b">
@@ -28399,12 +28393,12 @@
       <c r="AT242" t="inlineStr"/>
       <c r="AW242" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY242" t="inlineStr">
@@ -28415,10 +28409,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>111710643</v>
+        <v>111710651</v>
       </c>
       <c r="B243" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -28427,25 +28421,25 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I243" t="inlineStr"/>
@@ -28455,10 +28449,10 @@
         </is>
       </c>
       <c r="Q243" t="n">
-        <v>725171.2503796207</v>
+        <v>725218.2673153686</v>
       </c>
       <c r="R243" t="n">
-        <v>7332448.468230611</v>
+        <v>7332366.057011612</v>
       </c>
       <c r="S243" t="n">
         <v>10</v>
@@ -28531,7 +28525,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>111710651</v>
+        <v>111698875</v>
       </c>
       <c r="B244" t="n">
         <v>90658</v>
@@ -28564,17 +28558,27 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I244" t="inlineStr"/>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="P244" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Juohkeljåhkå (Juohkeljåhkå), Lu lm</t>
         </is>
       </c>
       <c r="Q244" t="n">
-        <v>725218.2673153686</v>
+        <v>725072.0609832492</v>
       </c>
       <c r="R244" t="n">
-        <v>7332366.057011612</v>
+        <v>7332462.224254381</v>
       </c>
       <c r="S244" t="n">
         <v>10</v>
@@ -28631,19 +28635,15 @@
       <c r="AT244" t="inlineStr"/>
       <c r="AW244" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Lina Wikander</t>
         </is>
       </c>
       <c r="AX244" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY244" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Lina Wikander</t>
+        </is>
+      </c>
+      <c r="AY244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -34583,10 +34583,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>111712879</v>
+        <v>111706067</v>
       </c>
       <c r="B296" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -34599,34 +34599,34 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="P296" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>725494.1053616931</v>
+        <v>725101.7560900204</v>
       </c>
       <c r="R296" t="n">
-        <v>7332541.516884685</v>
+        <v>7332484.589400881</v>
       </c>
       <c r="S296" t="n">
         <v>10</v>
@@ -34683,26 +34683,22 @@
       <c r="AT296" t="inlineStr"/>
       <c r="AW296" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX296" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
-        </is>
-      </c>
-      <c r="AY296" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>111706067</v>
+        <v>111709547</v>
       </c>
       <c r="B297" t="n">
-        <v>90660</v>
+        <v>87992</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -34711,38 +34707,38 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>4362</v>
+        <v>1593</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Jul.Schäff.</t>
         </is>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="P297" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>725101.7560900204</v>
+        <v>725471.0673947937</v>
       </c>
       <c r="R297" t="n">
-        <v>7332484.589400881</v>
+        <v>7332605.006548095</v>
       </c>
       <c r="S297" t="n">
         <v>10</v>
@@ -34799,19 +34795,23 @@
       <c r="AT297" t="inlineStr"/>
       <c r="AW297" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX297" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY297" t="inlineStr"/>
+          <t>Linda Nordström</t>
+        </is>
+      </c>
+      <c r="AY297" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>111710636</v>
+        <v>111709516</v>
       </c>
       <c r="B298" t="n">
         <v>90682</v>
@@ -34847,14 +34847,14 @@
       <c r="I298" t="inlineStr"/>
       <c r="P298" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q298" t="n">
-        <v>725091.5760871549</v>
+        <v>725464.809988003</v>
       </c>
       <c r="R298" t="n">
-        <v>7332494.395587941</v>
+        <v>7332632.27051338</v>
       </c>
       <c r="S298" t="n">
         <v>10</v>
@@ -34911,12 +34911,12 @@
       <c r="AT298" t="inlineStr"/>
       <c r="AW298" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX298" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY298" t="inlineStr">
@@ -34927,10 +34927,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>111710663</v>
+        <v>111710346</v>
       </c>
       <c r="B299" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -34943,34 +34943,34 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="P299" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>725245.3011301144</v>
+        <v>725065.9100566822</v>
       </c>
       <c r="R299" t="n">
-        <v>7332365.348353437</v>
+        <v>7332627.083262745</v>
       </c>
       <c r="S299" t="n">
         <v>10</v>
@@ -35027,12 +35027,12 @@
       <c r="AT299" t="inlineStr"/>
       <c r="AW299" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX299" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY299" t="inlineStr">
@@ -35043,10 +35043,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>111710625</v>
+        <v>111709512</v>
       </c>
       <c r="B300" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -35059,34 +35059,34 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="P300" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q300" t="n">
-        <v>725107.7132965717</v>
+        <v>725561.0934621822</v>
       </c>
       <c r="R300" t="n">
-        <v>7332476.489007546</v>
+        <v>7332521.53703149</v>
       </c>
       <c r="S300" t="n">
         <v>10</v>
@@ -35143,12 +35143,12 @@
       <c r="AT300" t="inlineStr"/>
       <c r="AW300" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX300" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY300" t="inlineStr">
@@ -35159,10 +35159,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>111711362</v>
+        <v>111709552</v>
       </c>
       <c r="B301" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -35171,38 +35171,38 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="P301" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q301" t="n">
-        <v>724984.4355383365</v>
+        <v>725474.2979611596</v>
       </c>
       <c r="R301" t="n">
-        <v>7332592.84925364</v>
+        <v>7332600.364490152</v>
       </c>
       <c r="S301" t="n">
         <v>10</v>
@@ -35234,7 +35234,7 @@
       </c>
       <c r="Z301" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA301" t="inlineStr">
@@ -35244,7 +35244,7 @@
       </c>
       <c r="AB301" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD301" t="b">
@@ -35259,12 +35259,12 @@
       <c r="AT301" t="inlineStr"/>
       <c r="AW301" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX301" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY301" t="inlineStr">
@@ -35275,7 +35275,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>111709516</v>
+        <v>111709514</v>
       </c>
       <c r="B302" t="n">
         <v>90682</v>
@@ -35315,10 +35315,10 @@
         </is>
       </c>
       <c r="Q302" t="n">
-        <v>725464.809988003</v>
+        <v>725582.4215091417</v>
       </c>
       <c r="R302" t="n">
-        <v>7332632.27051338</v>
+        <v>7332515.478089629</v>
       </c>
       <c r="S302" t="n">
         <v>10</v>
@@ -35391,10 +35391,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>111710346</v>
+        <v>111710663</v>
       </c>
       <c r="B303" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -35407,34 +35407,34 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="P303" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q303" t="n">
-        <v>725065.9100566822</v>
+        <v>725245.3011301144</v>
       </c>
       <c r="R303" t="n">
-        <v>7332627.083262745</v>
+        <v>7332365.348353437</v>
       </c>
       <c r="S303" t="n">
         <v>10</v>
@@ -35491,12 +35491,12 @@
       <c r="AT303" t="inlineStr"/>
       <c r="AW303" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX303" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY303" t="inlineStr">
@@ -35507,10 +35507,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>111709512</v>
+        <v>111711362</v>
       </c>
       <c r="B304" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -35519,38 +35519,38 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="P304" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q304" t="n">
-        <v>725561.0934621822</v>
+        <v>724984.4355383365</v>
       </c>
       <c r="R304" t="n">
-        <v>7332521.53703149</v>
+        <v>7332592.84925364</v>
       </c>
       <c r="S304" t="n">
         <v>10</v>
@@ -35582,7 +35582,7 @@
       </c>
       <c r="Z304" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA304" t="inlineStr">
@@ -35592,7 +35592,7 @@
       </c>
       <c r="AB304" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD304" t="b">
@@ -35607,12 +35607,12 @@
       <c r="AT304" t="inlineStr"/>
       <c r="AW304" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX304" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY304" t="inlineStr">
@@ -35623,10 +35623,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>111709552</v>
+        <v>111712879</v>
       </c>
       <c r="B305" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -35635,38 +35635,38 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="P305" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q305" t="n">
-        <v>725474.2979611596</v>
+        <v>725494.1053616931</v>
       </c>
       <c r="R305" t="n">
-        <v>7332600.364490152</v>
+        <v>7332541.516884685</v>
       </c>
       <c r="S305" t="n">
         <v>10</v>
@@ -35723,12 +35723,12 @@
       <c r="AT305" t="inlineStr"/>
       <c r="AW305" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX305" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY305" t="inlineStr">
@@ -35739,7 +35739,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>111709514</v>
+        <v>111710636</v>
       </c>
       <c r="B306" t="n">
         <v>90682</v>
@@ -35775,14 +35775,14 @@
       <c r="I306" t="inlineStr"/>
       <c r="P306" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q306" t="n">
-        <v>725582.4215091417</v>
+        <v>725091.5760871549</v>
       </c>
       <c r="R306" t="n">
-        <v>7332515.478089629</v>
+        <v>7332494.395587941</v>
       </c>
       <c r="S306" t="n">
         <v>10</v>
@@ -35839,12 +35839,12 @@
       <c r="AT306" t="inlineStr"/>
       <c r="AW306" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX306" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY306" t="inlineStr">
@@ -35855,10 +35855,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>111709547</v>
+        <v>111710625</v>
       </c>
       <c r="B307" t="n">
-        <v>87992</v>
+        <v>90710</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -35867,38 +35867,38 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>1593</v>
+        <v>5449</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="P307" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q307" t="n">
-        <v>725471.0673947937</v>
+        <v>725107.7132965717</v>
       </c>
       <c r="R307" t="n">
-        <v>7332605.006548095</v>
+        <v>7332476.489007546</v>
       </c>
       <c r="S307" t="n">
         <v>10</v>
@@ -35955,12 +35955,12 @@
       <c r="AT307" t="inlineStr"/>
       <c r="AW307" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX307" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY307" t="inlineStr">
@@ -37936,10 +37936,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>111709505</v>
+        <v>111711367</v>
       </c>
       <c r="B325" t="n">
-        <v>90670</v>
+        <v>88489</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -37948,38 +37948,38 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4365</v>
+        <v>1962</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="P325" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q325" t="n">
-        <v>725439.8414526138</v>
+        <v>724964.2680188013</v>
       </c>
       <c r="R325" t="n">
-        <v>7332632.73272271</v>
+        <v>7332532.866132921</v>
       </c>
       <c r="S325" t="n">
         <v>10</v>
@@ -38011,7 +38011,7 @@
       </c>
       <c r="Z325" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA325" t="inlineStr">
@@ -38021,7 +38021,7 @@
       </c>
       <c r="AB325" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD325" t="b">
@@ -38036,12 +38036,12 @@
       <c r="AT325" t="inlineStr"/>
       <c r="AW325" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX325" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY325" t="inlineStr">
@@ -38052,10 +38052,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>111709545</v>
+        <v>111711337</v>
       </c>
       <c r="B326" t="n">
-        <v>90658</v>
+        <v>90300</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -38068,34 +38068,34 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="P326" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q326" t="n">
-        <v>725379.5947375454</v>
+        <v>725063.0477281394</v>
       </c>
       <c r="R326" t="n">
-        <v>7332645.085250021</v>
+        <v>7332621.956773021</v>
       </c>
       <c r="S326" t="n">
         <v>10</v>
@@ -38127,7 +38127,7 @@
       </c>
       <c r="Z326" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA326" t="inlineStr">
@@ -38137,7 +38137,7 @@
       </c>
       <c r="AB326" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD326" t="b">
@@ -38152,12 +38152,12 @@
       <c r="AT326" t="inlineStr"/>
       <c r="AW326" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX326" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY326" t="inlineStr">
@@ -38168,10 +38168,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>111709551</v>
+        <v>111711348</v>
       </c>
       <c r="B327" t="n">
-        <v>88032</v>
+        <v>88489</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -38180,38 +38180,38 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>6276</v>
+        <v>1962</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="P327" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q327" t="n">
-        <v>725505.0457155555</v>
+        <v>724999.4450050651</v>
       </c>
       <c r="R327" t="n">
-        <v>7332624.858654157</v>
+        <v>7332666.30210897</v>
       </c>
       <c r="S327" t="n">
         <v>10</v>
@@ -38243,7 +38243,7 @@
       </c>
       <c r="Z327" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA327" t="inlineStr">
@@ -38253,7 +38253,7 @@
       </c>
       <c r="AB327" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD327" t="b">
@@ -38268,12 +38268,12 @@
       <c r="AT327" t="inlineStr"/>
       <c r="AW327" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX327" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY327" t="inlineStr">
@@ -38284,10 +38284,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>111709533</v>
+        <v>111711333</v>
       </c>
       <c r="B328" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -38296,38 +38296,38 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E328" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="P328" t="inlineStr">
         <is>
-          <t>Biellojávre, Lu lm</t>
+          <t>Biellojaure öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q328" t="n">
-        <v>725482.9540899501</v>
+        <v>724991.8289444095</v>
       </c>
       <c r="R328" t="n">
-        <v>7332527.56429973</v>
+        <v>7332546.078287944</v>
       </c>
       <c r="S328" t="n">
         <v>10</v>
@@ -38359,7 +38359,7 @@
       </c>
       <c r="Z328" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA328" t="inlineStr">
@@ -38369,7 +38369,7 @@
       </c>
       <c r="AB328" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD328" t="b">
@@ -38384,12 +38384,12 @@
       <c r="AT328" t="inlineStr"/>
       <c r="AW328" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX328" t="inlineStr">
         <is>
-          <t>Linda Nordström</t>
+          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
         </is>
       </c>
       <c r="AY328" t="inlineStr">
@@ -38400,10 +38400,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>111710369</v>
+        <v>111709505</v>
       </c>
       <c r="B329" t="n">
-        <v>90682</v>
+        <v>90670</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -38412,38 +38412,38 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>2059</v>
+        <v>4365</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="P329" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q329" t="n">
-        <v>725235.6721345596</v>
+        <v>725439.8414526138</v>
       </c>
       <c r="R329" t="n">
-        <v>7332630.370986193</v>
+        <v>7332632.73272271</v>
       </c>
       <c r="S329" t="n">
         <v>10</v>
@@ -38500,12 +38500,12 @@
       <c r="AT329" t="inlineStr"/>
       <c r="AW329" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX329" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY329" t="inlineStr">
@@ -38516,10 +38516,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>111709550</v>
+        <v>111709545</v>
       </c>
       <c r="B330" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -38528,25 +38528,25 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E330" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I330" t="inlineStr"/>
@@ -38556,10 +38556,10 @@
         </is>
       </c>
       <c r="Q330" t="n">
-        <v>725590.5540492006</v>
+        <v>725379.5947375454</v>
       </c>
       <c r="R330" t="n">
-        <v>7332500.610951951</v>
+        <v>7332645.085250021</v>
       </c>
       <c r="S330" t="n">
         <v>10</v>
@@ -38632,10 +38632,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>111709536</v>
+        <v>111709551</v>
       </c>
       <c r="B331" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -38644,25 +38644,25 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I331" t="inlineStr"/>
@@ -38672,10 +38672,10 @@
         </is>
       </c>
       <c r="Q331" t="n">
-        <v>725582.3245806872</v>
+        <v>725505.0457155555</v>
       </c>
       <c r="R331" t="n">
-        <v>7332516.695219268</v>
+        <v>7332624.858654157</v>
       </c>
       <c r="S331" t="n">
         <v>10</v>
@@ -38748,10 +38748,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>111709548</v>
+        <v>111709533</v>
       </c>
       <c r="B332" t="n">
-        <v>87992</v>
+        <v>90658</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -38760,25 +38760,25 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1593</v>
+        <v>4361</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I332" t="inlineStr"/>
@@ -38788,10 +38788,10 @@
         </is>
       </c>
       <c r="Q332" t="n">
-        <v>725406.6209292178</v>
+        <v>725482.9540899501</v>
       </c>
       <c r="R332" t="n">
-        <v>7332634.171499273</v>
+        <v>7332527.56429973</v>
       </c>
       <c r="S332" t="n">
         <v>10</v>
@@ -38864,10 +38864,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>111711624</v>
+        <v>111710369</v>
       </c>
       <c r="B333" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -38876,38 +38876,38 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E333" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="P333" t="inlineStr">
         <is>
-          <t>Biellojaure, öster om E45, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q333" t="n">
-        <v>725105.0691209615</v>
+        <v>725235.6721345596</v>
       </c>
       <c r="R333" t="n">
-        <v>7332535.478382432</v>
+        <v>7332630.370986193</v>
       </c>
       <c r="S333" t="n">
         <v>10</v>
@@ -38964,12 +38964,12 @@
       <c r="AT333" t="inlineStr"/>
       <c r="AW333" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX333" t="inlineStr">
         <is>
-          <t>Andreas Falk</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY333" t="inlineStr">
@@ -38980,10 +38980,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>111706041</v>
+        <v>111709550</v>
       </c>
       <c r="B334" t="n">
-        <v>90709</v>
+        <v>88032</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -38992,38 +38992,38 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E334" t="n">
-        <v>5448</v>
+        <v>6276</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="P334" t="inlineStr">
         <is>
-          <t>Biellojaure Öst, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q334" t="n">
-        <v>725160.9948770334</v>
+        <v>725590.5540492006</v>
       </c>
       <c r="R334" t="n">
-        <v>7332387.226663022</v>
+        <v>7332500.610951951</v>
       </c>
       <c r="S334" t="n">
         <v>10</v>
@@ -39080,22 +39080,26 @@
       <c r="AT334" t="inlineStr"/>
       <c r="AW334" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX334" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
-        </is>
-      </c>
-      <c r="AY334" t="inlineStr"/>
+          <t>Linda Nordström</t>
+        </is>
+      </c>
+      <c r="AY334" t="inlineStr">
+        <is>
+          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>111712871</v>
+        <v>111709536</v>
       </c>
       <c r="B335" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -39108,34 +39112,34 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="P335" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q335" t="n">
-        <v>725274.9994540716</v>
+        <v>725582.3245806872</v>
       </c>
       <c r="R335" t="n">
-        <v>7332685.755133895</v>
+        <v>7332516.695219268</v>
       </c>
       <c r="S335" t="n">
         <v>10</v>
@@ -39192,12 +39196,12 @@
       <c r="AT335" t="inlineStr"/>
       <c r="AW335" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX335" t="inlineStr">
         <is>
-          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY335" t="inlineStr">
@@ -39208,10 +39212,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>111711367</v>
+        <v>111709548</v>
       </c>
       <c r="B336" t="n">
-        <v>88489</v>
+        <v>87992</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -39220,38 +39224,38 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1962</v>
+        <v>1593</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Jul.Schäff.</t>
         </is>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="P336" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojávre, Lu lm</t>
         </is>
       </c>
       <c r="Q336" t="n">
-        <v>724964.2680188013</v>
+        <v>725406.6209292178</v>
       </c>
       <c r="R336" t="n">
-        <v>7332532.866132921</v>
+        <v>7332634.171499273</v>
       </c>
       <c r="S336" t="n">
         <v>10</v>
@@ -39283,7 +39287,7 @@
       </c>
       <c r="Z336" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA336" t="inlineStr">
@@ -39293,7 +39297,7 @@
       </c>
       <c r="AB336" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD336" t="b">
@@ -39308,12 +39312,12 @@
       <c r="AT336" t="inlineStr"/>
       <c r="AW336" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AX336" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Linda Nordström</t>
         </is>
       </c>
       <c r="AY336" t="inlineStr">
@@ -39324,10 +39328,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>111711337</v>
+        <v>111711624</v>
       </c>
       <c r="B337" t="n">
-        <v>90300</v>
+        <v>90678</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -39336,38 +39340,38 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>4745</v>
+        <v>4366</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="P337" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, öster om E45, Lu lm</t>
         </is>
       </c>
       <c r="Q337" t="n">
-        <v>725063.0477281394</v>
+        <v>725105.0691209615</v>
       </c>
       <c r="R337" t="n">
-        <v>7332621.956773021</v>
+        <v>7332535.478382432</v>
       </c>
       <c r="S337" t="n">
         <v>10</v>
@@ -39399,7 +39403,7 @@
       </c>
       <c r="Z337" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA337" t="inlineStr">
@@ -39409,7 +39413,7 @@
       </c>
       <c r="AB337" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD337" t="b">
@@ -39424,12 +39428,12 @@
       <c r="AT337" t="inlineStr"/>
       <c r="AW337" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AX337" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Andreas Falk</t>
         </is>
       </c>
       <c r="AY337" t="inlineStr">
@@ -39440,10 +39444,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>111711348</v>
+        <v>111706041</v>
       </c>
       <c r="B338" t="n">
-        <v>88489</v>
+        <v>90709</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -39456,34 +39460,34 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1962</v>
+        <v>5448</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="P338" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure Öst, Lu lm</t>
         </is>
       </c>
       <c r="Q338" t="n">
-        <v>724999.4450050651</v>
+        <v>725160.9948770334</v>
       </c>
       <c r="R338" t="n">
-        <v>7332666.30210897</v>
+        <v>7332387.226663022</v>
       </c>
       <c r="S338" t="n">
         <v>10</v>
@@ -39515,7 +39519,7 @@
       </c>
       <c r="Z338" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA338" t="inlineStr">
@@ -39525,7 +39529,7 @@
       </c>
       <c r="AB338" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD338" t="b">
@@ -39540,26 +39544,22 @@
       <c r="AT338" t="inlineStr"/>
       <c r="AW338" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX338" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
-        </is>
-      </c>
-      <c r="AY338" t="inlineStr">
-        <is>
-          <t>Sandtallskogsprojektet 2023, Norrbottens län</t>
-        </is>
-      </c>
+          <t>Amanda Tas</t>
+        </is>
+      </c>
+      <c r="AY338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>111711333</v>
+        <v>111712871</v>
       </c>
       <c r="B339" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -39568,38 +39568,38 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E339" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="P339" t="inlineStr">
         <is>
-          <t>Biellojaure öster om E45, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q339" t="n">
-        <v>724991.8289444095</v>
+        <v>725274.9994540716</v>
       </c>
       <c r="R339" t="n">
-        <v>7332546.078287944</v>
+        <v>7332685.755133895</v>
       </c>
       <c r="S339" t="n">
         <v>10</v>
@@ -39631,7 +39631,7 @@
       </c>
       <c r="Z339" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA339" t="inlineStr">
@@ -39641,7 +39641,7 @@
       </c>
       <c r="AB339" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD339" t="b">
@@ -39656,12 +39656,12 @@
       <c r="AT339" t="inlineStr"/>
       <c r="AW339" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX339" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isak Vahlström, Roger Olofsson, Anne Järvinen, Sara Forsström </t>
+          <t>Brian Johnson, Petra Wikström, Helena Björnström</t>
         </is>
       </c>
       <c r="AY339" t="inlineStr">
@@ -47096,10 +47096,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>111747053</v>
+        <v>111739853</v>
       </c>
       <c r="B404" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -47112,34 +47112,34 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="P404" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q404" t="n">
-        <v>725462.2290138868</v>
+        <v>725068.5724091117</v>
       </c>
       <c r="R404" t="n">
-        <v>7332603.078218663</v>
+        <v>7332650.156960909</v>
       </c>
       <c r="S404" t="n">
         <v>10</v>
@@ -47171,7 +47171,7 @@
       </c>
       <c r="Z404" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA404" t="inlineStr">
@@ -47181,7 +47181,7 @@
       </c>
       <c r="AB404" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD404" t="b">
@@ -47196,12 +47196,12 @@
       <c r="AT404" t="inlineStr"/>
       <c r="AW404" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX404" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY404" t="inlineStr">
@@ -47328,10 +47328,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>111739853</v>
+        <v>111747072</v>
       </c>
       <c r="B406" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -47344,34 +47344,34 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="P406" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q406" t="n">
-        <v>725068.5724091117</v>
+        <v>725391.5155156781</v>
       </c>
       <c r="R406" t="n">
-        <v>7332650.156960909</v>
+        <v>7332639.093384757</v>
       </c>
       <c r="S406" t="n">
         <v>10</v>
@@ -47403,7 +47403,7 @@
       </c>
       <c r="Z406" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA406" t="inlineStr">
@@ -47413,7 +47413,7 @@
       </c>
       <c r="AB406" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AD406" t="b">
@@ -47428,12 +47428,12 @@
       <c r="AT406" t="inlineStr"/>
       <c r="AW406" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX406" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY406" t="inlineStr">
@@ -47444,10 +47444,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>111747072</v>
+        <v>111747046</v>
       </c>
       <c r="B407" t="n">
-        <v>90658</v>
+        <v>90300</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -47460,21 +47460,21 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I407" t="inlineStr"/>
@@ -47484,10 +47484,10 @@
         </is>
       </c>
       <c r="Q407" t="n">
-        <v>725391.5155156781</v>
+        <v>725472.7317965528</v>
       </c>
       <c r="R407" t="n">
-        <v>7332639.093384757</v>
+        <v>7332553.288591164</v>
       </c>
       <c r="S407" t="n">
         <v>10</v>
@@ -47519,7 +47519,7 @@
       </c>
       <c r="Z407" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA407" t="inlineStr">
@@ -47529,7 +47529,7 @@
       </c>
       <c r="AB407" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD407" t="b">
@@ -47560,10 +47560,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>111747046</v>
+        <v>111747063</v>
       </c>
       <c r="B408" t="n">
-        <v>90300</v>
+        <v>90143</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -47572,25 +47572,25 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4745</v>
+        <v>1958</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Lammticka</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Albatrellus subrubescens</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Murrill) Pouzar</t>
         </is>
       </c>
       <c r="I408" t="inlineStr"/>
@@ -47600,10 +47600,10 @@
         </is>
       </c>
       <c r="Q408" t="n">
-        <v>725472.7317965528</v>
+        <v>725437.2041775794</v>
       </c>
       <c r="R408" t="n">
-        <v>7332553.288591164</v>
+        <v>7332588.838373432</v>
       </c>
       <c r="S408" t="n">
         <v>10</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="Z408" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA408" t="inlineStr">
@@ -47645,7 +47645,7 @@
       </c>
       <c r="AB408" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD408" t="b">
@@ -47676,10 +47676,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>111747063</v>
+        <v>111747053</v>
       </c>
       <c r="B409" t="n">
-        <v>90143</v>
+        <v>90710</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -47688,25 +47688,25 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1958</v>
+        <v>5449</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Lammticka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>Albatrellus subrubescens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>(Murrill) Pouzar</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I409" t="inlineStr"/>
@@ -47716,10 +47716,10 @@
         </is>
       </c>
       <c r="Q409" t="n">
-        <v>725437.2041775794</v>
+        <v>725462.2290138868</v>
       </c>
       <c r="R409" t="n">
-        <v>7332588.838373432</v>
+        <v>7332603.078218663</v>
       </c>
       <c r="S409" t="n">
         <v>10</v>
@@ -47751,7 +47751,7 @@
       </c>
       <c r="Z409" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA409" t="inlineStr">
@@ -47761,7 +47761,7 @@
       </c>
       <c r="AB409" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD409" t="b">
@@ -49417,10 +49417,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>111747043</v>
+        <v>111739867</v>
       </c>
       <c r="B424" t="n">
-        <v>88914</v>
+        <v>90658</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -49429,38 +49429,38 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2051</v>
+        <v>4361</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="P424" t="inlineStr">
         <is>
-          <t>Biellojaure, Lu lm</t>
+          <t>Biellojaure öst, Lu lm</t>
         </is>
       </c>
       <c r="Q424" t="n">
-        <v>725486.9696985815</v>
+        <v>725003.8732802497</v>
       </c>
       <c r="R424" t="n">
-        <v>7332533.599852242</v>
+        <v>7332631.136160576</v>
       </c>
       <c r="S424" t="n">
         <v>10</v>
@@ -49492,7 +49492,7 @@
       </c>
       <c r="Z424" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA424" t="inlineStr">
@@ -49502,7 +49502,7 @@
       </c>
       <c r="AB424" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD424" t="b">
@@ -49517,12 +49517,12 @@
       <c r="AT424" t="inlineStr"/>
       <c r="AW424" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX424" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY424" t="inlineStr">
@@ -49533,10 +49533,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>111747037</v>
+        <v>111747043</v>
       </c>
       <c r="B425" t="n">
-        <v>76918</v>
+        <v>88914</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -49545,25 +49545,25 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E425" t="n">
-        <v>6437</v>
+        <v>2051</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Kytöv. &amp; M.Toivonen</t>
         </is>
       </c>
       <c r="I425" t="inlineStr"/>
@@ -49573,10 +49573,10 @@
         </is>
       </c>
       <c r="Q425" t="n">
-        <v>725388.571213768</v>
+        <v>725486.9696985815</v>
       </c>
       <c r="R425" t="n">
-        <v>7332568.229136779</v>
+        <v>7332533.599852242</v>
       </c>
       <c r="S425" t="n">
         <v>10</v>
@@ -49608,7 +49608,7 @@
       </c>
       <c r="Z425" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA425" t="inlineStr">
@@ -49618,7 +49618,7 @@
       </c>
       <c r="AB425" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD425" t="b">
@@ -49649,7 +49649,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>111747039</v>
+        <v>111747037</v>
       </c>
       <c r="B426" t="n">
         <v>76918</v>
@@ -49689,10 +49689,10 @@
         </is>
       </c>
       <c r="Q426" t="n">
-        <v>725395.8714946804</v>
+        <v>725388.571213768</v>
       </c>
       <c r="R426" t="n">
-        <v>7332548.396420963</v>
+        <v>7332568.229136779</v>
       </c>
       <c r="S426" t="n">
         <v>10</v>
@@ -49724,7 +49724,7 @@
       </c>
       <c r="Z426" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA426" t="inlineStr">
@@ -49734,7 +49734,7 @@
       </c>
       <c r="AB426" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD426" t="b">
@@ -49765,10 +49765,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>111747049</v>
+        <v>111747039</v>
       </c>
       <c r="B427" t="n">
-        <v>90682</v>
+        <v>76918</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -49781,21 +49781,21 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>2059</v>
+        <v>6437</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I427" t="inlineStr"/>
@@ -49805,10 +49805,10 @@
         </is>
       </c>
       <c r="Q427" t="n">
-        <v>725480.3803432247</v>
+        <v>725395.8714946804</v>
       </c>
       <c r="R427" t="n">
-        <v>7332580.435174691</v>
+        <v>7332548.396420963</v>
       </c>
       <c r="S427" t="n">
         <v>10</v>
@@ -49840,7 +49840,7 @@
       </c>
       <c r="Z427" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA427" t="inlineStr">
@@ -49850,7 +49850,7 @@
       </c>
       <c r="AB427" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD427" t="b">
@@ -49881,10 +49881,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>111747055</v>
+        <v>111747049</v>
       </c>
       <c r="B428" t="n">
-        <v>90670</v>
+        <v>90682</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -49893,25 +49893,25 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E428" t="n">
-        <v>4365</v>
+        <v>2059</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I428" t="inlineStr"/>
@@ -49921,10 +49921,10 @@
         </is>
       </c>
       <c r="Q428" t="n">
-        <v>725462.2290138868</v>
+        <v>725480.3803432247</v>
       </c>
       <c r="R428" t="n">
-        <v>7332603.078218663</v>
+        <v>7332580.435174691</v>
       </c>
       <c r="S428" t="n">
         <v>10</v>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="Z428" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA428" t="inlineStr">
@@ -49966,7 +49966,7 @@
       </c>
       <c r="AB428" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD428" t="b">
@@ -49997,10 +49997,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>111739867</v>
+        <v>111747055</v>
       </c>
       <c r="B429" t="n">
-        <v>90658</v>
+        <v>90670</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -50009,38 +50009,38 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4361</v>
+        <v>4365</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="P429" t="inlineStr">
         <is>
-          <t>Biellojaure öst, Lu lm</t>
+          <t>Biellojaure, Lu lm</t>
         </is>
       </c>
       <c r="Q429" t="n">
-        <v>725003.8732802497</v>
+        <v>725462.2290138868</v>
       </c>
       <c r="R429" t="n">
-        <v>7332631.136160576</v>
+        <v>7332603.078218663</v>
       </c>
       <c r="S429" t="n">
         <v>10</v>
@@ -50072,7 +50072,7 @@
       </c>
       <c r="Z429" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA429" t="inlineStr">
@@ -50082,7 +50082,7 @@
       </c>
       <c r="AB429" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD429" t="b">
@@ -50097,12 +50097,12 @@
       <c r="AT429" t="inlineStr"/>
       <c r="AW429" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX429" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Helena Björnström, Petra Wikström, Roger Olofsson, Linda Nordström, Cecilia Lundin, Brian Johnson, Tore Stengrundet</t>
         </is>
       </c>
       <c r="AY429" t="inlineStr">
